--- a/BackTest/2019-10-26 BackTest WTC.xlsx
+++ b/BackTest/2019-10-26 BackTest WTC.xlsx
@@ -661,17 +661,13 @@
         <v>747.8</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>744</v>
-      </c>
-      <c r="K8" t="n">
-        <v>744</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
@@ -700,22 +696,14 @@
         <v>746</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>748</v>
-      </c>
-      <c r="K9" t="n">
-        <v>744</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -743,22 +731,14 @@
         <v>745.6</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>748</v>
-      </c>
-      <c r="K10" t="n">
-        <v>744</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -786,17 +766,13 @@
         <v>746.4</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>748</v>
-      </c>
-      <c r="K11" t="n">
-        <v>748</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
@@ -825,22 +801,14 @@
         <v>747.2</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>748</v>
-      </c>
-      <c r="K12" t="n">
-        <v>748</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -868,22 +836,14 @@
         <v>747.4</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>745</v>
-      </c>
-      <c r="K13" t="n">
-        <v>748</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -911,22 +871,14 @@
         <v>747.2</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>748</v>
-      </c>
-      <c r="K14" t="n">
-        <v>748</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -954,22 +906,14 @@
         <v>747</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>747</v>
-      </c>
-      <c r="K15" t="n">
-        <v>748</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -997,22 +941,14 @@
         <v>746.4</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>747</v>
-      </c>
-      <c r="K16" t="n">
-        <v>748</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1040,22 +976,14 @@
         <v>746.4</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>748</v>
-      </c>
-      <c r="K17" t="n">
-        <v>748</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1083,22 +1011,14 @@
         <v>747</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>748</v>
-      </c>
-      <c r="K18" t="n">
-        <v>748</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1126,22 +1046,14 @@
         <v>747.2</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>748</v>
-      </c>
-      <c r="K19" t="n">
-        <v>748</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1169,22 +1081,14 @@
         <v>747</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>746</v>
-      </c>
-      <c r="K20" t="n">
-        <v>748</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1212,22 +1116,14 @@
         <v>747</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>745</v>
-      </c>
-      <c r="K21" t="n">
-        <v>748</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1255,22 +1151,14 @@
         <v>746.4</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>745</v>
-      </c>
-      <c r="K22" t="n">
-        <v>748</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1298,22 +1186,14 @@
         <v>745.6</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>745</v>
-      </c>
-      <c r="K23" t="n">
-        <v>748</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1341,22 +1221,14 @@
         <v>745</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>745</v>
-      </c>
-      <c r="K24" t="n">
-        <v>748</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1384,22 +1256,14 @@
         <v>744.8</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>745</v>
-      </c>
-      <c r="K25" t="n">
-        <v>748</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1427,22 +1291,14 @@
         <v>744.8</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>745</v>
-      </c>
-      <c r="K26" t="n">
-        <v>748</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1470,22 +1326,14 @@
         <v>744.8</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>745</v>
-      </c>
-      <c r="K27" t="n">
-        <v>748</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1513,22 +1361,14 @@
         <v>746.6</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>750</v>
-      </c>
-      <c r="K28" t="n">
-        <v>748</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1556,22 +1396,14 @@
         <v>748.4</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>754</v>
-      </c>
-      <c r="K29" t="n">
-        <v>748</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1599,22 +1431,14 @@
         <v>751.4</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>760</v>
-      </c>
-      <c r="K30" t="n">
-        <v>748</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1642,22 +1466,14 @@
         <v>754.4</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>760</v>
-      </c>
-      <c r="K31" t="n">
-        <v>748</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1691,14 +1507,8 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>748</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1732,14 +1542,8 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>748</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1773,14 +1577,8 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>748</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1814,14 +1612,8 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>748</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1852,17 +1644,11 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>748</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1896,14 +1682,8 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>748</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1937,14 +1717,8 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>748</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1978,14 +1752,8 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>748</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2019,14 +1787,8 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>748</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2060,14 +1822,8 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>748</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2101,14 +1857,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>748</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2142,14 +1892,8 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>748</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2183,14 +1927,8 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>748</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2224,14 +1962,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>748</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2265,14 +1997,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>748</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2306,14 +2032,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>748</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2347,14 +2067,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>748</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2388,14 +2102,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>748</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2429,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>748</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2470,14 +2172,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>748</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2505,22 +2201,14 @@
         <v>746.2</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>746</v>
-      </c>
-      <c r="K52" t="n">
-        <v>748</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2548,22 +2236,14 @@
         <v>746.8</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>750</v>
-      </c>
-      <c r="K53" t="n">
-        <v>748</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2591,22 +2271,14 @@
         <v>747.4</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>749</v>
-      </c>
-      <c r="K54" t="n">
-        <v>748</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2634,22 +2306,14 @@
         <v>747.2</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>750</v>
-      </c>
-      <c r="K55" t="n">
-        <v>748</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2677,22 +2341,14 @@
         <v>747.6</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>748</v>
-      </c>
-      <c r="K56" t="n">
-        <v>748</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2720,22 +2376,14 @@
         <v>748.2</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>749</v>
-      </c>
-      <c r="K57" t="n">
-        <v>748</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2763,22 +2411,14 @@
         <v>750.6</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>757</v>
-      </c>
-      <c r="K58" t="n">
-        <v>748</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2806,22 +2446,14 @@
         <v>752.2</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>758</v>
-      </c>
-      <c r="K59" t="n">
-        <v>748</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2855,14 +2487,8 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>748</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2896,14 +2522,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>748</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2937,14 +2557,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>748</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2978,14 +2592,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>748</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -3019,14 +2627,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>748</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -3060,14 +2662,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>748</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3101,14 +2697,8 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>748</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3142,14 +2732,8 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>748</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3183,14 +2767,8 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>748</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3224,14 +2802,8 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>748</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3265,14 +2837,8 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>748</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3306,14 +2872,8 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>748</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3347,14 +2907,8 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>748</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3388,14 +2942,8 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>748</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3429,14 +2977,8 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>748</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3470,14 +3012,8 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>748</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3511,14 +3047,8 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>748</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3552,14 +3082,8 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>748</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3593,14 +3117,8 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>748</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3634,14 +3152,8 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>748</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3675,14 +3187,8 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>748</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3716,14 +3222,8 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>748</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3754,17 +3254,11 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>748</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3798,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>748</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3839,14 +3327,8 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>748</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3880,14 +3362,8 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>748</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3921,14 +3397,8 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>748</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3962,14 +3432,8 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>748</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -4003,14 +3467,8 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>748</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -4044,14 +3502,8 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>748</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -4085,14 +3537,8 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>748</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4123,19 +3569,13 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>748</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
-        <v>1.03644385026738</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -4199,7 +3639,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -4269,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -4304,7 +3744,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -10146,13 +9586,17 @@
         <v>742</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>746</v>
+      </c>
+      <c r="K263" t="n">
+        <v>746</v>
+      </c>
       <c r="L263" t="inlineStr"/>
       <c r="M263" t="n">
         <v>1</v>
@@ -10181,14 +9625,22 @@
         <v>744.2</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
       </c>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>746</v>
+      </c>
+      <c r="K264" t="n">
+        <v>746</v>
+      </c>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -10222,8 +9674,14 @@
         <v>0</v>
       </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>746</v>
+      </c>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -10321,14 +9779,20 @@
         <v>748.4</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
       </c>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>751</v>
+      </c>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -10363,7 +9827,11 @@
       </c>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -10398,7 +9866,11 @@
       </c>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -10426,14 +9898,20 @@
         <v>746</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
       </c>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>746</v>
+      </c>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -10461,14 +9939,20 @@
         <v>745.2</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
       </c>
-      <c r="J272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>743</v>
+      </c>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M272" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-26 BackTest WTC.xlsx
+++ b/BackTest/2019-10-26 BackTest WTC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M272"/>
+  <dimension ref="A1:M273"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,10 +445,10 @@
         <v>754</v>
       </c>
       <c r="F2" t="n">
-        <v>556</v>
+        <v>4997.4</v>
       </c>
       <c r="G2" t="n">
-        <v>754</v>
+        <v>743.7</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -480,10 +480,10 @@
         <v>754</v>
       </c>
       <c r="F3" t="n">
-        <v>2829.5245</v>
+        <v>556</v>
       </c>
       <c r="G3" t="n">
-        <v>754</v>
+        <v>743.9166666666666</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="C4" t="n">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="D4" t="n">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="E4" t="n">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="F4" t="n">
-        <v>2.8</v>
+        <v>2829.5245</v>
       </c>
       <c r="G4" t="n">
-        <v>754.6</v>
+        <v>744.2333333333333</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>750</v>
+        <v>757</v>
       </c>
       <c r="C5" t="n">
-        <v>750</v>
+        <v>757</v>
       </c>
       <c r="D5" t="n">
-        <v>750</v>
+        <v>757</v>
       </c>
       <c r="E5" t="n">
-        <v>750</v>
+        <v>757</v>
       </c>
       <c r="F5" t="n">
-        <v>979.2866</v>
+        <v>2.8</v>
       </c>
       <c r="G5" t="n">
-        <v>753.8</v>
+        <v>744.4833333333333</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>744</v>
+        <v>750</v>
       </c>
       <c r="C6" t="n">
-        <v>744</v>
+        <v>750</v>
       </c>
       <c r="D6" t="n">
-        <v>744</v>
+        <v>750</v>
       </c>
       <c r="E6" t="n">
-        <v>744</v>
+        <v>750</v>
       </c>
       <c r="F6" t="n">
-        <v>43.4646</v>
+        <v>979.2866</v>
       </c>
       <c r="G6" t="n">
-        <v>751.8</v>
+        <v>744.6333333333333</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -620,10 +620,10 @@
         <v>744</v>
       </c>
       <c r="F7" t="n">
-        <v>546.9509</v>
+        <v>43.4646</v>
       </c>
       <c r="G7" t="n">
-        <v>749.8</v>
+        <v>744.5333333333333</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>744</v>
       </c>
       <c r="F8" t="n">
-        <v>35.4095</v>
+        <v>546.9509</v>
       </c>
       <c r="G8" t="n">
-        <v>747.8</v>
+        <v>744.5666666666667</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="C9" t="n">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="D9" t="n">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="E9" t="n">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="F9" t="n">
-        <v>696.8098</v>
+        <v>35.4095</v>
       </c>
       <c r="G9" t="n">
-        <v>746</v>
+        <v>744.5833333333334</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -725,10 +725,10 @@
         <v>748</v>
       </c>
       <c r="F10" t="n">
-        <v>1890.5855</v>
+        <v>696.8098</v>
       </c>
       <c r="G10" t="n">
-        <v>745.6</v>
+        <v>744.65</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -760,10 +760,10 @@
         <v>748</v>
       </c>
       <c r="F11" t="n">
-        <v>501.79</v>
+        <v>1890.5855</v>
       </c>
       <c r="G11" t="n">
-        <v>746.4</v>
+        <v>744.7833333333333</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>748</v>
       </c>
       <c r="F12" t="n">
-        <v>696.2311999999999</v>
+        <v>501.79</v>
       </c>
       <c r="G12" t="n">
-        <v>747.2</v>
+        <v>744.9166666666666</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="C13" t="n">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="D13" t="n">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="E13" t="n">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="F13" t="n">
-        <v>663.8599</v>
+        <v>696.2311999999999</v>
       </c>
       <c r="G13" t="n">
-        <v>747.4</v>
+        <v>745.0666666666667</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="C14" t="n">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D14" t="n">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="E14" t="n">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="F14" t="n">
-        <v>2004.9699</v>
+        <v>663.8599</v>
       </c>
       <c r="G14" t="n">
-        <v>747.2</v>
+        <v>745.2166666666667</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C15" t="n">
         <v>747</v>
       </c>
       <c r="D15" t="n">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="E15" t="n">
         <v>747</v>
       </c>
       <c r="F15" t="n">
-        <v>300</v>
+        <v>2004.9699</v>
       </c>
       <c r="G15" t="n">
-        <v>747</v>
+        <v>745.4166666666666</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -926,19 +926,19 @@
         <v>747</v>
       </c>
       <c r="C16" t="n">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="D16" t="n">
         <v>747</v>
       </c>
       <c r="E16" t="n">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="F16" t="n">
-        <v>730.4191</v>
+        <v>300</v>
       </c>
       <c r="G16" t="n">
-        <v>746.4</v>
+        <v>745.65</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C17" t="n">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="D17" t="n">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E17" t="n">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0001</v>
+        <v>730.4191</v>
       </c>
       <c r="G17" t="n">
-        <v>746.4</v>
+        <v>745.9</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1005,10 +1005,10 @@
         <v>748</v>
       </c>
       <c r="F18" t="n">
-        <v>999.9999</v>
+        <v>0.0001</v>
       </c>
       <c r="G18" t="n">
-        <v>747</v>
+        <v>745.9666666666667</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>748</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0001</v>
+        <v>999.9999</v>
       </c>
       <c r="G19" t="n">
-        <v>747.2</v>
+        <v>746.1833333333333</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="C20" t="n">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="D20" t="n">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="E20" t="n">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="F20" t="n">
-        <v>44.6884</v>
+        <v>0.0001</v>
       </c>
       <c r="G20" t="n">
-        <v>747</v>
+        <v>746.2666666666667</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C21" t="n">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="D21" t="n">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="E21" t="n">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="F21" t="n">
-        <v>345.72</v>
+        <v>44.6884</v>
       </c>
       <c r="G21" t="n">
-        <v>747</v>
+        <v>746.4666666666667</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>745</v>
       </c>
       <c r="F22" t="n">
-        <v>200.54</v>
+        <v>345.72</v>
       </c>
       <c r="G22" t="n">
-        <v>746.4</v>
+        <v>746.6166666666667</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1171,19 +1171,19 @@
         <v>745</v>
       </c>
       <c r="C23" t="n">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="D23" t="n">
         <v>745</v>
       </c>
       <c r="E23" t="n">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="F23" t="n">
-        <v>3260.51</v>
+        <v>200.54</v>
       </c>
       <c r="G23" t="n">
-        <v>745.6</v>
+        <v>746.7833333333333</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1206,19 +1206,19 @@
         <v>745</v>
       </c>
       <c r="C24" t="n">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D24" t="n">
         <v>745</v>
       </c>
       <c r="E24" t="n">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F24" t="n">
-        <v>518.85</v>
+        <v>3260.51</v>
       </c>
       <c r="G24" t="n">
-        <v>745</v>
+        <v>746.9666666666667</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1250,19 +1250,23 @@
         <v>745</v>
       </c>
       <c r="F25" t="n">
-        <v>565.0934999999999</v>
+        <v>518.85</v>
       </c>
       <c r="G25" t="n">
-        <v>744.8</v>
+        <v>747.1333333333333</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>744</v>
+      </c>
+      <c r="K25" t="n">
+        <v>744</v>
+      </c>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
@@ -1285,10 +1289,10 @@
         <v>745</v>
       </c>
       <c r="F26" t="n">
-        <v>78.5855</v>
+        <v>565.0934999999999</v>
       </c>
       <c r="G26" t="n">
-        <v>744.8</v>
+        <v>747.2166666666667</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1297,8 +1301,14 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>744</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1320,10 +1330,10 @@
         <v>745</v>
       </c>
       <c r="F27" t="n">
-        <v>409.6215</v>
+        <v>78.5855</v>
       </c>
       <c r="G27" t="n">
-        <v>744.8</v>
+        <v>747.25</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1332,8 +1342,14 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>744</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1343,22 +1359,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="C28" t="n">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="D28" t="n">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="E28" t="n">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="F28" t="n">
-        <v>1498.9153</v>
+        <v>409.6215</v>
       </c>
       <c r="G28" t="n">
-        <v>746.6</v>
+        <v>747.2666666666667</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1394,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="C29" t="n">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D29" t="n">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E29" t="n">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="F29" t="n">
-        <v>245.9496</v>
+        <v>1498.9153</v>
       </c>
       <c r="G29" t="n">
-        <v>748.4</v>
+        <v>747.4166666666666</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1429,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="C30" t="n">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="D30" t="n">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="E30" t="n">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="F30" t="n">
-        <v>4823.5644</v>
+        <v>245.9496</v>
       </c>
       <c r="G30" t="n">
-        <v>751.4</v>
+        <v>747.6333333333333</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1460,10 +1476,10 @@
         <v>760</v>
       </c>
       <c r="F31" t="n">
-        <v>595.5013</v>
+        <v>4823.5644</v>
       </c>
       <c r="G31" t="n">
-        <v>754.4</v>
+        <v>748.05</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1495,10 +1511,10 @@
         <v>760</v>
       </c>
       <c r="F32" t="n">
-        <v>535.9512999999999</v>
+        <v>595.5013</v>
       </c>
       <c r="G32" t="n">
-        <v>757.4</v>
+        <v>748.5166666666667</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1530,10 +1546,10 @@
         <v>760</v>
       </c>
       <c r="F33" t="n">
-        <v>1514.733</v>
+        <v>535.9512999999999</v>
       </c>
       <c r="G33" t="n">
-        <v>758.8</v>
+        <v>749</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1569,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="C34" t="n">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D34" t="n">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="E34" t="n">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="F34" t="n">
-        <v>4730.2256</v>
+        <v>1514.733</v>
       </c>
       <c r="G34" t="n">
-        <v>760.2</v>
+        <v>749.3</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1604,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C35" t="n">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D35" t="n">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="E35" t="n">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="F35" t="n">
-        <v>55.9</v>
+        <v>4730.2256</v>
       </c>
       <c r="G35" t="n">
-        <v>760.6</v>
+        <v>749.5833333333334</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,28 +1639,28 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C36" t="n">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="D36" t="n">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E36" t="n">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="F36" t="n">
-        <v>100.4433</v>
+        <v>55.9</v>
       </c>
       <c r="G36" t="n">
-        <v>760.8</v>
+        <v>749.95</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -1658,22 +1674,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C37" t="n">
         <v>761</v>
       </c>
       <c r="D37" t="n">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E37" t="n">
         <v>761</v>
       </c>
       <c r="F37" t="n">
-        <v>554.6899</v>
+        <v>100.4433</v>
       </c>
       <c r="G37" t="n">
-        <v>761</v>
+        <v>750.1666666666666</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,28 +1709,28 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C38" t="n">
         <v>761</v>
       </c>
       <c r="D38" t="n">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E38" t="n">
         <v>761</v>
       </c>
       <c r="F38" t="n">
-        <v>3394.8205</v>
+        <v>554.6899</v>
       </c>
       <c r="G38" t="n">
-        <v>761.2</v>
+        <v>750.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -1728,28 +1744,28 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C39" t="n">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="D39" t="n">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="E39" t="n">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F39" t="n">
-        <v>547.0121</v>
+        <v>3394.8205</v>
       </c>
       <c r="G39" t="n">
-        <v>761.6</v>
+        <v>750.85</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -1763,28 +1779,28 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C40" t="n">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="D40" t="n">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="E40" t="n">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="F40" t="n">
-        <v>4013.5686</v>
+        <v>547.0121</v>
       </c>
       <c r="G40" t="n">
-        <v>761.4</v>
+        <v>751</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -1798,28 +1814,28 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="C41" t="n">
         <v>761</v>
       </c>
       <c r="D41" t="n">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="E41" t="n">
         <v>761</v>
       </c>
       <c r="F41" t="n">
-        <v>402.9353</v>
+        <v>4013.5686</v>
       </c>
       <c r="G41" t="n">
-        <v>761.4</v>
+        <v>751.05</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -1833,22 +1849,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C42" t="n">
         <v>761</v>
       </c>
       <c r="D42" t="n">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E42" t="n">
         <v>761</v>
       </c>
       <c r="F42" t="n">
-        <v>270</v>
+        <v>402.9353</v>
       </c>
       <c r="G42" t="n">
-        <v>761.4</v>
+        <v>751.0666666666667</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1871,19 +1887,19 @@
         <v>761</v>
       </c>
       <c r="C43" t="n">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="D43" t="n">
         <v>761</v>
       </c>
       <c r="E43" t="n">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="F43" t="n">
-        <v>1456.2369</v>
+        <v>270</v>
       </c>
       <c r="G43" t="n">
-        <v>761.2</v>
+        <v>751.3833333333333</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1919,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C44" t="n">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="D44" t="n">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="E44" t="n">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="F44" t="n">
-        <v>701.087</v>
+        <v>1456.2369</v>
       </c>
       <c r="G44" t="n">
-        <v>761.2</v>
+        <v>751.45</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1941,19 +1957,19 @@
         <v>763</v>
       </c>
       <c r="C45" t="n">
-        <v>753</v>
+        <v>763</v>
       </c>
       <c r="D45" t="n">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E45" t="n">
-        <v>753</v>
+        <v>763</v>
       </c>
       <c r="F45" t="n">
-        <v>7971.3053</v>
+        <v>701.087</v>
       </c>
       <c r="G45" t="n">
-        <v>759.6</v>
+        <v>751.7333333333333</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1989,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
+        <v>763</v>
+      </c>
+      <c r="C46" t="n">
         <v>753</v>
       </c>
-      <c r="C46" t="n">
-        <v>744</v>
-      </c>
       <c r="D46" t="n">
-        <v>754</v>
+        <v>764</v>
       </c>
       <c r="E46" t="n">
-        <v>744</v>
+        <v>753</v>
       </c>
       <c r="F46" t="n">
-        <v>2304.0706</v>
+        <v>7971.3053</v>
       </c>
       <c r="G46" t="n">
-        <v>756.2</v>
+        <v>751.4</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2024,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>746</v>
+        <v>753</v>
       </c>
       <c r="C47" t="n">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D47" t="n">
-        <v>746</v>
+        <v>754</v>
       </c>
       <c r="E47" t="n">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="F47" t="n">
-        <v>46.87</v>
+        <v>2304.0706</v>
       </c>
       <c r="G47" t="n">
-        <v>753.2</v>
+        <v>751.4</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2059,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C48" t="n">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D48" t="n">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E48" t="n">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F48" t="n">
-        <v>350.23</v>
+        <v>46.87</v>
       </c>
       <c r="G48" t="n">
-        <v>750.6</v>
+        <v>751.45</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2081,19 +2097,19 @@
         <v>747</v>
       </c>
       <c r="C49" t="n">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="D49" t="n">
         <v>747</v>
       </c>
       <c r="E49" t="n">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="F49" t="n">
-        <v>563.7555</v>
+        <v>350.23</v>
       </c>
       <c r="G49" t="n">
-        <v>747.2</v>
+        <v>751.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2129,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C50" t="n">
         <v>746</v>
       </c>
       <c r="D50" t="n">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="E50" t="n">
         <v>746</v>
       </c>
       <c r="F50" t="n">
-        <v>1725.0898</v>
+        <v>563.7555</v>
       </c>
       <c r="G50" t="n">
-        <v>745.8</v>
+        <v>751.6833333333333</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2160,10 +2176,10 @@
         <v>746</v>
       </c>
       <c r="F51" t="n">
-        <v>281.92</v>
+        <v>1725.0898</v>
       </c>
       <c r="G51" t="n">
-        <v>746.2</v>
+        <v>751.75</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2195,10 +2211,10 @@
         <v>746</v>
       </c>
       <c r="F52" t="n">
-        <v>30.1</v>
+        <v>281.92</v>
       </c>
       <c r="G52" t="n">
-        <v>746.2</v>
+        <v>751.75</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,31 +2234,35 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="C53" t="n">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="D53" t="n">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="E53" t="n">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="F53" t="n">
-        <v>1.55</v>
+        <v>30.1</v>
       </c>
       <c r="G53" t="n">
-        <v>746.8</v>
+        <v>751.6833333333333</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>746</v>
+      </c>
+      <c r="K53" t="n">
+        <v>746</v>
+      </c>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
@@ -2253,22 +2273,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="C54" t="n">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="D54" t="n">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="E54" t="n">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="F54" t="n">
-        <v>3808.9145</v>
+        <v>1.55</v>
       </c>
       <c r="G54" t="n">
-        <v>747.4</v>
+        <v>751.6833333333333</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2277,8 +2297,14 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>746</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2288,32 +2314,40 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
+        <v>749</v>
+      </c>
+      <c r="C55" t="n">
+        <v>749</v>
+      </c>
+      <c r="D55" t="n">
+        <v>749</v>
+      </c>
+      <c r="E55" t="n">
+        <v>749</v>
+      </c>
+      <c r="F55" t="n">
+        <v>3808.9145</v>
+      </c>
+      <c r="G55" t="n">
+        <v>751.6333333333333</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
         <v>750</v>
       </c>
-      <c r="C55" t="n">
-        <v>745</v>
-      </c>
-      <c r="D55" t="n">
-        <v>750</v>
-      </c>
-      <c r="E55" t="n">
-        <v>745</v>
-      </c>
-      <c r="F55" t="n">
-        <v>3706.1622</v>
-      </c>
-      <c r="G55" t="n">
-        <v>747.2</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>746</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2323,22 +2357,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="C56" t="n">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="D56" t="n">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="E56" t="n">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="F56" t="n">
-        <v>434.5774</v>
+        <v>3706.1622</v>
       </c>
       <c r="G56" t="n">
-        <v>747.6</v>
+        <v>751.5166666666667</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2392,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C57" t="n">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D57" t="n">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E57" t="n">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="F57" t="n">
-        <v>1303.7322</v>
+        <v>434.5774</v>
       </c>
       <c r="G57" t="n">
-        <v>748.2</v>
+        <v>751.4166666666666</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,31 +2427,35 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="C58" t="n">
-        <v>762</v>
+        <v>749</v>
       </c>
       <c r="D58" t="n">
-        <v>762</v>
+        <v>749</v>
       </c>
       <c r="E58" t="n">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="F58" t="n">
-        <v>1029.5838</v>
+        <v>1303.7322</v>
       </c>
       <c r="G58" t="n">
-        <v>750.6</v>
+        <v>751.3333333333334</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>748</v>
+      </c>
+      <c r="K58" t="n">
+        <v>748</v>
+      </c>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
@@ -2428,32 +2466,40 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C59" t="n">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="D59" t="n">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="E59" t="n">
         <v>757</v>
       </c>
       <c r="F59" t="n">
-        <v>574</v>
+        <v>1029.5838</v>
       </c>
       <c r="G59" t="n">
-        <v>752.2</v>
+        <v>751.4666666666667</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>749</v>
+      </c>
+      <c r="K59" t="n">
+        <v>748</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2463,22 +2509,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C60" t="n">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="D60" t="n">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="E60" t="n">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="F60" t="n">
-        <v>505.1616</v>
+        <v>574</v>
       </c>
       <c r="G60" t="n">
-        <v>755.2</v>
+        <v>751.5166666666667</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2487,8 +2533,14 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>748</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2510,10 +2562,10 @@
         <v>760</v>
       </c>
       <c r="F61" t="n">
-        <v>44.2845</v>
+        <v>505.1616</v>
       </c>
       <c r="G61" t="n">
-        <v>757.6</v>
+        <v>751.6166666666667</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2585,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="C62" t="n">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="D62" t="n">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="E62" t="n">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="F62" t="n">
-        <v>423.1</v>
+        <v>44.2845</v>
       </c>
       <c r="G62" t="n">
-        <v>760.4</v>
+        <v>751.7166666666667</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2620,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C63" t="n">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="D63" t="n">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="E63" t="n">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F63" t="n">
-        <v>60</v>
+        <v>423.1</v>
       </c>
       <c r="G63" t="n">
-        <v>761</v>
+        <v>751.8666666666667</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2655,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>756</v>
+        <v>765</v>
       </c>
       <c r="C64" t="n">
-        <v>749</v>
+        <v>765</v>
       </c>
       <c r="D64" t="n">
-        <v>756</v>
+        <v>765</v>
       </c>
       <c r="E64" t="n">
-        <v>749</v>
+        <v>765</v>
       </c>
       <c r="F64" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="G64" t="n">
-        <v>759.4</v>
+        <v>752.05</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2690,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="C65" t="n">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="D65" t="n">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="E65" t="n">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="F65" t="n">
-        <v>1884.5509</v>
+        <v>120</v>
       </c>
       <c r="G65" t="n">
-        <v>758</v>
+        <v>751.9166666666666</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2725,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>763</v>
+        <v>754</v>
       </c>
       <c r="C66" t="n">
+        <v>753</v>
+      </c>
+      <c r="D66" t="n">
         <v>755</v>
       </c>
-      <c r="D66" t="n">
-        <v>764</v>
-      </c>
       <c r="E66" t="n">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="F66" t="n">
-        <v>267.8006</v>
+        <v>1884.5509</v>
       </c>
       <c r="G66" t="n">
-        <v>757</v>
+        <v>751.9666666666667</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2760,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
+        <v>763</v>
+      </c>
+      <c r="C67" t="n">
         <v>755</v>
       </c>
-      <c r="C67" t="n">
-        <v>754</v>
-      </c>
       <c r="D67" t="n">
+        <v>764</v>
+      </c>
+      <c r="E67" t="n">
         <v>755</v>
       </c>
-      <c r="E67" t="n">
-        <v>754</v>
-      </c>
       <c r="F67" t="n">
-        <v>471.6453</v>
+        <v>267.8006</v>
       </c>
       <c r="G67" t="n">
-        <v>755.2</v>
+        <v>752.15</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2795,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="C68" t="n">
-        <v>763</v>
+        <v>754</v>
       </c>
       <c r="D68" t="n">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="E68" t="n">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="F68" t="n">
-        <v>64.238</v>
+        <v>471.6453</v>
       </c>
       <c r="G68" t="n">
-        <v>754.8</v>
+        <v>752.3166666666667</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,7 +2830,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C69" t="n">
         <v>763</v>
@@ -2787,13 +2839,13 @@
         <v>763</v>
       </c>
       <c r="E69" t="n">
-        <v>755</v>
+        <v>762</v>
       </c>
       <c r="F69" t="n">
-        <v>695.4880000000001</v>
+        <v>64.238</v>
       </c>
       <c r="G69" t="n">
-        <v>757.6</v>
+        <v>752.6333333333333</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2822,13 +2874,13 @@
         <v>763</v>
       </c>
       <c r="E70" t="n">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="F70" t="n">
-        <v>20.582</v>
+        <v>695.4880000000001</v>
       </c>
       <c r="G70" t="n">
-        <v>759.6</v>
+        <v>752.8833333333333</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2900,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="C71" t="n">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="D71" t="n">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="E71" t="n">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="F71" t="n">
-        <v>55.8</v>
+        <v>20.582</v>
       </c>
       <c r="G71" t="n">
-        <v>760.2</v>
+        <v>753.1333333333333</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2935,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="C72" t="n">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="D72" t="n">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="E72" t="n">
         <v>758</v>
       </c>
       <c r="F72" t="n">
-        <v>1843.9452</v>
+        <v>55.8</v>
       </c>
       <c r="G72" t="n">
-        <v>762.4</v>
+        <v>753.3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2970,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
+        <v>763</v>
+      </c>
+      <c r="C73" t="n">
         <v>765</v>
-      </c>
-      <c r="C73" t="n">
-        <v>757</v>
       </c>
       <c r="D73" t="n">
         <v>765</v>
       </c>
       <c r="E73" t="n">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="F73" t="n">
-        <v>120</v>
+        <v>1843.9452</v>
       </c>
       <c r="G73" t="n">
-        <v>761.2</v>
+        <v>753.5833333333334</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +3005,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="C74" t="n">
-        <v>771</v>
+        <v>757</v>
       </c>
       <c r="D74" t="n">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="E74" t="n">
-        <v>771</v>
+        <v>757</v>
       </c>
       <c r="F74" t="n">
-        <v>64.85084306095979</v>
+        <v>120</v>
       </c>
       <c r="G74" t="n">
-        <v>762.8</v>
+        <v>753.7833333333333</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +3040,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>763</v>
+        <v>771</v>
       </c>
       <c r="C75" t="n">
-        <v>759</v>
+        <v>771</v>
       </c>
       <c r="D75" t="n">
-        <v>763</v>
+        <v>771</v>
       </c>
       <c r="E75" t="n">
-        <v>759</v>
+        <v>771</v>
       </c>
       <c r="F75" t="n">
-        <v>970.1367</v>
+        <v>64.85084306095979</v>
       </c>
       <c r="G75" t="n">
-        <v>762</v>
+        <v>754.1833333333333</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3075,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C76" t="n">
-        <v>767</v>
+        <v>759</v>
       </c>
       <c r="D76" t="n">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="E76" t="n">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="F76" t="n">
-        <v>770.3774</v>
+        <v>970.1367</v>
       </c>
       <c r="G76" t="n">
-        <v>763.8</v>
+        <v>754.3833333333333</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3110,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>769</v>
+        <v>762</v>
       </c>
       <c r="C77" t="n">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="D77" t="n">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="E77" t="n">
-        <v>769</v>
+        <v>758</v>
       </c>
       <c r="F77" t="n">
-        <v>325.2355376623377</v>
+        <v>770.3774</v>
       </c>
       <c r="G77" t="n">
-        <v>764.8</v>
+        <v>754.75</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3145,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>759</v>
+        <v>769</v>
       </c>
       <c r="C78" t="n">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="D78" t="n">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="E78" t="n">
-        <v>759</v>
+        <v>769</v>
       </c>
       <c r="F78" t="n">
-        <v>2126.7099</v>
+        <v>325.2355376623377</v>
       </c>
       <c r="G78" t="n">
-        <v>768</v>
+        <v>755.1166666666667</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3180,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>775</v>
+        <v>759</v>
       </c>
       <c r="C79" t="n">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="D79" t="n">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="E79" t="n">
-        <v>775</v>
+        <v>759</v>
       </c>
       <c r="F79" t="n">
-        <v>610.7749</v>
+        <v>2126.7099</v>
       </c>
       <c r="G79" t="n">
-        <v>769.2</v>
+        <v>755.5333333333333</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3215,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
+        <v>775</v>
+      </c>
+      <c r="C80" t="n">
         <v>777</v>
-      </c>
-      <c r="C80" t="n">
-        <v>776</v>
       </c>
       <c r="D80" t="n">
         <v>777</v>
       </c>
       <c r="E80" t="n">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="F80" t="n">
-        <v>199.56</v>
+        <v>610.7749</v>
       </c>
       <c r="G80" t="n">
-        <v>772.6</v>
+        <v>756.0166666666667</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,10 +3250,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
+        <v>777</v>
+      </c>
+      <c r="C81" t="n">
         <v>776</v>
-      </c>
-      <c r="C81" t="n">
-        <v>777</v>
       </c>
       <c r="D81" t="n">
         <v>777</v>
@@ -3210,10 +3262,10 @@
         <v>776</v>
       </c>
       <c r="F81" t="n">
-        <v>1973.0199</v>
+        <v>199.56</v>
       </c>
       <c r="G81" t="n">
-        <v>774.6</v>
+        <v>756.5166666666667</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,28 +3285,28 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
+        <v>776</v>
+      </c>
+      <c r="C82" t="n">
         <v>777</v>
-      </c>
-      <c r="C82" t="n">
-        <v>775</v>
       </c>
       <c r="D82" t="n">
         <v>777</v>
       </c>
       <c r="E82" t="n">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="F82" t="n">
-        <v>2007.5853</v>
+        <v>1973.0199</v>
       </c>
       <c r="G82" t="n">
-        <v>775.6</v>
+        <v>757.05</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -3268,22 +3320,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="C83" t="n">
         <v>775</v>
       </c>
       <c r="D83" t="n">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="E83" t="n">
         <v>775</v>
       </c>
       <c r="F83" t="n">
-        <v>5.1746</v>
+        <v>2007.5853</v>
       </c>
       <c r="G83" t="n">
-        <v>776</v>
+        <v>757.55</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3306,19 +3358,19 @@
         <v>775</v>
       </c>
       <c r="C84" t="n">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="D84" t="n">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="E84" t="n">
         <v>775</v>
       </c>
       <c r="F84" t="n">
-        <v>783.8939</v>
+        <v>5.1746</v>
       </c>
       <c r="G84" t="n">
-        <v>776</v>
+        <v>758.0666666666667</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,22 +3390,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="C85" t="n">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="D85" t="n">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="E85" t="n">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F85" t="n">
-        <v>100.4638</v>
+        <v>783.8939</v>
       </c>
       <c r="G85" t="n">
-        <v>775.6</v>
+        <v>758.6</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3425,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="C86" t="n">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="D86" t="n">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="E86" t="n">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="F86" t="n">
-        <v>713.7411</v>
+        <v>100.4638</v>
       </c>
       <c r="G86" t="n">
-        <v>776</v>
+        <v>759.0833333333334</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3460,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="C87" t="n">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D87" t="n">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="E87" t="n">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="F87" t="n">
-        <v>4231.294139581076</v>
+        <v>713.7411</v>
       </c>
       <c r="G87" t="n">
-        <v>777</v>
+        <v>759.65</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3495,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>772</v>
+        <v>780</v>
       </c>
       <c r="C88" t="n">
-        <v>772</v>
+        <v>780</v>
       </c>
       <c r="D88" t="n">
-        <v>772</v>
+        <v>781</v>
       </c>
       <c r="E88" t="n">
-        <v>772</v>
+        <v>780</v>
       </c>
       <c r="F88" t="n">
-        <v>297.2333</v>
+        <v>4231.294139581076</v>
       </c>
       <c r="G88" t="n">
-        <v>776.4</v>
+        <v>760.2333333333333</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3478,22 +3530,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>781</v>
+        <v>772</v>
       </c>
       <c r="C89" t="n">
-        <v>785</v>
+        <v>772</v>
       </c>
       <c r="D89" t="n">
-        <v>785</v>
+        <v>772</v>
       </c>
       <c r="E89" t="n">
-        <v>781</v>
+        <v>772</v>
       </c>
       <c r="F89" t="n">
-        <v>876.4568732394366</v>
+        <v>297.2333</v>
       </c>
       <c r="G89" t="n">
-        <v>778</v>
+        <v>760.55</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3513,7 +3565,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="C90" t="n">
         <v>785</v>
@@ -3522,13 +3574,13 @@
         <v>785</v>
       </c>
       <c r="E90" t="n">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="F90" t="n">
-        <v>2000</v>
+        <v>876.4568732394366</v>
       </c>
       <c r="G90" t="n">
-        <v>780.2</v>
+        <v>761.0666666666667</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3548,22 +3600,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>779</v>
+        <v>785</v>
       </c>
       <c r="C91" t="n">
-        <v>779</v>
+        <v>785</v>
       </c>
       <c r="D91" t="n">
-        <v>779</v>
+        <v>785</v>
       </c>
       <c r="E91" t="n">
-        <v>779</v>
+        <v>785</v>
       </c>
       <c r="F91" t="n">
-        <v>26</v>
+        <v>2000</v>
       </c>
       <c r="G91" t="n">
-        <v>780.2</v>
+        <v>761.4833333333333</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3583,28 +3635,28 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="C92" t="n">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="D92" t="n">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="E92" t="n">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="F92" t="n">
-        <v>1245.61</v>
+        <v>26</v>
       </c>
       <c r="G92" t="n">
-        <v>781.4</v>
+        <v>761.8</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
@@ -3618,22 +3670,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
+        <v>785</v>
+      </c>
+      <c r="C93" t="n">
         <v>786</v>
       </c>
-      <c r="C93" t="n">
-        <v>790</v>
-      </c>
       <c r="D93" t="n">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="E93" t="n">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F93" t="n">
-        <v>2235.8498</v>
+        <v>1245.61</v>
       </c>
       <c r="G93" t="n">
-        <v>785</v>
+        <v>762.2333333333333</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3653,22 +3705,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
+        <v>786</v>
+      </c>
+      <c r="C94" t="n">
         <v>790</v>
-      </c>
-      <c r="C94" t="n">
-        <v>789</v>
       </c>
       <c r="D94" t="n">
         <v>790</v>
       </c>
       <c r="E94" t="n">
-        <v>779</v>
+        <v>786</v>
       </c>
       <c r="F94" t="n">
-        <v>6105.81</v>
+        <v>2235.8498</v>
       </c>
       <c r="G94" t="n">
-        <v>785.8</v>
+        <v>762.7333333333333</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,22 +3740,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
+        <v>790</v>
+      </c>
+      <c r="C95" t="n">
         <v>789</v>
       </c>
-      <c r="C95" t="n">
-        <v>792</v>
-      </c>
       <c r="D95" t="n">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="E95" t="n">
-        <v>789</v>
+        <v>779</v>
       </c>
       <c r="F95" t="n">
-        <v>315.7766202020202</v>
+        <v>6105.81</v>
       </c>
       <c r="G95" t="n">
-        <v>787.2</v>
+        <v>763.2</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,28 +3775,28 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>779</v>
+        <v>789</v>
       </c>
       <c r="C96" t="n">
-        <v>763</v>
+        <v>792</v>
       </c>
       <c r="D96" t="n">
-        <v>779</v>
+        <v>792</v>
       </c>
       <c r="E96" t="n">
-        <v>763</v>
+        <v>789</v>
       </c>
       <c r="F96" t="n">
-        <v>1476.8483</v>
+        <v>315.7766202020202</v>
       </c>
       <c r="G96" t="n">
-        <v>784</v>
+        <v>763.7</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -3758,22 +3810,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>763</v>
+        <v>779</v>
       </c>
       <c r="C97" t="n">
         <v>763</v>
       </c>
       <c r="D97" t="n">
-        <v>763</v>
+        <v>779</v>
       </c>
       <c r="E97" t="n">
         <v>763</v>
       </c>
       <c r="F97" t="n">
-        <v>120</v>
+        <v>1476.8483</v>
       </c>
       <c r="G97" t="n">
-        <v>779.4</v>
+        <v>763.7333333333333</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3793,22 +3845,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C98" t="n">
-        <v>787</v>
+        <v>763</v>
       </c>
       <c r="D98" t="n">
-        <v>787</v>
+        <v>763</v>
       </c>
       <c r="E98" t="n">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="F98" t="n">
-        <v>230.599</v>
+        <v>120</v>
       </c>
       <c r="G98" t="n">
-        <v>778.8</v>
+        <v>763.7666666666667</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3828,22 +3880,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C99" t="n">
-        <v>764</v>
+        <v>787</v>
       </c>
       <c r="D99" t="n">
-        <v>764</v>
+        <v>787</v>
       </c>
       <c r="E99" t="n">
         <v>764</v>
       </c>
       <c r="F99" t="n">
-        <v>161.11</v>
+        <v>230.599</v>
       </c>
       <c r="G99" t="n">
-        <v>773.8</v>
+        <v>764.2</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3863,22 +3915,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>776</v>
+        <v>764</v>
       </c>
       <c r="C100" t="n">
-        <v>787</v>
+        <v>764</v>
       </c>
       <c r="D100" t="n">
-        <v>787</v>
+        <v>764</v>
       </c>
       <c r="E100" t="n">
-        <v>776</v>
+        <v>764</v>
       </c>
       <c r="F100" t="n">
-        <v>3.9695</v>
+        <v>161.11</v>
       </c>
       <c r="G100" t="n">
-        <v>772.8</v>
+        <v>764.2166666666667</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,22 +3950,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="C101" t="n">
-        <v>769</v>
+        <v>787</v>
       </c>
       <c r="D101" t="n">
-        <v>780</v>
+        <v>787</v>
       </c>
       <c r="E101" t="n">
-        <v>769</v>
+        <v>776</v>
       </c>
       <c r="F101" t="n">
-        <v>920.7066</v>
+        <v>3.9695</v>
       </c>
       <c r="G101" t="n">
-        <v>774</v>
+        <v>764.65</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,22 +3985,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>768</v>
+        <v>780</v>
       </c>
       <c r="C102" t="n">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="D102" t="n">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="E102" t="n">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="F102" t="n">
-        <v>6</v>
+        <v>920.7066</v>
       </c>
       <c r="G102" t="n">
-        <v>775.8</v>
+        <v>764.7833333333333</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3968,22 +4020,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="C103" t="n">
-        <v>781</v>
+        <v>772</v>
       </c>
       <c r="D103" t="n">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="E103" t="n">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="F103" t="n">
-        <v>863.6858</v>
+        <v>6</v>
       </c>
       <c r="G103" t="n">
-        <v>774.6</v>
+        <v>764.9666666666667</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,22 +4055,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="C104" t="n">
         <v>781</v>
       </c>
       <c r="D104" t="n">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="E104" t="n">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="F104" t="n">
-        <v>234.7445</v>
+        <v>863.6858</v>
       </c>
       <c r="G104" t="n">
-        <v>778</v>
+        <v>765.3166666666667</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4038,22 +4090,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C105" t="n">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D105" t="n">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E105" t="n">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F105" t="n">
-        <v>1.9648</v>
+        <v>234.7445</v>
       </c>
       <c r="G105" t="n">
-        <v>777</v>
+        <v>765.6166666666667</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4085,10 +4137,10 @@
         <v>782</v>
       </c>
       <c r="F106" t="n">
-        <v>420.3318</v>
+        <v>1.9648</v>
       </c>
       <c r="G106" t="n">
-        <v>779.6</v>
+        <v>766.1</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4120,10 +4172,10 @@
         <v>782</v>
       </c>
       <c r="F107" t="n">
-        <v>364.5914</v>
+        <v>420.3318</v>
       </c>
       <c r="G107" t="n">
-        <v>781.6</v>
+        <v>766.7333333333333</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4143,22 +4195,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>769</v>
+        <v>782</v>
       </c>
       <c r="C108" t="n">
-        <v>767</v>
+        <v>782</v>
       </c>
       <c r="D108" t="n">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="E108" t="n">
-        <v>767</v>
+        <v>782</v>
       </c>
       <c r="F108" t="n">
-        <v>676.4795</v>
+        <v>364.5914</v>
       </c>
       <c r="G108" t="n">
-        <v>778.8</v>
+        <v>767.3333333333334</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4178,22 +4230,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
+        <v>769</v>
+      </c>
+      <c r="C109" t="n">
         <v>767</v>
       </c>
-      <c r="C109" t="n">
-        <v>765</v>
-      </c>
       <c r="D109" t="n">
+        <v>779</v>
+      </c>
+      <c r="E109" t="n">
         <v>767</v>
       </c>
-      <c r="E109" t="n">
-        <v>765</v>
-      </c>
       <c r="F109" t="n">
-        <v>340</v>
+        <v>676.4795</v>
       </c>
       <c r="G109" t="n">
-        <v>775.6</v>
+        <v>767.6666666666666</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4213,22 +4265,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="C110" t="n">
         <v>765</v>
       </c>
       <c r="D110" t="n">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="E110" t="n">
         <v>765</v>
       </c>
       <c r="F110" t="n">
-        <v>392.225</v>
+        <v>340</v>
       </c>
       <c r="G110" t="n">
-        <v>772.2</v>
+        <v>767.9833333333333</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4248,22 +4300,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="C111" t="n">
         <v>765</v>
       </c>
       <c r="D111" t="n">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="E111" t="n">
         <v>765</v>
       </c>
       <c r="F111" t="n">
-        <v>118.5663</v>
+        <v>392.225</v>
       </c>
       <c r="G111" t="n">
-        <v>768.8</v>
+        <v>768.3</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4283,22 +4335,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>772</v>
+        <v>765</v>
       </c>
       <c r="C112" t="n">
-        <v>772</v>
+        <v>765</v>
       </c>
       <c r="D112" t="n">
-        <v>772</v>
+        <v>765</v>
       </c>
       <c r="E112" t="n">
-        <v>772</v>
+        <v>765</v>
       </c>
       <c r="F112" t="n">
-        <v>240.165</v>
+        <v>118.5663</v>
       </c>
       <c r="G112" t="n">
-        <v>766.8</v>
+        <v>768.6166666666667</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4318,22 +4370,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="C113" t="n">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="D113" t="n">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="E113" t="n">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="F113" t="n">
-        <v>1665.75</v>
+        <v>240.165</v>
       </c>
       <c r="G113" t="n">
-        <v>766.8</v>
+        <v>769.05</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4353,22 +4405,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>779</v>
+        <v>768</v>
       </c>
       <c r="C114" t="n">
-        <v>779</v>
+        <v>767</v>
       </c>
       <c r="D114" t="n">
-        <v>779</v>
+        <v>768</v>
       </c>
       <c r="E114" t="n">
-        <v>779</v>
+        <v>767</v>
       </c>
       <c r="F114" t="n">
-        <v>1.71</v>
+        <v>1665.75</v>
       </c>
       <c r="G114" t="n">
-        <v>769.6</v>
+        <v>769.3333333333334</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4388,22 +4440,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C115" t="n">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="D115" t="n">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="E115" t="n">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F115" t="n">
-        <v>4.1</v>
+        <v>1.71</v>
       </c>
       <c r="G115" t="n">
-        <v>772.8</v>
+        <v>769.8333333333334</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4423,22 +4475,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="C116" t="n">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="D116" t="n">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="E116" t="n">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="F116" t="n">
-        <v>427.1978</v>
+        <v>4.1</v>
       </c>
       <c r="G116" t="n">
-        <v>775.2</v>
+        <v>770.4333333333333</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4458,22 +4510,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="C117" t="n">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="D117" t="n">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="E117" t="n">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="F117" t="n">
-        <v>236.1933</v>
+        <v>427.1978</v>
       </c>
       <c r="G117" t="n">
-        <v>775.4</v>
+        <v>770.9166666666666</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4505,10 +4557,10 @@
         <v>773</v>
       </c>
       <c r="F118" t="n">
-        <v>0.0001</v>
+        <v>236.1933</v>
       </c>
       <c r="G118" t="n">
-        <v>776.6</v>
+        <v>771.3166666666667</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4528,22 +4580,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="C119" t="n">
-        <v>768</v>
+        <v>773</v>
       </c>
       <c r="D119" t="n">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="E119" t="n">
-        <v>768</v>
+        <v>773</v>
       </c>
       <c r="F119" t="n">
-        <v>522.8299</v>
+        <v>0.0001</v>
       </c>
       <c r="G119" t="n">
-        <v>774.4</v>
+        <v>771.5</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4563,22 +4615,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="C120" t="n">
         <v>768</v>
       </c>
       <c r="D120" t="n">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="E120" t="n">
         <v>768</v>
       </c>
       <c r="F120" t="n">
-        <v>123.52</v>
+        <v>522.8299</v>
       </c>
       <c r="G120" t="n">
-        <v>771.8</v>
+        <v>771.6833333333333</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4598,22 +4650,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>776</v>
+        <v>768</v>
       </c>
       <c r="C121" t="n">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D121" t="n">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="E121" t="n">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F121" t="n">
-        <v>3260</v>
+        <v>123.52</v>
       </c>
       <c r="G121" t="n">
-        <v>770.2</v>
+        <v>771.8166666666667</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4633,22 +4685,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="C122" t="n">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="D122" t="n">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="E122" t="n">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="F122" t="n">
-        <v>678.0958000000001</v>
+        <v>3260</v>
       </c>
       <c r="G122" t="n">
-        <v>770</v>
+        <v>771.9666666666667</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4668,22 +4720,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="C123" t="n">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="D123" t="n">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="E123" t="n">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="F123" t="n">
-        <v>195.567</v>
+        <v>678.0958000000001</v>
       </c>
       <c r="G123" t="n">
-        <v>768.8</v>
+        <v>772.1166666666667</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4703,22 +4755,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C124" t="n">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="D124" t="n">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="E124" t="n">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="F124" t="n">
-        <v>197.3211</v>
+        <v>195.567</v>
       </c>
       <c r="G124" t="n">
-        <v>768.4</v>
+        <v>772.15</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4738,22 +4790,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="C125" t="n">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="D125" t="n">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="E125" t="n">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="F125" t="n">
-        <v>96</v>
+        <v>197.3211</v>
       </c>
       <c r="G125" t="n">
-        <v>767.6</v>
+        <v>772.4333333333333</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4773,22 +4825,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C126" t="n">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="D126" t="n">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="E126" t="n">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="F126" t="n">
-        <v>847.776</v>
+        <v>96</v>
       </c>
       <c r="G126" t="n">
-        <v>766.4</v>
+        <v>772.6166666666667</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4820,10 +4872,10 @@
         <v>763</v>
       </c>
       <c r="F127" t="n">
-        <v>21.226</v>
+        <v>847.776</v>
       </c>
       <c r="G127" t="n">
-        <v>764.6</v>
+        <v>772.75</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4843,22 +4895,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C128" t="n">
         <v>763</v>
       </c>
       <c r="D128" t="n">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E128" t="n">
         <v>763</v>
       </c>
       <c r="F128" t="n">
-        <v>495.6673</v>
+        <v>21.226</v>
       </c>
       <c r="G128" t="n">
-        <v>763.8</v>
+        <v>772.9</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4878,22 +4930,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C129" t="n">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="D129" t="n">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E129" t="n">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F129" t="n">
-        <v>45.2854</v>
+        <v>495.6673</v>
       </c>
       <c r="G129" t="n">
-        <v>763.6</v>
+        <v>772.9</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4913,22 +4965,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C130" t="n">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D130" t="n">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E130" t="n">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F130" t="n">
-        <v>209.59</v>
+        <v>45.2854</v>
       </c>
       <c r="G130" t="n">
-        <v>764</v>
+        <v>772.9333333333333</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4948,22 +5000,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="C131" t="n">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="D131" t="n">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="E131" t="n">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="F131" t="n">
-        <v>47.9363</v>
+        <v>209.59</v>
       </c>
       <c r="G131" t="n">
-        <v>764</v>
+        <v>772.9833333333333</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4983,22 +5035,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C132" t="n">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D132" t="n">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="E132" t="n">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="F132" t="n">
-        <v>60</v>
+        <v>47.9363</v>
       </c>
       <c r="G132" t="n">
-        <v>763.8</v>
+        <v>773.0666666666667</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5021,19 +5073,19 @@
         <v>762</v>
       </c>
       <c r="C133" t="n">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="D133" t="n">
         <v>762</v>
       </c>
       <c r="E133" t="n">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="F133" t="n">
-        <v>587.3718</v>
+        <v>60</v>
       </c>
       <c r="G133" t="n">
-        <v>763.4</v>
+        <v>773.0166666666667</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5053,22 +5105,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C134" t="n">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="D134" t="n">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E134" t="n">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F134" t="n">
-        <v>101.4327</v>
+        <v>587.3718</v>
       </c>
       <c r="G134" t="n">
-        <v>763</v>
+        <v>773.0833333333334</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5100,10 +5152,10 @@
         <v>763</v>
       </c>
       <c r="F135" t="n">
-        <v>26.517</v>
+        <v>101.4327</v>
       </c>
       <c r="G135" t="n">
-        <v>762.4</v>
+        <v>772.95</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5123,22 +5175,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="C136" t="n">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="D136" t="n">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="E136" t="n">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="F136" t="n">
-        <v>242.3223</v>
+        <v>26.517</v>
       </c>
       <c r="G136" t="n">
-        <v>761.8</v>
+        <v>773.0166666666667</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5170,10 +5222,10 @@
         <v>760</v>
       </c>
       <c r="F137" t="n">
-        <v>120</v>
+        <v>242.3223</v>
       </c>
       <c r="G137" t="n">
-        <v>761.4</v>
+        <v>772.9</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5196,19 +5248,19 @@
         <v>760</v>
       </c>
       <c r="C138" t="n">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="D138" t="n">
         <v>760</v>
       </c>
       <c r="E138" t="n">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="F138" t="n">
-        <v>307.1</v>
+        <v>120</v>
       </c>
       <c r="G138" t="n">
-        <v>760.8</v>
+        <v>772.7333333333333</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5228,22 +5280,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C139" t="n">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="D139" t="n">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="E139" t="n">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="F139" t="n">
-        <v>111.97</v>
+        <v>307.1</v>
       </c>
       <c r="G139" t="n">
-        <v>760.6</v>
+        <v>772.4833333333333</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5275,10 +5327,10 @@
         <v>762</v>
       </c>
       <c r="F140" t="n">
-        <v>23.3654</v>
+        <v>111.97</v>
       </c>
       <c r="G140" t="n">
-        <v>760.4</v>
+        <v>772.2333333333333</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5298,22 +5350,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="C141" t="n">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="D141" t="n">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="E141" t="n">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="F141" t="n">
-        <v>473.1709</v>
+        <v>23.3654</v>
       </c>
       <c r="G141" t="n">
-        <v>761.8</v>
+        <v>772</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5333,22 +5385,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C142" t="n">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D142" t="n">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E142" t="n">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="F142" t="n">
-        <v>1393.616</v>
+        <v>473.1709</v>
       </c>
       <c r="G142" t="n">
-        <v>763.4</v>
+        <v>771.8333333333334</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5380,10 +5432,10 @@
         <v>768</v>
       </c>
       <c r="F143" t="n">
-        <v>119.2399</v>
+        <v>1393.616</v>
       </c>
       <c r="G143" t="n">
-        <v>765.4</v>
+        <v>771.7166666666667</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5415,10 +5467,10 @@
         <v>768</v>
       </c>
       <c r="F144" t="n">
-        <v>2199.1227</v>
+        <v>119.2399</v>
       </c>
       <c r="G144" t="n">
-        <v>766.6</v>
+        <v>771.6</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5438,22 +5490,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="C145" t="n">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="D145" t="n">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="E145" t="n">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="F145" t="n">
-        <v>266.0521</v>
+        <v>2199.1227</v>
       </c>
       <c r="G145" t="n">
-        <v>766.8</v>
+        <v>771.45</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5473,22 +5525,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="C146" t="n">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D146" t="n">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="E146" t="n">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="F146" t="n">
-        <v>107.8681</v>
+        <v>266.0521</v>
       </c>
       <c r="G146" t="n">
-        <v>765.8</v>
+        <v>771.2666666666667</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5508,22 +5560,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="C147" t="n">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="D147" t="n">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="E147" t="n">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="F147" t="n">
-        <v>50</v>
+        <v>107.8681</v>
       </c>
       <c r="G147" t="n">
-        <v>764.2</v>
+        <v>770.9833333333333</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5543,22 +5595,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="C148" t="n">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="D148" t="n">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="E148" t="n">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="F148" t="n">
         <v>50</v>
       </c>
       <c r="G148" t="n">
-        <v>763.2</v>
+        <v>770.65</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5578,22 +5630,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="C149" t="n">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="D149" t="n">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="E149" t="n">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="F149" t="n">
-        <v>46.0521</v>
+        <v>50</v>
       </c>
       <c r="G149" t="n">
-        <v>762.8</v>
+        <v>770.5</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5613,22 +5665,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C150" t="n">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="D150" t="n">
         <v>766</v>
       </c>
       <c r="E150" t="n">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="F150" t="n">
-        <v>2799.52</v>
+        <v>46.0521</v>
       </c>
       <c r="G150" t="n">
-        <v>763.2</v>
+        <v>770.1833333333333</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5654,16 +5706,16 @@
         <v>765</v>
       </c>
       <c r="D151" t="n">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="E151" t="n">
         <v>765</v>
       </c>
       <c r="F151" t="n">
-        <v>177.5653</v>
+        <v>2799.52</v>
       </c>
       <c r="G151" t="n">
-        <v>763.8</v>
+        <v>769.85</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5683,22 +5735,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="C152" t="n">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="D152" t="n">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="E152" t="n">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="F152" t="n">
-        <v>1154.345</v>
+        <v>177.5653</v>
       </c>
       <c r="G152" t="n">
-        <v>766</v>
+        <v>769.6166666666667</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5718,22 +5770,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>765</v>
+        <v>771</v>
       </c>
       <c r="C153" t="n">
-        <v>762</v>
+        <v>771</v>
       </c>
       <c r="D153" t="n">
-        <v>765</v>
+        <v>771</v>
       </c>
       <c r="E153" t="n">
-        <v>762</v>
+        <v>771</v>
       </c>
       <c r="F153" t="n">
-        <v>270</v>
+        <v>1154.345</v>
       </c>
       <c r="G153" t="n">
-        <v>765.8</v>
+        <v>769.3666666666667</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5753,22 +5805,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
+        <v>765</v>
+      </c>
+      <c r="C154" t="n">
         <v>762</v>
       </c>
-      <c r="C154" t="n">
-        <v>759</v>
-      </c>
       <c r="D154" t="n">
+        <v>765</v>
+      </c>
+      <c r="E154" t="n">
         <v>762</v>
       </c>
-      <c r="E154" t="n">
-        <v>759</v>
-      </c>
       <c r="F154" t="n">
-        <v>540</v>
+        <v>270</v>
       </c>
       <c r="G154" t="n">
-        <v>764.4</v>
+        <v>768.9</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5788,22 +5840,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
+        <v>762</v>
+      </c>
+      <c r="C155" t="n">
         <v>759</v>
       </c>
-      <c r="C155" t="n">
-        <v>753</v>
-      </c>
       <c r="D155" t="n">
+        <v>762</v>
+      </c>
+      <c r="E155" t="n">
         <v>759</v>
       </c>
-      <c r="E155" t="n">
-        <v>753</v>
-      </c>
       <c r="F155" t="n">
-        <v>2791.5112</v>
+        <v>540</v>
       </c>
       <c r="G155" t="n">
-        <v>762</v>
+        <v>768.4</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5823,22 +5875,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>752</v>
+        <v>759</v>
       </c>
       <c r="C156" t="n">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="D156" t="n">
-        <v>752</v>
+        <v>759</v>
       </c>
       <c r="E156" t="n">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="F156" t="n">
-        <v>1899.9878</v>
+        <v>2791.5112</v>
       </c>
       <c r="G156" t="n">
-        <v>759.2</v>
+        <v>767.75</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5858,22 +5910,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="C157" t="n">
         <v>751</v>
       </c>
       <c r="D157" t="n">
+        <v>752</v>
+      </c>
+      <c r="E157" t="n">
         <v>751</v>
       </c>
-      <c r="E157" t="n">
-        <v>750</v>
-      </c>
       <c r="F157" t="n">
-        <v>770.3005000000001</v>
+        <v>1899.9878</v>
       </c>
       <c r="G157" t="n">
-        <v>755.2</v>
+        <v>767.55</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5893,22 +5945,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="C158" t="n">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="D158" t="n">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="E158" t="n">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="F158" t="n">
-        <v>27.0607</v>
+        <v>770.3005000000001</v>
       </c>
       <c r="G158" t="n">
-        <v>754.2</v>
+        <v>767.35</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5928,22 +5980,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="C159" t="n">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="D159" t="n">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="E159" t="n">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="F159" t="n">
-        <v>1500.3005</v>
+        <v>27.0607</v>
       </c>
       <c r="G159" t="n">
-        <v>753.6</v>
+        <v>766.85</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5963,22 +6015,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C160" t="n">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="D160" t="n">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="E160" t="n">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="F160" t="n">
-        <v>500.0162</v>
+        <v>1500.3005</v>
       </c>
       <c r="G160" t="n">
-        <v>754</v>
+        <v>766.7166666666667</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -5998,22 +6050,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="C161" t="n">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="D161" t="n">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="E161" t="n">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="F161" t="n">
-        <v>706.796</v>
+        <v>500.0162</v>
       </c>
       <c r="G161" t="n">
-        <v>755.8</v>
+        <v>766.1833333333333</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6033,22 +6085,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="C162" t="n">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="D162" t="n">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="E162" t="n">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="F162" t="n">
-        <v>46.2262</v>
+        <v>706.796</v>
       </c>
       <c r="G162" t="n">
-        <v>757.2</v>
+        <v>766.0333333333333</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6068,22 +6120,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C163" t="n">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="D163" t="n">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="E163" t="n">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="F163" t="n">
-        <v>1400</v>
+        <v>46.2262</v>
       </c>
       <c r="G163" t="n">
-        <v>757</v>
+        <v>765.8</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6103,22 +6155,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="C164" t="n">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="D164" t="n">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="E164" t="n">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="F164" t="n">
-        <v>342.254</v>
+        <v>1400</v>
       </c>
       <c r="G164" t="n">
-        <v>758.2</v>
+        <v>765.3833333333333</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6138,22 +6190,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C165" t="n">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="D165" t="n">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E165" t="n">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="F165" t="n">
-        <v>227.0262</v>
+        <v>342.254</v>
       </c>
       <c r="G165" t="n">
-        <v>759.4</v>
+        <v>765.0666666666667</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6173,22 +6225,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>773</v>
+        <v>761</v>
       </c>
       <c r="C166" t="n">
-        <v>773</v>
+        <v>761</v>
       </c>
       <c r="D166" t="n">
-        <v>773</v>
+        <v>761</v>
       </c>
       <c r="E166" t="n">
-        <v>773</v>
+        <v>761</v>
       </c>
       <c r="F166" t="n">
-        <v>285.9599</v>
+        <v>227.0262</v>
       </c>
       <c r="G166" t="n">
-        <v>762</v>
+        <v>764.7166666666667</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6220,10 +6272,10 @@
         <v>773</v>
       </c>
       <c r="F167" t="n">
-        <v>1188.2039</v>
+        <v>285.9599</v>
       </c>
       <c r="G167" t="n">
-        <v>765</v>
+        <v>764.5666666666667</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6243,22 +6295,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C168" t="n">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="D168" t="n">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E168" t="n">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="F168" t="n">
-        <v>959.8868</v>
+        <v>1188.2039</v>
       </c>
       <c r="G168" t="n">
-        <v>768.8</v>
+        <v>764.4166666666666</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6278,22 +6330,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="C169" t="n">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="D169" t="n">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="E169" t="n">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="F169" t="n">
-        <v>385.1309</v>
+        <v>959.8868</v>
       </c>
       <c r="G169" t="n">
-        <v>772.2</v>
+        <v>764.55</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6313,22 +6365,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="C170" t="n">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="D170" t="n">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="E170" t="n">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="F170" t="n">
-        <v>1647.2553</v>
+        <v>385.1309</v>
       </c>
       <c r="G170" t="n">
-        <v>775.2</v>
+        <v>764.7833333333333</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6348,22 +6400,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C171" t="n">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="D171" t="n">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E171" t="n">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="F171" t="n">
-        <v>240.9783</v>
+        <v>1647.2553</v>
       </c>
       <c r="G171" t="n">
-        <v>775.6</v>
+        <v>764.9666666666667</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6383,22 +6435,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C172" t="n">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="D172" t="n">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E172" t="n">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="F172" t="n">
-        <v>1056.2391</v>
+        <v>240.9783</v>
       </c>
       <c r="G172" t="n">
-        <v>776.8</v>
+        <v>765.1333333333333</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6418,22 +6470,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="C173" t="n">
-        <v>773</v>
+        <v>779</v>
       </c>
       <c r="D173" t="n">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="E173" t="n">
-        <v>773</v>
+        <v>779</v>
       </c>
       <c r="F173" t="n">
-        <v>1316.8692</v>
+        <v>1056.2391</v>
       </c>
       <c r="G173" t="n">
-        <v>776.4</v>
+        <v>765.25</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6453,22 +6505,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C174" t="n">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="D174" t="n">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E174" t="n">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="F174" t="n">
-        <v>46.586</v>
+        <v>1316.8692</v>
       </c>
       <c r="G174" t="n">
-        <v>775.6</v>
+        <v>765.35</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6488,22 +6540,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="C175" t="n">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="D175" t="n">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="E175" t="n">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="F175" t="n">
-        <v>2464.4593</v>
+        <v>46.586</v>
       </c>
       <c r="G175" t="n">
-        <v>774.4</v>
+        <v>765.2833333333333</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6523,22 +6575,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="C176" t="n">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="D176" t="n">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="E176" t="n">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="F176" t="n">
-        <v>318.9202</v>
+        <v>2464.4593</v>
       </c>
       <c r="G176" t="n">
-        <v>772.6</v>
+        <v>765.1</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6558,22 +6610,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="C177" t="n">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="D177" t="n">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="E177" t="n">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="F177" t="n">
-        <v>237.4831</v>
+        <v>318.9202</v>
       </c>
       <c r="G177" t="n">
-        <v>769</v>
+        <v>764.9166666666666</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6593,22 +6645,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C178" t="n">
         <v>761</v>
       </c>
       <c r="D178" t="n">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E178" t="n">
         <v>761</v>
       </c>
       <c r="F178" t="n">
-        <v>55.9</v>
+        <v>237.4831</v>
       </c>
       <c r="G178" t="n">
-        <v>766.6</v>
+        <v>764.7166666666667</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6628,22 +6680,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="C179" t="n">
-        <v>772</v>
+        <v>761</v>
       </c>
       <c r="D179" t="n">
-        <v>773</v>
+        <v>761</v>
       </c>
       <c r="E179" t="n">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="F179" t="n">
-        <v>2302.29</v>
+        <v>55.9</v>
       </c>
       <c r="G179" t="n">
-        <v>766</v>
+        <v>764.5166666666667</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6663,22 +6715,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
+        <v>770</v>
+      </c>
+      <c r="C180" t="n">
+        <v>772</v>
+      </c>
+      <c r="D180" t="n">
         <v>773</v>
       </c>
-      <c r="C180" t="n">
-        <v>776</v>
-      </c>
-      <c r="D180" t="n">
-        <v>776</v>
-      </c>
       <c r="E180" t="n">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="F180" t="n">
-        <v>713.5964</v>
+        <v>2302.29</v>
       </c>
       <c r="G180" t="n">
-        <v>767.2</v>
+        <v>764.5833333333334</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6698,22 +6750,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="C181" t="n">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="D181" t="n">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="E181" t="n">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="F181" t="n">
-        <v>279.2</v>
+        <v>713.5964</v>
       </c>
       <c r="G181" t="n">
-        <v>769.8</v>
+        <v>764.7166666666667</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6733,22 +6785,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C182" t="n">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D182" t="n">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E182" t="n">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F182" t="n">
-        <v>657.4097</v>
+        <v>279.2</v>
       </c>
       <c r="G182" t="n">
-        <v>773.6</v>
+        <v>764.8833333333333</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6780,10 +6832,10 @@
         <v>780</v>
       </c>
       <c r="F183" t="n">
-        <v>40.5069</v>
+        <v>657.4097</v>
       </c>
       <c r="G183" t="n">
-        <v>777.4</v>
+        <v>765.0166666666667</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6803,22 +6855,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="C184" t="n">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="D184" t="n">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="E184" t="n">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="F184" t="n">
-        <v>1129.3751</v>
+        <v>40.5069</v>
       </c>
       <c r="G184" t="n">
-        <v>778</v>
+        <v>765.2333333333333</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6838,22 +6890,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C185" t="n">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="D185" t="n">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="E185" t="n">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="F185" t="n">
-        <v>68.13509999999999</v>
+        <v>1129.3751</v>
       </c>
       <c r="G185" t="n">
-        <v>778.6</v>
+        <v>765.3833333333333</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6873,22 +6925,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="C186" t="n">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D186" t="n">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E186" t="n">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="F186" t="n">
-        <v>561.3935</v>
+        <v>68.13509999999999</v>
       </c>
       <c r="G186" t="n">
-        <v>778.8</v>
+        <v>765.6333333333333</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6908,22 +6960,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
+        <v>777</v>
+      </c>
+      <c r="C187" t="n">
         <v>780</v>
       </c>
-      <c r="C187" t="n">
-        <v>782</v>
-      </c>
       <c r="D187" t="n">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="E187" t="n">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="F187" t="n">
-        <v>1338.8029</v>
+        <v>561.3935</v>
       </c>
       <c r="G187" t="n">
-        <v>779.2</v>
+        <v>765.9166666666666</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6943,22 +6995,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="C188" t="n">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="D188" t="n">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="E188" t="n">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="F188" t="n">
-        <v>870.1721</v>
+        <v>1338.8029</v>
       </c>
       <c r="G188" t="n">
-        <v>780</v>
+        <v>766.2333333333333</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -6978,22 +7030,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="C189" t="n">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="D189" t="n">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="E189" t="n">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="F189" t="n">
-        <v>60.1456</v>
+        <v>870.1721</v>
       </c>
       <c r="G189" t="n">
-        <v>781.2</v>
+        <v>766.5833333333334</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7013,22 +7065,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="C190" t="n">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="D190" t="n">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="E190" t="n">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="F190" t="n">
-        <v>1090.1267</v>
+        <v>60.1456</v>
       </c>
       <c r="G190" t="n">
-        <v>782.4</v>
+        <v>766.85</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7048,22 +7100,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="C191" t="n">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="D191" t="n">
-        <v>795</v>
+        <v>786</v>
       </c>
       <c r="E191" t="n">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="F191" t="n">
-        <v>527.6526</v>
+        <v>1090.1267</v>
       </c>
       <c r="G191" t="n">
-        <v>785</v>
+        <v>767.1666666666666</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7083,22 +7135,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="C192" t="n">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="D192" t="n">
         <v>795</v>
       </c>
       <c r="E192" t="n">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="F192" t="n">
-        <v>115.7232</v>
+        <v>527.6526</v>
       </c>
       <c r="G192" t="n">
-        <v>787.6</v>
+        <v>767.6666666666666</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7118,22 +7170,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>788</v>
+        <v>795</v>
       </c>
       <c r="C193" t="n">
-        <v>786</v>
+        <v>795</v>
       </c>
       <c r="D193" t="n">
-        <v>788</v>
+        <v>795</v>
       </c>
       <c r="E193" t="n">
-        <v>786</v>
+        <v>795</v>
       </c>
       <c r="F193" t="n">
-        <v>1258.0743</v>
+        <v>115.7232</v>
       </c>
       <c r="G193" t="n">
-        <v>788</v>
+        <v>768.2166666666667</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7153,22 +7205,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>783</v>
+        <v>788</v>
       </c>
       <c r="C194" t="n">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="D194" t="n">
-        <v>783</v>
+        <v>788</v>
       </c>
       <c r="E194" t="n">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="F194" t="n">
-        <v>640.563</v>
+        <v>1258.0743</v>
       </c>
       <c r="G194" t="n">
-        <v>788.4</v>
+        <v>768.6333333333333</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7188,22 +7240,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="C195" t="n">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="D195" t="n">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="E195" t="n">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="F195" t="n">
-        <v>811.0762</v>
+        <v>640.563</v>
       </c>
       <c r="G195" t="n">
-        <v>789</v>
+        <v>768.9666666666667</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7223,22 +7275,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>782</v>
+        <v>788</v>
       </c>
       <c r="C196" t="n">
-        <v>782</v>
+        <v>788</v>
       </c>
       <c r="D196" t="n">
-        <v>782</v>
+        <v>788</v>
       </c>
       <c r="E196" t="n">
-        <v>782</v>
+        <v>788</v>
       </c>
       <c r="F196" t="n">
-        <v>800</v>
+        <v>811.0762</v>
       </c>
       <c r="G196" t="n">
-        <v>786.8</v>
+        <v>769.3833333333333</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7258,22 +7310,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C197" t="n">
-        <v>794</v>
+        <v>782</v>
       </c>
       <c r="D197" t="n">
-        <v>794</v>
+        <v>782</v>
       </c>
       <c r="E197" t="n">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="F197" t="n">
-        <v>644.2588</v>
+        <v>800</v>
       </c>
       <c r="G197" t="n">
-        <v>786.6</v>
+        <v>769.75</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7293,22 +7345,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>793</v>
+        <v>783</v>
       </c>
       <c r="C198" t="n">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="D198" t="n">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="E198" t="n">
-        <v>793</v>
+        <v>783</v>
       </c>
       <c r="F198" t="n">
-        <v>834.3469</v>
+        <v>644.2588</v>
       </c>
       <c r="G198" t="n">
-        <v>788</v>
+        <v>770.3166666666667</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7328,22 +7380,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>782</v>
+        <v>793</v>
       </c>
       <c r="C199" t="n">
-        <v>782</v>
+        <v>793</v>
       </c>
       <c r="D199" t="n">
-        <v>782</v>
+        <v>793</v>
       </c>
       <c r="E199" t="n">
-        <v>782</v>
+        <v>793</v>
       </c>
       <c r="F199" t="n">
-        <v>316.3125</v>
+        <v>834.3469</v>
       </c>
       <c r="G199" t="n">
-        <v>787.8</v>
+        <v>770.9</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7363,22 +7415,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C200" t="n">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="D200" t="n">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E200" t="n">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="F200" t="n">
-        <v>366.409</v>
+        <v>316.3125</v>
       </c>
       <c r="G200" t="n">
-        <v>786</v>
+        <v>771.2333333333333</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7398,22 +7450,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="C201" t="n">
-        <v>790</v>
+        <v>779</v>
       </c>
       <c r="D201" t="n">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="E201" t="n">
-        <v>790</v>
+        <v>779</v>
       </c>
       <c r="F201" t="n">
-        <v>2.4645</v>
+        <v>366.409</v>
       </c>
       <c r="G201" t="n">
-        <v>787.6</v>
+        <v>771.5166666666667</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7433,22 +7485,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C202" t="n">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="D202" t="n">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="E202" t="n">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="F202" t="n">
-        <v>38.2</v>
+        <v>2.4645</v>
       </c>
       <c r="G202" t="n">
-        <v>786.6</v>
+        <v>771.9</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7468,22 +7520,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="C203" t="n">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="D203" t="n">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="E203" t="n">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="F203" t="n">
-        <v>2313.6302</v>
+        <v>38.2</v>
       </c>
       <c r="G203" t="n">
-        <v>785.4</v>
+        <v>772.25</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7509,16 +7561,16 @@
         <v>787</v>
       </c>
       <c r="D204" t="n">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="E204" t="n">
         <v>787</v>
       </c>
       <c r="F204" t="n">
-        <v>743.3519</v>
+        <v>2313.6302</v>
       </c>
       <c r="G204" t="n">
-        <v>786.4</v>
+        <v>772.5666666666667</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7550,10 +7602,10 @@
         <v>787</v>
       </c>
       <c r="F205" t="n">
-        <v>1727.2625</v>
+        <v>743.3519</v>
       </c>
       <c r="G205" t="n">
-        <v>788</v>
+        <v>772.8833333333333</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7585,10 +7637,10 @@
         <v>787</v>
       </c>
       <c r="F206" t="n">
-        <v>502.7934</v>
+        <v>1727.2625</v>
       </c>
       <c r="G206" t="n">
-        <v>787.4</v>
+        <v>773.2833333333333</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7608,22 +7660,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>781</v>
+        <v>787</v>
       </c>
       <c r="C207" t="n">
-        <v>780</v>
+        <v>787</v>
       </c>
       <c r="D207" t="n">
-        <v>781</v>
+        <v>787</v>
       </c>
       <c r="E207" t="n">
-        <v>780</v>
+        <v>787</v>
       </c>
       <c r="F207" t="n">
-        <v>1765.3811</v>
+        <v>502.7934</v>
       </c>
       <c r="G207" t="n">
-        <v>785.6</v>
+        <v>773.7</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7643,22 +7695,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
+        <v>781</v>
+      </c>
+      <c r="C208" t="n">
         <v>780</v>
       </c>
-      <c r="C208" t="n">
-        <v>777</v>
-      </c>
       <c r="D208" t="n">
+        <v>781</v>
+      </c>
+      <c r="E208" t="n">
         <v>780</v>
       </c>
-      <c r="E208" t="n">
-        <v>777</v>
-      </c>
       <c r="F208" t="n">
-        <v>9595.1036</v>
+        <v>1765.3811</v>
       </c>
       <c r="G208" t="n">
-        <v>783.6</v>
+        <v>774.0333333333333</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7678,22 +7730,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="C209" t="n">
         <v>777</v>
       </c>
       <c r="D209" t="n">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="E209" t="n">
         <v>777</v>
       </c>
       <c r="F209" t="n">
-        <v>285.8797</v>
+        <v>9595.1036</v>
       </c>
       <c r="G209" t="n">
-        <v>781.6</v>
+        <v>774.2666666666667</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7713,22 +7765,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="C210" t="n">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="D210" t="n">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="E210" t="n">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="F210" t="n">
-        <v>409.35</v>
+        <v>285.8797</v>
       </c>
       <c r="G210" t="n">
-        <v>780.4</v>
+        <v>774.45</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -7748,22 +7800,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C211" t="n">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D211" t="n">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="E211" t="n">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="F211" t="n">
-        <v>46.1762</v>
+        <v>409.35</v>
       </c>
       <c r="G211" t="n">
-        <v>779.6</v>
+        <v>774.7166666666667</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -7783,22 +7835,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>777</v>
+        <v>783</v>
       </c>
       <c r="C212" t="n">
-        <v>776</v>
+        <v>783</v>
       </c>
       <c r="D212" t="n">
-        <v>777</v>
+        <v>783</v>
       </c>
       <c r="E212" t="n">
-        <v>776</v>
+        <v>783</v>
       </c>
       <c r="F212" t="n">
-        <v>203.3438</v>
+        <v>46.1762</v>
       </c>
       <c r="G212" t="n">
-        <v>778.8</v>
+        <v>775.0166666666667</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -7818,22 +7870,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
+        <v>777</v>
+      </c>
+      <c r="C213" t="n">
         <v>776</v>
       </c>
-      <c r="C213" t="n">
-        <v>774</v>
-      </c>
       <c r="D213" t="n">
+        <v>777</v>
+      </c>
+      <c r="E213" t="n">
         <v>776</v>
       </c>
-      <c r="E213" t="n">
-        <v>774</v>
-      </c>
       <c r="F213" t="n">
-        <v>6708.2873</v>
+        <v>203.3438</v>
       </c>
       <c r="G213" t="n">
-        <v>778.2</v>
+        <v>775.1</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -7853,22 +7905,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="C214" t="n">
         <v>774</v>
       </c>
       <c r="D214" t="n">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="E214" t="n">
         <v>774</v>
       </c>
       <c r="F214" t="n">
-        <v>3371.16</v>
+        <v>6708.2873</v>
       </c>
       <c r="G214" t="n">
-        <v>777.6</v>
+        <v>775.3</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -7900,10 +7952,10 @@
         <v>774</v>
       </c>
       <c r="F215" t="n">
-        <v>137</v>
+        <v>3371.16</v>
       </c>
       <c r="G215" t="n">
-        <v>776.2</v>
+        <v>775.55</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -7923,22 +7975,22 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="C216" t="n">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="D216" t="n">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="E216" t="n">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="F216" t="n">
-        <v>705.029</v>
+        <v>137</v>
       </c>
       <c r="G216" t="n">
-        <v>773.6</v>
+        <v>775.9</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -7958,22 +8010,22 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="C217" t="n">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="D217" t="n">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="E217" t="n">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="F217" t="n">
-        <v>7956.2054</v>
+        <v>705.029</v>
       </c>
       <c r="G217" t="n">
-        <v>773.2</v>
+        <v>776.2166666666667</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -7993,7 +8045,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C218" t="n">
         <v>774</v>
@@ -8002,13 +8054,13 @@
         <v>774</v>
       </c>
       <c r="E218" t="n">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F218" t="n">
-        <v>125</v>
+        <v>7956.2054</v>
       </c>
       <c r="G218" t="n">
-        <v>773.2</v>
+        <v>776.6</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8040,10 +8092,10 @@
         <v>774</v>
       </c>
       <c r="F219" t="n">
-        <v>1395</v>
+        <v>125</v>
       </c>
       <c r="G219" t="n">
-        <v>773.2</v>
+        <v>776.8833333333333</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8063,22 +8115,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="C220" t="n">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="D220" t="n">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="E220" t="n">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="F220" t="n">
-        <v>434.4</v>
+        <v>1395</v>
       </c>
       <c r="G220" t="n">
-        <v>772.8</v>
+        <v>777.1833333333333</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8101,19 +8153,19 @@
         <v>772</v>
       </c>
       <c r="C221" t="n">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="D221" t="n">
         <v>772</v>
       </c>
       <c r="E221" t="n">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="F221" t="n">
-        <v>6433.4116</v>
+        <v>434.4</v>
       </c>
       <c r="G221" t="n">
-        <v>773</v>
+        <v>777.4666666666667</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8133,22 +8185,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C222" t="n">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="D222" t="n">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="E222" t="n">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="F222" t="n">
-        <v>499.9999</v>
+        <v>6433.4116</v>
       </c>
       <c r="G222" t="n">
-        <v>773.2</v>
+        <v>777.65</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8180,10 +8232,10 @@
         <v>774</v>
       </c>
       <c r="F223" t="n">
-        <v>240.2546</v>
+        <v>499.9999</v>
       </c>
       <c r="G223" t="n">
-        <v>773.4</v>
+        <v>777.9333333333333</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8203,7 +8255,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C224" t="n">
         <v>775</v>
@@ -8212,13 +8264,13 @@
         <v>775</v>
       </c>
       <c r="E224" t="n">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F224" t="n">
-        <v>868.2926</v>
+        <v>240.2546</v>
       </c>
       <c r="G224" t="n">
-        <v>773.6</v>
+        <v>778.25</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8238,22 +8290,22 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C225" t="n">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="D225" t="n">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="E225" t="n">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="F225" t="n">
-        <v>1</v>
+        <v>868.2926</v>
       </c>
       <c r="G225" t="n">
-        <v>774.6</v>
+        <v>778.4666666666667</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8273,22 +8325,22 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C226" t="n">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="D226" t="n">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="E226" t="n">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="F226" t="n">
-        <v>144.12</v>
+        <v>1</v>
       </c>
       <c r="G226" t="n">
-        <v>776.2</v>
+        <v>778.7333333333333</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8308,22 +8360,22 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C227" t="n">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="D227" t="n">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="E227" t="n">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="F227" t="n">
-        <v>1477.9628</v>
+        <v>144.12</v>
       </c>
       <c r="G227" t="n">
-        <v>777.6</v>
+        <v>778.8333333333334</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8343,22 +8395,22 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="C228" t="n">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="D228" t="n">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="E228" t="n">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="F228" t="n">
-        <v>1477.5193</v>
+        <v>1477.9628</v>
       </c>
       <c r="G228" t="n">
-        <v>778.2</v>
+        <v>778.9833333333333</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8378,22 +8430,22 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="C229" t="n">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="D229" t="n">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="E229" t="n">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="F229" t="n">
-        <v>1077.13</v>
+        <v>1477.5193</v>
       </c>
       <c r="G229" t="n">
-        <v>779.4</v>
+        <v>779.0333333333333</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8413,22 +8465,22 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C230" t="n">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="D230" t="n">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="E230" t="n">
-        <v>771</v>
+        <v>781</v>
       </c>
       <c r="F230" t="n">
-        <v>10459.6392</v>
+        <v>1077.13</v>
       </c>
       <c r="G230" t="n">
-        <v>780.8</v>
+        <v>779.0666666666667</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8448,22 +8500,22 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="C231" t="n">
-        <v>776</v>
+        <v>784</v>
       </c>
       <c r="D231" t="n">
-        <v>776</v>
+        <v>784</v>
       </c>
       <c r="E231" t="n">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="F231" t="n">
-        <v>453.5273</v>
+        <v>10459.6392</v>
       </c>
       <c r="G231" t="n">
-        <v>780.2</v>
+        <v>779.2</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8483,22 +8535,22 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="C232" t="n">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="D232" t="n">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="E232" t="n">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="F232" t="n">
-        <v>535.8541</v>
+        <v>453.5273</v>
       </c>
       <c r="G232" t="n">
-        <v>777.8</v>
+        <v>779.2166666666667</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8518,22 +8570,22 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>780</v>
+        <v>771</v>
       </c>
       <c r="C233" t="n">
-        <v>780</v>
+        <v>770</v>
       </c>
       <c r="D233" t="n">
-        <v>780</v>
+        <v>771</v>
       </c>
       <c r="E233" t="n">
-        <v>780</v>
+        <v>770</v>
       </c>
       <c r="F233" t="n">
-        <v>22.1415</v>
+        <v>535.8541</v>
       </c>
       <c r="G233" t="n">
-        <v>778.2</v>
+        <v>779.0666666666667</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -8553,22 +8605,22 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="C234" t="n">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="D234" t="n">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="E234" t="n">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="F234" t="n">
-        <v>283.5513</v>
+        <v>22.1415</v>
       </c>
       <c r="G234" t="n">
-        <v>777.4</v>
+        <v>779.1833333333333</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -8588,22 +8640,22 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="C235" t="n">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="D235" t="n">
+        <v>778</v>
+      </c>
+      <c r="E235" t="n">
         <v>777</v>
       </c>
-      <c r="E235" t="n">
-        <v>776</v>
-      </c>
       <c r="F235" t="n">
-        <v>1015.5375</v>
+        <v>283.5513</v>
       </c>
       <c r="G235" t="n">
-        <v>775.8</v>
+        <v>779.2166666666667</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -8623,22 +8675,22 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="C236" t="n">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="D236" t="n">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="E236" t="n">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="F236" t="n">
-        <v>269</v>
+        <v>1015.5375</v>
       </c>
       <c r="G236" t="n">
-        <v>775.4</v>
+        <v>779.3166666666667</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -8658,22 +8710,22 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C237" t="n">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D237" t="n">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E237" t="n">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F237" t="n">
-        <v>61.0795</v>
+        <v>269</v>
       </c>
       <c r="G237" t="n">
-        <v>776.4</v>
+        <v>779.45</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -8693,22 +8745,22 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="C238" t="n">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="D238" t="n">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="E238" t="n">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F238" t="n">
-        <v>90.1444</v>
+        <v>61.0795</v>
       </c>
       <c r="G238" t="n">
-        <v>775.2</v>
+        <v>779.6833333333333</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -8728,22 +8780,22 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="C239" t="n">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="D239" t="n">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="E239" t="n">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="F239" t="n">
-        <v>44.9323</v>
+        <v>90.1444</v>
       </c>
       <c r="G239" t="n">
-        <v>774.2</v>
+        <v>779.9</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -8763,22 +8815,22 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C240" t="n">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D240" t="n">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E240" t="n">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F240" t="n">
-        <v>50.8827</v>
+        <v>44.9323</v>
       </c>
       <c r="G240" t="n">
-        <v>773.6</v>
+        <v>779.9</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -8798,22 +8850,22 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="C241" t="n">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="D241" t="n">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="E241" t="n">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="F241" t="n">
-        <v>251.5113</v>
+        <v>50.8827</v>
       </c>
       <c r="G241" t="n">
-        <v>772.8</v>
+        <v>779.85</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -8836,19 +8888,19 @@
         <v>770</v>
       </c>
       <c r="C242" t="n">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="D242" t="n">
         <v>770</v>
       </c>
       <c r="E242" t="n">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="F242" t="n">
-        <v>234.8839</v>
+        <v>251.5113</v>
       </c>
       <c r="G242" t="n">
-        <v>771.2</v>
+        <v>779.7</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -8868,22 +8920,22 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
+        <v>770</v>
+      </c>
+      <c r="C243" t="n">
         <v>767</v>
       </c>
-      <c r="C243" t="n">
-        <v>764</v>
-      </c>
       <c r="D243" t="n">
+        <v>770</v>
+      </c>
+      <c r="E243" t="n">
         <v>767</v>
       </c>
-      <c r="E243" t="n">
-        <v>764</v>
-      </c>
       <c r="F243" t="n">
-        <v>44.364</v>
+        <v>234.8839</v>
       </c>
       <c r="G243" t="n">
-        <v>769.2</v>
+        <v>779.4833333333333</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -8903,22 +8955,22 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="C244" t="n">
         <v>764</v>
       </c>
       <c r="D244" t="n">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="E244" t="n">
         <v>764</v>
       </c>
       <c r="F244" t="n">
-        <v>475.0893</v>
+        <v>44.364</v>
       </c>
       <c r="G244" t="n">
-        <v>767.6</v>
+        <v>779.2166666666667</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -8938,22 +8990,22 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C245" t="n">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="D245" t="n">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="E245" t="n">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="F245" t="n">
-        <v>47</v>
+        <v>475.0893</v>
       </c>
       <c r="G245" t="n">
-        <v>765.6</v>
+        <v>779.0333333333333</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -8973,22 +9025,22 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C246" t="n">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D246" t="n">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="E246" t="n">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="F246" t="n">
-        <v>74.20699999999999</v>
+        <v>47</v>
       </c>
       <c r="G246" t="n">
-        <v>764</v>
+        <v>778.7666666666667</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9008,22 +9060,22 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C247" t="n">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D247" t="n">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E247" t="n">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="F247" t="n">
-        <v>178.6805</v>
+        <v>74.20699999999999</v>
       </c>
       <c r="G247" t="n">
-        <v>763.2</v>
+        <v>778.4666666666667</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9055,10 +9107,10 @@
         <v>763</v>
       </c>
       <c r="F248" t="n">
-        <v>451.8513</v>
+        <v>178.6805</v>
       </c>
       <c r="G248" t="n">
-        <v>763</v>
+        <v>778.15</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9090,10 +9142,10 @@
         <v>763</v>
       </c>
       <c r="F249" t="n">
-        <v>22.079</v>
+        <v>451.8513</v>
       </c>
       <c r="G249" t="n">
-        <v>762.8</v>
+        <v>777.8</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9113,22 +9165,22 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="C250" t="n">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="D250" t="n">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="E250" t="n">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="F250" t="n">
-        <v>1373.498</v>
+        <v>22.079</v>
       </c>
       <c r="G250" t="n">
-        <v>762.4</v>
+        <v>777.5</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9148,22 +9200,22 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C251" t="n">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D251" t="n">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E251" t="n">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="F251" t="n">
-        <v>1000</v>
+        <v>1373.498</v>
       </c>
       <c r="G251" t="n">
-        <v>762.4</v>
+        <v>777.1</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9183,22 +9235,22 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C252" t="n">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="D252" t="n">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E252" t="n">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="F252" t="n">
-        <v>1305.0399</v>
+        <v>1000</v>
       </c>
       <c r="G252" t="n">
-        <v>762</v>
+        <v>776.5833333333334</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9218,22 +9270,22 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C253" t="n">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D253" t="n">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E253" t="n">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="F253" t="n">
-        <v>432.1109</v>
+        <v>1305.0399</v>
       </c>
       <c r="G253" t="n">
-        <v>761.8</v>
+        <v>776.0166666666667</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -9256,19 +9308,19 @@
         <v>762</v>
       </c>
       <c r="C254" t="n">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="D254" t="n">
         <v>762</v>
       </c>
       <c r="E254" t="n">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="F254" t="n">
-        <v>471.8692</v>
+        <v>432.1109</v>
       </c>
       <c r="G254" t="n">
-        <v>761.4</v>
+        <v>775.6166666666667</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -9288,22 +9340,22 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="C255" t="n">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="D255" t="n">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="E255" t="n">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="F255" t="n">
-        <v>131</v>
+        <v>471.8692</v>
       </c>
       <c r="G255" t="n">
-        <v>761</v>
+        <v>775.25</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -9323,22 +9375,22 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="C256" t="n">
-        <v>745</v>
+        <v>759</v>
       </c>
       <c r="D256" t="n">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="E256" t="n">
-        <v>745</v>
+        <v>759</v>
       </c>
       <c r="F256" t="n">
-        <v>14369.0286</v>
+        <v>131</v>
       </c>
       <c r="G256" t="n">
-        <v>757.6</v>
+        <v>774.7666666666667</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -9358,22 +9410,22 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>746</v>
+        <v>757</v>
       </c>
       <c r="C257" t="n">
-        <v>735</v>
+        <v>745</v>
       </c>
       <c r="D257" t="n">
-        <v>746</v>
+        <v>757</v>
       </c>
       <c r="E257" t="n">
-        <v>734</v>
+        <v>745</v>
       </c>
       <c r="F257" t="n">
-        <v>4787.6075</v>
+        <v>14369.0286</v>
       </c>
       <c r="G257" t="n">
-        <v>752.4</v>
+        <v>774.15</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -9393,22 +9445,22 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="C258" t="n">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="D258" t="n">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="E258" t="n">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="F258" t="n">
-        <v>15</v>
+        <v>4787.6075</v>
       </c>
       <c r="G258" t="n">
-        <v>748.2</v>
+        <v>773.1666666666666</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -9428,22 +9480,22 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="C259" t="n">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="D259" t="n">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="E259" t="n">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="F259" t="n">
-        <v>376.6408</v>
+        <v>15</v>
       </c>
       <c r="G259" t="n">
-        <v>743.2</v>
+        <v>772.3</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -9466,19 +9518,19 @@
         <v>737</v>
       </c>
       <c r="C260" t="n">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D260" t="n">
         <v>737</v>
       </c>
       <c r="E260" t="n">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="F260" t="n">
-        <v>79.6097</v>
+        <v>376.6408</v>
       </c>
       <c r="G260" t="n">
-        <v>738.8</v>
+        <v>771.5333333333333</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -9498,22 +9550,22 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="C261" t="n">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="D261" t="n">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="E261" t="n">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="F261" t="n">
-        <v>624.4933</v>
+        <v>79.6097</v>
       </c>
       <c r="G261" t="n">
-        <v>738.8</v>
+        <v>770.8333333333334</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -9533,22 +9585,22 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C262" t="n">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D262" t="n">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E262" t="n">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="F262" t="n">
-        <v>194.141</v>
+        <v>624.4933</v>
       </c>
       <c r="G262" t="n">
-        <v>741</v>
+        <v>770.0833333333334</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -9580,23 +9632,19 @@
         <v>746</v>
       </c>
       <c r="F263" t="n">
-        <v>781.4598999999999</v>
+        <v>194.141</v>
       </c>
       <c r="G263" t="n">
-        <v>742</v>
+        <v>769.3666666666667</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263" t="n">
-        <v>746</v>
-      </c>
-      <c r="K263" t="n">
-        <v>746</v>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="inlineStr"/>
       <c r="M263" t="n">
         <v>1</v>
@@ -9607,40 +9655,32 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C264" t="n">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D264" t="n">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E264" t="n">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F264" t="n">
-        <v>46.1432</v>
+        <v>781.4598999999999</v>
       </c>
       <c r="G264" t="n">
-        <v>744.2</v>
+        <v>768.6833333333333</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
       </c>
-      <c r="J264" t="n">
-        <v>746</v>
-      </c>
-      <c r="K264" t="n">
-        <v>746</v>
-      </c>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="inlineStr"/>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -9650,22 +9690,22 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C265" t="n">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="D265" t="n">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="E265" t="n">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="F265" t="n">
-        <v>1021.9253</v>
+        <v>46.1432</v>
       </c>
       <c r="G265" t="n">
-        <v>746</v>
+        <v>768.0166666666667</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -9674,14 +9714,8 @@
         <v>0</v>
       </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="n">
-        <v>746</v>
-      </c>
-      <c r="L265" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="inlineStr"/>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -9691,22 +9725,22 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="C266" t="n">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="D266" t="n">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="E266" t="n">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="F266" t="n">
-        <v>240.2842</v>
+        <v>1021.9253</v>
       </c>
       <c r="G266" t="n">
-        <v>747.6</v>
+        <v>767.3333333333334</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -9726,10 +9760,10 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
+        <v>751</v>
+      </c>
+      <c r="C267" t="n">
         <v>753</v>
-      </c>
-      <c r="C267" t="n">
-        <v>751</v>
       </c>
       <c r="D267" t="n">
         <v>753</v>
@@ -9738,10 +9772,10 @@
         <v>751</v>
       </c>
       <c r="F267" t="n">
-        <v>817.0796</v>
+        <v>240.2842</v>
       </c>
       <c r="G267" t="n">
-        <v>748.6</v>
+        <v>766.7666666666667</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -9761,38 +9795,32 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>746</v>
+        <v>753</v>
       </c>
       <c r="C268" t="n">
-        <v>745</v>
+        <v>751</v>
       </c>
       <c r="D268" t="n">
-        <v>746</v>
+        <v>753</v>
       </c>
       <c r="E268" t="n">
-        <v>745</v>
+        <v>751</v>
       </c>
       <c r="F268" t="n">
-        <v>1042.9355</v>
+        <v>817.0796</v>
       </c>
       <c r="G268" t="n">
-        <v>748.4</v>
+        <v>766.2833333333333</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
       </c>
-      <c r="J268" t="n">
-        <v>751</v>
-      </c>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L268" t="inlineStr"/>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -9802,22 +9830,22 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C269" t="n">
         <v>745</v>
       </c>
       <c r="D269" t="n">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="E269" t="n">
         <v>745</v>
       </c>
       <c r="F269" t="n">
-        <v>528.1807</v>
+        <v>1042.9355</v>
       </c>
       <c r="G269" t="n">
-        <v>748</v>
+        <v>765.75</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -9827,11 +9855,7 @@
       </c>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L269" t="inlineStr"/>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -9841,22 +9865,22 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C270" t="n">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D270" t="n">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E270" t="n">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="F270" t="n">
-        <v>210.9</v>
+        <v>528.1807</v>
       </c>
       <c r="G270" t="n">
-        <v>748</v>
+        <v>765.2166666666667</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -9866,11 +9890,7 @@
       </c>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L270" t="inlineStr"/>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -9880,38 +9900,32 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C271" t="n">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="D271" t="n">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="E271" t="n">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="F271" t="n">
-        <v>2547.1132</v>
+        <v>210.9</v>
       </c>
       <c r="G271" t="n">
-        <v>746</v>
+        <v>764.6333333333333</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
       </c>
-      <c r="J271" t="n">
-        <v>746</v>
-      </c>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L271" t="inlineStr"/>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -9921,39 +9935,68 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
+        <v>745</v>
+      </c>
+      <c r="C272" t="n">
+        <v>743</v>
+      </c>
+      <c r="D272" t="n">
+        <v>745</v>
+      </c>
+      <c r="E272" t="n">
+        <v>743</v>
+      </c>
+      <c r="F272" t="n">
+        <v>2547.1132</v>
+      </c>
+      <c r="G272" t="n">
+        <v>763.9666666666667</v>
+      </c>
+      <c r="H272" t="n">
+        <v>0</v>
+      </c>
+      <c r="I272" t="n">
+        <v>0</v>
+      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="inlineStr"/>
+      <c r="M272" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
         <v>747</v>
       </c>
-      <c r="C272" t="n">
+      <c r="C273" t="n">
         <v>747</v>
       </c>
-      <c r="D272" t="n">
+      <c r="D273" t="n">
         <v>747</v>
       </c>
-      <c r="E272" t="n">
+      <c r="E273" t="n">
         <v>747</v>
       </c>
-      <c r="F272" t="n">
+      <c r="F273" t="n">
         <v>42.9899</v>
       </c>
-      <c r="G272" t="n">
-        <v>745.2</v>
-      </c>
-      <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
-      <c r="J272" t="n">
-        <v>743</v>
-      </c>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M272" t="n">
+      <c r="G273" t="n">
+        <v>763.4833333333333</v>
+      </c>
+      <c r="H273" t="n">
+        <v>0</v>
+      </c>
+      <c r="I273" t="n">
+        <v>0</v>
+      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="inlineStr"/>
+      <c r="M273" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-26 BackTest WTC.xlsx
+++ b/BackTest/2019-10-26 BackTest WTC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M273"/>
+  <dimension ref="A1:N283"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>4997.4</v>
       </c>
       <c r="G2" t="n">
+        <v>749.2</v>
+      </c>
+      <c r="H2" t="n">
         <v>743.7</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>556</v>
       </c>
       <c r="G3" t="n">
+        <v>749.9333333333333</v>
+      </c>
+      <c r="H3" t="n">
         <v>743.9166666666666</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>2829.5245</v>
       </c>
       <c r="G4" t="n">
+        <v>750.6</v>
+      </c>
+      <c r="H4" t="n">
         <v>744.2333333333333</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>2.8</v>
       </c>
       <c r="G5" t="n">
+        <v>752.0666666666667</v>
+      </c>
+      <c r="H5" t="n">
         <v>744.4833333333333</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>979.2866</v>
       </c>
       <c r="G6" t="n">
+        <v>752.6</v>
+      </c>
+      <c r="H6" t="n">
         <v>744.6333333333333</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>43.4646</v>
       </c>
       <c r="G7" t="n">
+        <v>752.4666666666667</v>
+      </c>
+      <c r="H7" t="n">
         <v>744.5333333333333</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,25 @@
         <v>546.9509</v>
       </c>
       <c r="G8" t="n">
+        <v>752.0666666666667</v>
+      </c>
+      <c r="H8" t="n">
         <v>744.5666666666667</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>744</v>
+      </c>
+      <c r="L8" t="n">
+        <v>744</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +723,29 @@
         <v>35.4095</v>
       </c>
       <c r="G9" t="n">
+        <v>751.6666666666666</v>
+      </c>
+      <c r="H9" t="n">
         <v>744.5833333333334</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>744</v>
+      </c>
+      <c r="L9" t="n">
+        <v>744</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +769,29 @@
         <v>696.8098</v>
       </c>
       <c r="G10" t="n">
+        <v>751.4</v>
+      </c>
+      <c r="H10" t="n">
         <v>744.65</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>744</v>
+      </c>
+      <c r="L10" t="n">
+        <v>744</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +815,25 @@
         <v>1890.5855</v>
       </c>
       <c r="G11" t="n">
+        <v>751.1333333333333</v>
+      </c>
+      <c r="H11" t="n">
         <v>744.7833333333333</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>748</v>
+      </c>
+      <c r="L11" t="n">
+        <v>748</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +857,29 @@
         <v>501.79</v>
       </c>
       <c r="G12" t="n">
+        <v>750.7333333333333</v>
+      </c>
+      <c r="H12" t="n">
         <v>744.9166666666666</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>748</v>
+      </c>
+      <c r="L12" t="n">
+        <v>748</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +903,27 @@
         <v>696.2311999999999</v>
       </c>
       <c r="G13" t="n">
+        <v>750.3333333333334</v>
+      </c>
+      <c r="H13" t="n">
         <v>745.0666666666667</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="L13" t="n">
+        <v>748</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +947,21 @@
         <v>663.8599</v>
       </c>
       <c r="G14" t="n">
+        <v>749.7333333333333</v>
+      </c>
+      <c r="H14" t="n">
         <v>745.2166666666667</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +985,25 @@
         <v>2004.9699</v>
       </c>
       <c r="G15" t="n">
+        <v>749.2666666666667</v>
+      </c>
+      <c r="H15" t="n">
         <v>745.4166666666666</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>745</v>
+      </c>
+      <c r="L15" t="n">
+        <v>745</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1027,29 @@
         <v>300</v>
       </c>
       <c r="G16" t="n">
+        <v>748.8</v>
+      </c>
+      <c r="H16" t="n">
         <v>745.65</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>747</v>
+      </c>
+      <c r="L16" t="n">
+        <v>745</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1073,27 @@
         <v>730.4191</v>
       </c>
       <c r="G17" t="n">
+        <v>748.2</v>
+      </c>
+      <c r="H17" t="n">
         <v>745.9</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="L17" t="n">
+        <v>745</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1117,29 @@
         <v>0.0001</v>
       </c>
       <c r="G18" t="n">
+        <v>747.8</v>
+      </c>
+      <c r="H18" t="n">
         <v>745.9666666666667</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>745</v>
+      </c>
+      <c r="L18" t="n">
+        <v>745</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1163,27 @@
         <v>999.9999</v>
       </c>
       <c r="G19" t="n">
+        <v>747.4</v>
+      </c>
+      <c r="H19" t="n">
         <v>746.1833333333333</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="L19" t="n">
+        <v>745</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1207,27 @@
         <v>0.0001</v>
       </c>
       <c r="G20" t="n">
+        <v>746.8</v>
+      </c>
+      <c r="H20" t="n">
         <v>746.2666666666667</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="L20" t="n">
+        <v>745</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1251,27 @@
         <v>44.6884</v>
       </c>
       <c r="G21" t="n">
+        <v>746.5333333333333</v>
+      </c>
+      <c r="H21" t="n">
         <v>746.4666666666667</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="L21" t="n">
+        <v>745</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1295,27 @@
         <v>345.72</v>
       </c>
       <c r="G22" t="n">
+        <v>746.6</v>
+      </c>
+      <c r="H22" t="n">
         <v>746.6166666666667</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="L22" t="n">
+        <v>745</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1339,27 @@
         <v>200.54</v>
       </c>
       <c r="G23" t="n">
+        <v>746.6666666666666</v>
+      </c>
+      <c r="H23" t="n">
         <v>746.7833333333333</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="L23" t="n">
+        <v>745</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1383,27 @@
         <v>3260.51</v>
       </c>
       <c r="G24" t="n">
+        <v>746.6666666666666</v>
+      </c>
+      <c r="H24" t="n">
         <v>746.9666666666667</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="L24" t="n">
+        <v>745</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,22 +1427,27 @@
         <v>518.85</v>
       </c>
       <c r="G25" t="n">
+        <v>746.4666666666667</v>
+      </c>
+      <c r="H25" t="n">
         <v>747.1333333333333</v>
       </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>744</v>
-      </c>
-      <c r="K25" t="n">
-        <v>744</v>
-      </c>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>745</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1292,24 +1471,27 @@
         <v>565.0934999999999</v>
       </c>
       <c r="G26" t="n">
+        <v>746.2666666666667</v>
+      </c>
+      <c r="H26" t="n">
         <v>747.2166666666667</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>744</v>
-      </c>
-      <c r="L26" t="inlineStr">
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>745</v>
+      </c>
+      <c r="M26" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M26" t="n">
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1333,24 +1515,27 @@
         <v>78.5855</v>
       </c>
       <c r="G27" t="n">
+        <v>746.0666666666667</v>
+      </c>
+      <c r="H27" t="n">
         <v>747.25</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>744</v>
-      </c>
-      <c r="L27" t="inlineStr">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>745</v>
+      </c>
+      <c r="M27" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M27" t="n">
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1374,18 +1559,27 @@
         <v>409.6215</v>
       </c>
       <c r="G28" t="n">
+        <v>745.8666666666667</v>
+      </c>
+      <c r="H28" t="n">
         <v>747.2666666666667</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="L28" t="n">
+        <v>745</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1409,18 +1603,27 @@
         <v>1498.9153</v>
       </c>
       <c r="G29" t="n">
+        <v>746.4</v>
+      </c>
+      <c r="H29" t="n">
         <v>747.4166666666666</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="L29" t="n">
+        <v>745</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1444,18 +1647,27 @@
         <v>245.9496</v>
       </c>
       <c r="G30" t="n">
+        <v>746.8666666666667</v>
+      </c>
+      <c r="H30" t="n">
         <v>747.6333333333333</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="L30" t="n">
+        <v>745</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1479,18 +1691,27 @@
         <v>4823.5644</v>
       </c>
       <c r="G31" t="n">
+        <v>747.7333333333333</v>
+      </c>
+      <c r="H31" t="n">
         <v>748.05</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="L31" t="n">
+        <v>745</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1514,18 +1735,27 @@
         <v>595.5013</v>
       </c>
       <c r="G32" t="n">
+        <v>748.7333333333333</v>
+      </c>
+      <c r="H32" t="n">
         <v>748.5166666666667</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="L32" t="n">
+        <v>745</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1549,18 +1779,27 @@
         <v>535.9512999999999</v>
       </c>
       <c r="G33" t="n">
+        <v>749.5333333333333</v>
+      </c>
+      <c r="H33" t="n">
         <v>749</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="L33" t="n">
+        <v>745</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1584,18 +1823,27 @@
         <v>1514.733</v>
       </c>
       <c r="G34" t="n">
+        <v>750.3333333333334</v>
+      </c>
+      <c r="H34" t="n">
         <v>749.3</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="L34" t="n">
+        <v>745</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1619,18 +1867,27 @@
         <v>4730.2256</v>
       </c>
       <c r="G35" t="n">
+        <v>751.2</v>
+      </c>
+      <c r="H35" t="n">
         <v>749.5833333333334</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="L35" t="n">
+        <v>745</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,18 +1911,27 @@
         <v>55.9</v>
       </c>
       <c r="G36" t="n">
+        <v>752.2666666666667</v>
+      </c>
+      <c r="H36" t="n">
         <v>749.95</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="L36" t="n">
+        <v>745</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1689,18 +1955,27 @@
         <v>100.4433</v>
       </c>
       <c r="G37" t="n">
+        <v>753.3333333333334</v>
+      </c>
+      <c r="H37" t="n">
         <v>750.1666666666666</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="L37" t="n">
+        <v>745</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1724,18 +1999,27 @@
         <v>554.6899</v>
       </c>
       <c r="G38" t="n">
+        <v>754.4</v>
+      </c>
+      <c r="H38" t="n">
         <v>750.5</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
-        <v>1</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="L38" t="n">
+        <v>745</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1759,18 +2043,27 @@
         <v>3394.8205</v>
       </c>
       <c r="G39" t="n">
+        <v>755.5333333333333</v>
+      </c>
+      <c r="H39" t="n">
         <v>750.85</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
-        <v>1</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="L39" t="n">
+        <v>745</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1794,18 +2087,27 @@
         <v>547.0121</v>
       </c>
       <c r="G40" t="n">
+        <v>756.7333333333333</v>
+      </c>
+      <c r="H40" t="n">
         <v>751</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
-        <v>1</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="L40" t="n">
+        <v>745</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1829,18 +2131,27 @@
         <v>4013.5686</v>
       </c>
       <c r="G41" t="n">
+        <v>757.8</v>
+      </c>
+      <c r="H41" t="n">
         <v>751.05</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
-        <v>1</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="L41" t="n">
+        <v>745</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1864,18 +2175,27 @@
         <v>402.9353</v>
       </c>
       <c r="G42" t="n">
+        <v>758.8666666666667</v>
+      </c>
+      <c r="H42" t="n">
         <v>751.0666666666667</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="L42" t="n">
+        <v>745</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1899,18 +2219,27 @@
         <v>270</v>
       </c>
       <c r="G43" t="n">
+        <v>759.9333333333333</v>
+      </c>
+      <c r="H43" t="n">
         <v>751.3833333333333</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="L43" t="n">
+        <v>745</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1934,18 +2263,27 @@
         <v>1456.2369</v>
       </c>
       <c r="G44" t="n">
+        <v>760.4</v>
+      </c>
+      <c r="H44" t="n">
         <v>751.45</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="L44" t="n">
+        <v>745</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1969,18 +2307,27 @@
         <v>701.087</v>
       </c>
       <c r="G45" t="n">
+        <v>761</v>
+      </c>
+      <c r="H45" t="n">
         <v>751.7333333333333</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="L45" t="n">
+        <v>745</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2004,18 +2351,27 @@
         <v>7971.3053</v>
       </c>
       <c r="G46" t="n">
+        <v>760.5333333333333</v>
+      </c>
+      <c r="H46" t="n">
         <v>751.4</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="L46" t="n">
+        <v>745</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2039,18 +2395,27 @@
         <v>2304.0706</v>
       </c>
       <c r="G47" t="n">
+        <v>759.4666666666667</v>
+      </c>
+      <c r="H47" t="n">
         <v>751.4</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="L47" t="n">
+        <v>745</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2074,18 +2439,27 @@
         <v>46.87</v>
       </c>
       <c r="G48" t="n">
+        <v>758.5333333333333</v>
+      </c>
+      <c r="H48" t="n">
         <v>751.45</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="L48" t="n">
+        <v>745</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2109,18 +2483,29 @@
         <v>350.23</v>
       </c>
       <c r="G49" t="n">
+        <v>757.6666666666666</v>
+      </c>
+      <c r="H49" t="n">
         <v>751.5</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>746</v>
+      </c>
+      <c r="L49" t="n">
+        <v>745</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2144,18 +2529,29 @@
         <v>563.7555</v>
       </c>
       <c r="G50" t="n">
+        <v>756.6666666666666</v>
+      </c>
+      <c r="H50" t="n">
         <v>751.6833333333333</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>747</v>
+      </c>
+      <c r="L50" t="n">
+        <v>745</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2179,18 +2575,29 @@
         <v>1725.0898</v>
       </c>
       <c r="G51" t="n">
+        <v>755.6</v>
+      </c>
+      <c r="H51" t="n">
         <v>751.75</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>746</v>
+      </c>
+      <c r="L51" t="n">
+        <v>745</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2214,18 +2621,29 @@
         <v>281.92</v>
       </c>
       <c r="G52" t="n">
+        <v>754.6</v>
+      </c>
+      <c r="H52" t="n">
         <v>751.75</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>746</v>
+      </c>
+      <c r="L52" t="n">
+        <v>745</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2249,22 +2667,29 @@
         <v>30.1</v>
       </c>
       <c r="G53" t="n">
+        <v>753.6</v>
+      </c>
+      <c r="H53" t="n">
         <v>751.6833333333333</v>
       </c>
-      <c r="H53" t="n">
-        <v>1</v>
-      </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>746</v>
+        <v>0</v>
       </c>
       <c r="K53" t="n">
         <v>746</v>
       </c>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="L53" t="n">
+        <v>745</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2288,24 +2713,29 @@
         <v>1.55</v>
       </c>
       <c r="G54" t="n">
+        <v>752.8666666666667</v>
+      </c>
+      <c r="H54" t="n">
         <v>751.6833333333333</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="n">
         <v>746</v>
       </c>
-      <c r="L54" t="inlineStr">
+      <c r="L54" t="n">
+        <v>745</v>
+      </c>
+      <c r="M54" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M54" t="n">
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2329,26 +2759,29 @@
         <v>3808.9145</v>
       </c>
       <c r="G55" t="n">
+        <v>751.9333333333333</v>
+      </c>
+      <c r="H55" t="n">
         <v>751.6333333333333</v>
       </c>
-      <c r="H55" t="n">
-        <v>1</v>
-      </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
         <v>750</v>
       </c>
-      <c r="K55" t="n">
-        <v>746</v>
-      </c>
-      <c r="L55" t="inlineStr">
+      <c r="L55" t="n">
+        <v>745</v>
+      </c>
+      <c r="M55" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M55" t="n">
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2372,18 +2805,29 @@
         <v>3706.1622</v>
       </c>
       <c r="G56" t="n">
+        <v>750.8666666666667</v>
+      </c>
+      <c r="H56" t="n">
         <v>751.5166666666667</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>749</v>
+      </c>
+      <c r="L56" t="n">
+        <v>745</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2407,18 +2851,29 @@
         <v>434.5774</v>
       </c>
       <c r="G57" t="n">
+        <v>750</v>
+      </c>
+      <c r="H57" t="n">
         <v>751.4166666666666</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>745</v>
+      </c>
+      <c r="L57" t="n">
+        <v>745</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2442,22 +2897,29 @@
         <v>1303.7322</v>
       </c>
       <c r="G58" t="n">
+        <v>749.2</v>
+      </c>
+      <c r="H58" t="n">
         <v>751.3333333333334</v>
       </c>
-      <c r="H58" t="n">
-        <v>1</v>
-      </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="n">
-        <v>748</v>
+        <v>0</v>
       </c>
       <c r="K58" t="n">
         <v>748</v>
       </c>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="L58" t="n">
+        <v>745</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2481,26 +2943,29 @@
         <v>1029.5838</v>
       </c>
       <c r="G59" t="n">
+        <v>749.3333333333334</v>
+      </c>
+      <c r="H59" t="n">
         <v>751.4666666666667</v>
       </c>
-      <c r="H59" t="n">
-        <v>1</v>
-      </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
         <v>749</v>
       </c>
-      <c r="K59" t="n">
-        <v>748</v>
-      </c>
-      <c r="L59" t="inlineStr">
+      <c r="L59" t="n">
+        <v>745</v>
+      </c>
+      <c r="M59" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M59" t="n">
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2524,24 +2989,27 @@
         <v>574</v>
       </c>
       <c r="G60" t="n">
+        <v>748.9333333333333</v>
+      </c>
+      <c r="H60" t="n">
         <v>751.5166666666667</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>748</v>
-      </c>
-      <c r="L60" t="inlineStr">
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>745</v>
+      </c>
+      <c r="M60" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M60" t="n">
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2565,18 +3033,27 @@
         <v>505.1616</v>
       </c>
       <c r="G61" t="n">
+        <v>749.4</v>
+      </c>
+      <c r="H61" t="n">
         <v>751.6166666666667</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="L61" t="n">
+        <v>745</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2600,18 +3077,27 @@
         <v>44.2845</v>
       </c>
       <c r="G62" t="n">
+        <v>750.4666666666667</v>
+      </c>
+      <c r="H62" t="n">
         <v>751.7166666666667</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="L62" t="n">
+        <v>745</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2635,18 +3121,27 @@
         <v>423.1</v>
       </c>
       <c r="G63" t="n">
+        <v>751.6</v>
+      </c>
+      <c r="H63" t="n">
         <v>751.8666666666667</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="L63" t="n">
+        <v>745</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2670,18 +3165,27 @@
         <v>60</v>
       </c>
       <c r="G64" t="n">
+        <v>752.8</v>
+      </c>
+      <c r="H64" t="n">
         <v>752.05</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="L64" t="n">
+        <v>745</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2705,18 +3209,27 @@
         <v>120</v>
       </c>
       <c r="G65" t="n">
+        <v>753</v>
+      </c>
+      <c r="H65" t="n">
         <v>751.9166666666666</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="L65" t="n">
+        <v>745</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2740,18 +3253,27 @@
         <v>1884.5509</v>
       </c>
       <c r="G66" t="n">
+        <v>753.4666666666667</v>
+      </c>
+      <c r="H66" t="n">
         <v>751.9666666666667</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="L66" t="n">
+        <v>745</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2775,18 +3297,27 @@
         <v>267.8006</v>
       </c>
       <c r="G67" t="n">
+        <v>754.0666666666667</v>
+      </c>
+      <c r="H67" t="n">
         <v>752.15</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="L67" t="n">
+        <v>745</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2810,18 +3341,27 @@
         <v>471.6453</v>
       </c>
       <c r="G68" t="n">
+        <v>754.6</v>
+      </c>
+      <c r="H68" t="n">
         <v>752.3166666666667</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="L68" t="n">
+        <v>745</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2845,18 +3385,27 @@
         <v>64.238</v>
       </c>
       <c r="G69" t="n">
+        <v>755.4666666666667</v>
+      </c>
+      <c r="H69" t="n">
         <v>752.6333333333333</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="L69" t="n">
+        <v>745</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2880,18 +3429,27 @@
         <v>695.4880000000001</v>
       </c>
       <c r="G70" t="n">
+        <v>756.4</v>
+      </c>
+      <c r="H70" t="n">
         <v>752.8833333333333</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="L70" t="n">
+        <v>745</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2915,18 +3473,27 @@
         <v>20.582</v>
       </c>
       <c r="G71" t="n">
+        <v>757.6</v>
+      </c>
+      <c r="H71" t="n">
         <v>753.1333333333333</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="L71" t="n">
+        <v>745</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2950,18 +3517,27 @@
         <v>55.8</v>
       </c>
       <c r="G72" t="n">
+        <v>758.2666666666667</v>
+      </c>
+      <c r="H72" t="n">
         <v>753.3</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="L72" t="n">
+        <v>745</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2985,18 +3561,27 @@
         <v>1843.9452</v>
       </c>
       <c r="G73" t="n">
+        <v>759.3333333333334</v>
+      </c>
+      <c r="H73" t="n">
         <v>753.5833333333334</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="L73" t="n">
+        <v>745</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3020,18 +3605,27 @@
         <v>120</v>
       </c>
       <c r="G74" t="n">
+        <v>759</v>
+      </c>
+      <c r="H74" t="n">
         <v>753.7833333333333</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="L74" t="n">
+        <v>745</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3055,18 +3649,27 @@
         <v>64.85084306095979</v>
       </c>
       <c r="G75" t="n">
+        <v>759.9333333333333</v>
+      </c>
+      <c r="H75" t="n">
         <v>754.1833333333333</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="L75" t="n">
+        <v>745</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3090,18 +3693,27 @@
         <v>970.1367</v>
       </c>
       <c r="G76" t="n">
+        <v>759.8666666666667</v>
+      </c>
+      <c r="H76" t="n">
         <v>754.3833333333333</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="L76" t="n">
+        <v>745</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3125,18 +3737,27 @@
         <v>770.3774</v>
       </c>
       <c r="G77" t="n">
+        <v>760.3333333333334</v>
+      </c>
+      <c r="H77" t="n">
         <v>754.75</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="L77" t="n">
+        <v>745</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3160,18 +3781,27 @@
         <v>325.2355376623377</v>
       </c>
       <c r="G78" t="n">
+        <v>760.8</v>
+      </c>
+      <c r="H78" t="n">
         <v>755.1166666666667</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="L78" t="n">
+        <v>745</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3195,18 +3825,27 @@
         <v>2126.7099</v>
       </c>
       <c r="G79" t="n">
+        <v>761.3333333333334</v>
+      </c>
+      <c r="H79" t="n">
         <v>755.5333333333333</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="L79" t="n">
+        <v>745</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3230,18 +3869,27 @@
         <v>610.7749</v>
       </c>
       <c r="G80" t="n">
+        <v>763.2</v>
+      </c>
+      <c r="H80" t="n">
         <v>756.0166666666667</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="L80" t="n">
+        <v>745</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3265,18 +3913,27 @@
         <v>199.56</v>
       </c>
       <c r="G81" t="n">
+        <v>764.7333333333333</v>
+      </c>
+      <c r="H81" t="n">
         <v>756.5166666666667</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="L81" t="n">
+        <v>745</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3300,18 +3957,27 @@
         <v>1973.0199</v>
       </c>
       <c r="G82" t="n">
+        <v>766.2</v>
+      </c>
+      <c r="H82" t="n">
         <v>757.05</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="L82" t="n">
+        <v>745</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3335,18 +4001,27 @@
         <v>2007.5853</v>
       </c>
       <c r="G83" t="n">
+        <v>767.6</v>
+      </c>
+      <c r="H83" t="n">
         <v>757.55</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="L83" t="n">
+        <v>745</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3370,18 +4045,27 @@
         <v>5.1746</v>
       </c>
       <c r="G84" t="n">
+        <v>768.4</v>
+      </c>
+      <c r="H84" t="n">
         <v>758.0666666666667</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="L84" t="n">
+        <v>745</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3405,18 +4089,27 @@
         <v>783.8939</v>
       </c>
       <c r="G85" t="n">
+        <v>769.3333333333334</v>
+      </c>
+      <c r="H85" t="n">
         <v>758.6</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="L85" t="n">
+        <v>745</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3440,18 +4133,27 @@
         <v>100.4638</v>
       </c>
       <c r="G86" t="n">
+        <v>770.0666666666667</v>
+      </c>
+      <c r="H86" t="n">
         <v>759.0833333333334</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="L86" t="n">
+        <v>745</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3475,18 +4177,27 @@
         <v>713.7411</v>
       </c>
       <c r="G87" t="n">
+        <v>771.4666666666667</v>
+      </c>
+      <c r="H87" t="n">
         <v>759.65</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="L87" t="n">
+        <v>745</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3510,18 +4221,27 @@
         <v>4231.294139581076</v>
       </c>
       <c r="G88" t="n">
+        <v>772.4666666666667</v>
+      </c>
+      <c r="H88" t="n">
         <v>760.2333333333333</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="L88" t="n">
+        <v>745</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3545,18 +4265,27 @@
         <v>297.2333</v>
       </c>
       <c r="G89" t="n">
+        <v>773.4666666666667</v>
+      </c>
+      <c r="H89" t="n">
         <v>760.55</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="L89" t="n">
+        <v>745</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3580,18 +4309,27 @@
         <v>876.4568732394366</v>
       </c>
       <c r="G90" t="n">
+        <v>774.4</v>
+      </c>
+      <c r="H90" t="n">
         <v>761.0666666666667</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="L90" t="n">
+        <v>745</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3615,18 +4353,27 @@
         <v>2000</v>
       </c>
       <c r="G91" t="n">
+        <v>776.1333333333333</v>
+      </c>
+      <c r="H91" t="n">
         <v>761.4833333333333</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="L91" t="n">
+        <v>745</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3650,18 +4397,27 @@
         <v>26</v>
       </c>
       <c r="G92" t="n">
+        <v>776.9333333333333</v>
+      </c>
+      <c r="H92" t="n">
         <v>761.8</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="L92" t="n">
+        <v>745</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3685,18 +4441,27 @@
         <v>1245.61</v>
       </c>
       <c r="G93" t="n">
+        <v>778</v>
+      </c>
+      <c r="H93" t="n">
         <v>762.2333333333333</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="L93" t="n">
+        <v>745</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3720,18 +4485,27 @@
         <v>2235.8498</v>
       </c>
       <c r="G94" t="n">
+        <v>779.1333333333333</v>
+      </c>
+      <c r="H94" t="n">
         <v>762.7333333333333</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="L94" t="n">
+        <v>745</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3755,18 +4529,27 @@
         <v>6105.81</v>
       </c>
       <c r="G95" t="n">
+        <v>779.9333333333333</v>
+      </c>
+      <c r="H95" t="n">
         <v>763.2</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
-        <v>1</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="L95" t="n">
+        <v>745</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3790,18 +4573,27 @@
         <v>315.7766202020202</v>
       </c>
       <c r="G96" t="n">
+        <v>781</v>
+      </c>
+      <c r="H96" t="n">
         <v>763.7</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="L96" t="n">
+        <v>745</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3825,18 +4617,27 @@
         <v>1476.8483</v>
       </c>
       <c r="G97" t="n">
+        <v>780.0666666666667</v>
+      </c>
+      <c r="H97" t="n">
         <v>763.7333333333333</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="L97" t="n">
+        <v>745</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3860,18 +4661,27 @@
         <v>120</v>
       </c>
       <c r="G98" t="n">
+        <v>779.2666666666667</v>
+      </c>
+      <c r="H98" t="n">
         <v>763.7666666666667</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="L98" t="n">
+        <v>745</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3895,18 +4705,27 @@
         <v>230.599</v>
       </c>
       <c r="G99" t="n">
+        <v>780.0666666666667</v>
+      </c>
+      <c r="H99" t="n">
         <v>764.2</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="L99" t="n">
+        <v>745</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3930,18 +4749,27 @@
         <v>161.11</v>
       </c>
       <c r="G100" t="n">
+        <v>779.2</v>
+      </c>
+      <c r="H100" t="n">
         <v>764.2166666666667</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="L100" t="n">
+        <v>745</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3965,18 +4793,27 @@
         <v>3.9695</v>
       </c>
       <c r="G101" t="n">
+        <v>780.0666666666667</v>
+      </c>
+      <c r="H101" t="n">
         <v>764.65</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="L101" t="n">
+        <v>745</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4000,18 +4837,27 @@
         <v>920.7066</v>
       </c>
       <c r="G102" t="n">
+        <v>779.4</v>
+      </c>
+      <c r="H102" t="n">
         <v>764.7833333333333</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="L102" t="n">
+        <v>745</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4035,18 +4881,27 @@
         <v>6</v>
       </c>
       <c r="G103" t="n">
+        <v>778.8666666666667</v>
+      </c>
+      <c r="H103" t="n">
         <v>764.9666666666667</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="L103" t="n">
+        <v>745</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4070,18 +4925,27 @@
         <v>863.6858</v>
       </c>
       <c r="G104" t="n">
+        <v>779.4666666666667</v>
+      </c>
+      <c r="H104" t="n">
         <v>765.3166666666667</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="L104" t="n">
+        <v>745</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4105,18 +4969,27 @@
         <v>234.7445</v>
       </c>
       <c r="G105" t="n">
+        <v>779.2</v>
+      </c>
+      <c r="H105" t="n">
         <v>765.6166666666667</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="L105" t="n">
+        <v>745</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4140,18 +5013,27 @@
         <v>1.9648</v>
       </c>
       <c r="G106" t="n">
+        <v>779</v>
+      </c>
+      <c r="H106" t="n">
         <v>766.1</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="L106" t="n">
+        <v>745</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4175,18 +5057,27 @@
         <v>420.3318</v>
       </c>
       <c r="G107" t="n">
+        <v>779.2</v>
+      </c>
+      <c r="H107" t="n">
         <v>766.7333333333333</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="L107" t="n">
+        <v>745</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4210,18 +5101,27 @@
         <v>364.5914</v>
       </c>
       <c r="G108" t="n">
+        <v>778.9333333333333</v>
+      </c>
+      <c r="H108" t="n">
         <v>767.3333333333334</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="L108" t="n">
+        <v>745</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4245,19 +5145,28 @@
         <v>676.4795</v>
       </c>
       <c r="G109" t="n">
+        <v>777.4</v>
+      </c>
+      <c r="H109" t="n">
         <v>767.6666666666666</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>1</v>
+      </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
+      <c r="L109" t="n">
+        <v>745</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
+        <v>1.024530201342282</v>
       </c>
     </row>
     <row r="110">
@@ -4280,18 +5189,21 @@
         <v>340</v>
       </c>
       <c r="G110" t="n">
+        <v>775.8</v>
+      </c>
+      <c r="H110" t="n">
         <v>767.9833333333333</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4315,18 +5227,21 @@
         <v>392.225</v>
       </c>
       <c r="G111" t="n">
+        <v>774</v>
+      </c>
+      <c r="H111" t="n">
         <v>768.3</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4350,18 +5265,21 @@
         <v>118.5663</v>
       </c>
       <c r="G112" t="n">
+        <v>774.1333333333333</v>
+      </c>
+      <c r="H112" t="n">
         <v>768.6166666666667</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4385,18 +5303,21 @@
         <v>240.165</v>
       </c>
       <c r="G113" t="n">
+        <v>774.7333333333333</v>
+      </c>
+      <c r="H113" t="n">
         <v>769.05</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4420,18 +5341,21 @@
         <v>1665.75</v>
       </c>
       <c r="G114" t="n">
+        <v>773.4</v>
+      </c>
+      <c r="H114" t="n">
         <v>769.3333333333334</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4455,18 +5379,21 @@
         <v>1.71</v>
       </c>
       <c r="G115" t="n">
+        <v>774.4</v>
+      </c>
+      <c r="H115" t="n">
         <v>769.8333333333334</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4490,18 +5417,21 @@
         <v>4.1</v>
       </c>
       <c r="G116" t="n">
+        <v>774</v>
+      </c>
+      <c r="H116" t="n">
         <v>770.4333333333333</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4525,18 +5455,21 @@
         <v>427.1978</v>
       </c>
       <c r="G117" t="n">
+        <v>774.5333333333333</v>
+      </c>
+      <c r="H117" t="n">
         <v>770.9166666666666</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4560,18 +5493,21 @@
         <v>236.1933</v>
       </c>
       <c r="G118" t="n">
+        <v>774.6</v>
+      </c>
+      <c r="H118" t="n">
         <v>771.3166666666667</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4595,18 +5531,21 @@
         <v>0.0001</v>
       </c>
       <c r="G119" t="n">
+        <v>774.0666666666667</v>
+      </c>
+      <c r="H119" t="n">
         <v>771.5</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4630,18 +5569,21 @@
         <v>522.8299</v>
       </c>
       <c r="G120" t="n">
+        <v>773.2</v>
+      </c>
+      <c r="H120" t="n">
         <v>771.6833333333333</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4665,18 +5607,21 @@
         <v>123.52</v>
       </c>
       <c r="G121" t="n">
+        <v>772.2666666666667</v>
+      </c>
+      <c r="H121" t="n">
         <v>771.8166666666667</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4700,18 +5645,21 @@
         <v>3260</v>
       </c>
       <c r="G122" t="n">
+        <v>771.4</v>
+      </c>
+      <c r="H122" t="n">
         <v>771.9666666666667</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4735,18 +5683,21 @@
         <v>678.0958000000001</v>
       </c>
       <c r="G123" t="n">
+        <v>770.7333333333333</v>
+      </c>
+      <c r="H123" t="n">
         <v>772.1166666666667</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4770,18 +5721,21 @@
         <v>195.567</v>
       </c>
       <c r="G124" t="n">
+        <v>770.7333333333333</v>
+      </c>
+      <c r="H124" t="n">
         <v>772.15</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4805,18 +5759,21 @@
         <v>197.3211</v>
       </c>
       <c r="G125" t="n">
+        <v>770.8</v>
+      </c>
+      <c r="H125" t="n">
         <v>772.4333333333333</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4840,18 +5797,21 @@
         <v>96</v>
       </c>
       <c r="G126" t="n">
+        <v>770.7333333333333</v>
+      </c>
+      <c r="H126" t="n">
         <v>772.6166666666667</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4875,18 +5835,21 @@
         <v>847.776</v>
       </c>
       <c r="G127" t="n">
+        <v>770.6</v>
+      </c>
+      <c r="H127" t="n">
         <v>772.75</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4910,18 +5873,21 @@
         <v>21.226</v>
       </c>
       <c r="G128" t="n">
+        <v>770</v>
+      </c>
+      <c r="H128" t="n">
         <v>772.9</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4945,18 +5911,21 @@
         <v>495.6673</v>
       </c>
       <c r="G129" t="n">
+        <v>769.7333333333333</v>
+      </c>
+      <c r="H129" t="n">
         <v>772.9</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4980,18 +5949,21 @@
         <v>45.2854</v>
       </c>
       <c r="G130" t="n">
+        <v>768.8</v>
+      </c>
+      <c r="H130" t="n">
         <v>772.9333333333333</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5015,18 +5987,21 @@
         <v>209.59</v>
       </c>
       <c r="G131" t="n">
+        <v>767.8</v>
+      </c>
+      <c r="H131" t="n">
         <v>772.9833333333333</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5050,18 +6025,21 @@
         <v>47.9363</v>
       </c>
       <c r="G132" t="n">
+        <v>766.8666666666667</v>
+      </c>
+      <c r="H132" t="n">
         <v>773.0666666666667</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5085,18 +6063,21 @@
         <v>60</v>
       </c>
       <c r="G133" t="n">
+        <v>766.1333333333333</v>
+      </c>
+      <c r="H133" t="n">
         <v>773.0166666666667</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5120,18 +6101,21 @@
         <v>587.3718</v>
       </c>
       <c r="G134" t="n">
+        <v>765.3333333333334</v>
+      </c>
+      <c r="H134" t="n">
         <v>773.0833333333334</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5155,18 +6139,21 @@
         <v>101.4327</v>
       </c>
       <c r="G135" t="n">
+        <v>765</v>
+      </c>
+      <c r="H135" t="n">
         <v>772.95</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5190,18 +6177,21 @@
         <v>26.517</v>
       </c>
       <c r="G136" t="n">
+        <v>764.6666666666666</v>
+      </c>
+      <c r="H136" t="n">
         <v>773.0166666666667</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5225,18 +6215,21 @@
         <v>242.3223</v>
       </c>
       <c r="G137" t="n">
+        <v>764.0666666666667</v>
+      </c>
+      <c r="H137" t="n">
         <v>772.9</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5260,18 +6253,21 @@
         <v>120</v>
       </c>
       <c r="G138" t="n">
+        <v>763.2666666666667</v>
+      </c>
+      <c r="H138" t="n">
         <v>772.7333333333333</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5295,18 +6291,21 @@
         <v>307.1</v>
       </c>
       <c r="G139" t="n">
+        <v>762.6666666666666</v>
+      </c>
+      <c r="H139" t="n">
         <v>772.4833333333333</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5330,18 +6329,21 @@
         <v>111.97</v>
       </c>
       <c r="G140" t="n">
+        <v>762.4</v>
+      </c>
+      <c r="H140" t="n">
         <v>772.2333333333333</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5365,18 +6367,21 @@
         <v>23.3654</v>
       </c>
       <c r="G141" t="n">
+        <v>762.2666666666667</v>
+      </c>
+      <c r="H141" t="n">
         <v>772</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5400,18 +6405,21 @@
         <v>473.1709</v>
       </c>
       <c r="G142" t="n">
+        <v>762.5333333333333</v>
+      </c>
+      <c r="H142" t="n">
         <v>771.8333333333334</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5435,18 +6443,21 @@
         <v>1393.616</v>
       </c>
       <c r="G143" t="n">
+        <v>762.8666666666667</v>
+      </c>
+      <c r="H143" t="n">
         <v>771.7166666666667</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5470,18 +6481,21 @@
         <v>119.2399</v>
       </c>
       <c r="G144" t="n">
+        <v>763.2</v>
+      </c>
+      <c r="H144" t="n">
         <v>771.6</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5505,18 +6519,21 @@
         <v>2199.1227</v>
       </c>
       <c r="G145" t="n">
+        <v>763.4</v>
+      </c>
+      <c r="H145" t="n">
         <v>771.45</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5540,18 +6557,21 @@
         <v>266.0521</v>
       </c>
       <c r="G146" t="n">
+        <v>763.2</v>
+      </c>
+      <c r="H146" t="n">
         <v>771.2666666666667</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5575,18 +6595,21 @@
         <v>107.8681</v>
       </c>
       <c r="G147" t="n">
+        <v>763.1333333333333</v>
+      </c>
+      <c r="H147" t="n">
         <v>770.9833333333333</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5610,18 +6633,21 @@
         <v>50</v>
       </c>
       <c r="G148" t="n">
+        <v>763</v>
+      </c>
+      <c r="H148" t="n">
         <v>770.65</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5645,18 +6671,21 @@
         <v>50</v>
       </c>
       <c r="G149" t="n">
+        <v>763.1333333333333</v>
+      </c>
+      <c r="H149" t="n">
         <v>770.5</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5680,18 +6709,21 @@
         <v>46.0521</v>
       </c>
       <c r="G150" t="n">
+        <v>763.3333333333334</v>
+      </c>
+      <c r="H150" t="n">
         <v>770.1833333333333</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5715,18 +6747,21 @@
         <v>2799.52</v>
       </c>
       <c r="G151" t="n">
+        <v>763.4666666666667</v>
+      </c>
+      <c r="H151" t="n">
         <v>769.85</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5750,18 +6785,21 @@
         <v>177.5653</v>
       </c>
       <c r="G152" t="n">
+        <v>763.8</v>
+      </c>
+      <c r="H152" t="n">
         <v>769.6166666666667</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5785,18 +6823,21 @@
         <v>1154.345</v>
       </c>
       <c r="G153" t="n">
+        <v>764.5333333333333</v>
+      </c>
+      <c r="H153" t="n">
         <v>769.3666666666667</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5820,18 +6861,21 @@
         <v>270</v>
       </c>
       <c r="G154" t="n">
+        <v>764.8</v>
+      </c>
+      <c r="H154" t="n">
         <v>768.9</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5855,18 +6899,21 @@
         <v>540</v>
       </c>
       <c r="G155" t="n">
+        <v>764.6</v>
+      </c>
+      <c r="H155" t="n">
         <v>768.4</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5890,18 +6937,21 @@
         <v>2791.5112</v>
       </c>
       <c r="G156" t="n">
+        <v>764</v>
+      </c>
+      <c r="H156" t="n">
         <v>767.75</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5925,18 +6975,21 @@
         <v>1899.9878</v>
       </c>
       <c r="G157" t="n">
+        <v>762.9333333333333</v>
+      </c>
+      <c r="H157" t="n">
         <v>767.55</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5960,18 +7013,21 @@
         <v>770.3005000000001</v>
       </c>
       <c r="G158" t="n">
+        <v>761.8</v>
+      </c>
+      <c r="H158" t="n">
         <v>767.35</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5995,18 +7051,21 @@
         <v>27.0607</v>
       </c>
       <c r="G159" t="n">
+        <v>761.0666666666667</v>
+      </c>
+      <c r="H159" t="n">
         <v>766.85</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6030,18 +7089,21 @@
         <v>1500.3005</v>
       </c>
       <c r="G160" t="n">
+        <v>760.2666666666667</v>
+      </c>
+      <c r="H160" t="n">
         <v>766.7166666666667</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6065,18 +7127,21 @@
         <v>500.0162</v>
       </c>
       <c r="G161" t="n">
+        <v>759.7333333333333</v>
+      </c>
+      <c r="H161" t="n">
         <v>766.1833333333333</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6100,18 +7165,21 @@
         <v>706.796</v>
       </c>
       <c r="G162" t="n">
+        <v>759.6</v>
+      </c>
+      <c r="H162" t="n">
         <v>766.0333333333333</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6135,18 +7203,21 @@
         <v>46.2262</v>
       </c>
       <c r="G163" t="n">
+        <v>759.4666666666667</v>
+      </c>
+      <c r="H163" t="n">
         <v>765.8</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6170,18 +7241,21 @@
         <v>1400</v>
       </c>
       <c r="G164" t="n">
+        <v>759</v>
+      </c>
+      <c r="H164" t="n">
         <v>765.3833333333333</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6205,18 +7279,21 @@
         <v>342.254</v>
       </c>
       <c r="G165" t="n">
+        <v>758.7333333333333</v>
+      </c>
+      <c r="H165" t="n">
         <v>765.0666666666667</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6240,18 +7317,21 @@
         <v>227.0262</v>
       </c>
       <c r="G166" t="n">
+        <v>758.4666666666667</v>
+      </c>
+      <c r="H166" t="n">
         <v>764.7166666666667</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6275,18 +7355,21 @@
         <v>285.9599</v>
       </c>
       <c r="G167" t="n">
+        <v>759</v>
+      </c>
+      <c r="H167" t="n">
         <v>764.5666666666667</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6310,18 +7393,21 @@
         <v>1188.2039</v>
       </c>
       <c r="G168" t="n">
+        <v>759.1333333333333</v>
+      </c>
+      <c r="H168" t="n">
         <v>764.4166666666666</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6345,18 +7431,21 @@
         <v>959.8868</v>
       </c>
       <c r="G169" t="n">
+        <v>760</v>
+      </c>
+      <c r="H169" t="n">
         <v>764.55</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6380,18 +7469,21 @@
         <v>385.1309</v>
       </c>
       <c r="G170" t="n">
+        <v>761.3333333333334</v>
+      </c>
+      <c r="H170" t="n">
         <v>764.7833333333333</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6415,18 +7507,21 @@
         <v>1647.2553</v>
       </c>
       <c r="G171" t="n">
+        <v>762.8666666666667</v>
+      </c>
+      <c r="H171" t="n">
         <v>764.9666666666667</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6450,18 +7545,21 @@
         <v>240.9783</v>
       </c>
       <c r="G172" t="n">
+        <v>764.4666666666667</v>
+      </c>
+      <c r="H172" t="n">
         <v>765.1333333333333</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6485,18 +7583,21 @@
         <v>1056.2391</v>
       </c>
       <c r="G173" t="n">
+        <v>766.3333333333334</v>
+      </c>
+      <c r="H173" t="n">
         <v>765.25</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6520,18 +7621,21 @@
         <v>1316.8692</v>
       </c>
       <c r="G174" t="n">
+        <v>767.4</v>
+      </c>
+      <c r="H174" t="n">
         <v>765.35</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6555,18 +7659,21 @@
         <v>46.586</v>
       </c>
       <c r="G175" t="n">
+        <v>768.6666666666666</v>
+      </c>
+      <c r="H175" t="n">
         <v>765.2833333333333</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6590,18 +7697,21 @@
         <v>2464.4593</v>
       </c>
       <c r="G176" t="n">
+        <v>769.6666666666666</v>
+      </c>
+      <c r="H176" t="n">
         <v>765.1</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6625,18 +7735,21 @@
         <v>318.9202</v>
       </c>
       <c r="G177" t="n">
+        <v>770.0666666666667</v>
+      </c>
+      <c r="H177" t="n">
         <v>764.9166666666666</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6660,18 +7773,21 @@
         <v>237.4831</v>
       </c>
       <c r="G178" t="n">
+        <v>770.2666666666667</v>
+      </c>
+      <c r="H178" t="n">
         <v>764.7166666666667</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6695,18 +7811,21 @@
         <v>55.9</v>
       </c>
       <c r="G179" t="n">
+        <v>770.6</v>
+      </c>
+      <c r="H179" t="n">
         <v>764.5166666666667</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6730,18 +7849,21 @@
         <v>2302.29</v>
       </c>
       <c r="G180" t="n">
+        <v>771.2666666666667</v>
+      </c>
+      <c r="H180" t="n">
         <v>764.5833333333334</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6765,18 +7887,21 @@
         <v>713.5964</v>
       </c>
       <c r="G181" t="n">
+        <v>772.2666666666667</v>
+      </c>
+      <c r="H181" t="n">
         <v>764.7166666666667</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6800,18 +7925,21 @@
         <v>279.2</v>
       </c>
       <c r="G182" t="n">
+        <v>772.6666666666666</v>
+      </c>
+      <c r="H182" t="n">
         <v>764.8833333333333</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6835,18 +7963,21 @@
         <v>657.4097</v>
       </c>
       <c r="G183" t="n">
+        <v>773.1333333333333</v>
+      </c>
+      <c r="H183" t="n">
         <v>765.0166666666667</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6870,18 +8001,21 @@
         <v>40.5069</v>
       </c>
       <c r="G184" t="n">
+        <v>773.4666666666667</v>
+      </c>
+      <c r="H184" t="n">
         <v>765.2333333333333</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6905,18 +8039,21 @@
         <v>1129.3751</v>
       </c>
       <c r="G185" t="n">
+        <v>773.2</v>
+      </c>
+      <c r="H185" t="n">
         <v>765.3833333333333</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6940,18 +8077,21 @@
         <v>68.13509999999999</v>
       </c>
       <c r="G186" t="n">
+        <v>773.4</v>
+      </c>
+      <c r="H186" t="n">
         <v>765.6333333333333</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6975,18 +8115,21 @@
         <v>561.3935</v>
       </c>
       <c r="G187" t="n">
+        <v>773.7333333333333</v>
+      </c>
+      <c r="H187" t="n">
         <v>765.9166666666666</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7010,18 +8153,21 @@
         <v>1338.8029</v>
       </c>
       <c r="G188" t="n">
+        <v>773.9333333333333</v>
+      </c>
+      <c r="H188" t="n">
         <v>766.2333333333333</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7045,18 +8191,21 @@
         <v>870.1721</v>
       </c>
       <c r="G189" t="n">
+        <v>774.6666666666666</v>
+      </c>
+      <c r="H189" t="n">
         <v>766.5833333333334</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7080,18 +8229,21 @@
         <v>60.1456</v>
       </c>
       <c r="G190" t="n">
+        <v>775.0666666666667</v>
+      </c>
+      <c r="H190" t="n">
         <v>766.85</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7115,18 +8267,21 @@
         <v>1090.1267</v>
       </c>
       <c r="G191" t="n">
+        <v>776.0666666666667</v>
+      </c>
+      <c r="H191" t="n">
         <v>767.1666666666666</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7150,18 +8305,21 @@
         <v>527.6526</v>
       </c>
       <c r="G192" t="n">
+        <v>777.8666666666667</v>
+      </c>
+      <c r="H192" t="n">
         <v>767.6666666666666</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7185,18 +8343,21 @@
         <v>115.7232</v>
       </c>
       <c r="G193" t="n">
+        <v>780.1333333333333</v>
+      </c>
+      <c r="H193" t="n">
         <v>768.2166666666667</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7220,18 +8381,21 @@
         <v>1258.0743</v>
       </c>
       <c r="G194" t="n">
+        <v>781.8</v>
+      </c>
+      <c r="H194" t="n">
         <v>768.6333333333333</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>1</v>
+      </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7255,18 +8419,21 @@
         <v>640.563</v>
       </c>
       <c r="G195" t="n">
+        <v>782.5333333333333</v>
+      </c>
+      <c r="H195" t="n">
         <v>768.9666666666667</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>1</v>
+      </c>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7290,18 +8457,21 @@
         <v>811.0762</v>
       </c>
       <c r="G196" t="n">
+        <v>783.3333333333334</v>
+      </c>
+      <c r="H196" t="n">
         <v>769.3833333333333</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>1</v>
+      </c>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7325,18 +8495,21 @@
         <v>800</v>
       </c>
       <c r="G197" t="n">
+        <v>783.5333333333333</v>
+      </c>
+      <c r="H197" t="n">
         <v>769.75</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>1</v>
+      </c>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7360,18 +8533,21 @@
         <v>644.2588</v>
       </c>
       <c r="G198" t="n">
+        <v>784.4666666666667</v>
+      </c>
+      <c r="H198" t="n">
         <v>770.3166666666667</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>1</v>
+      </c>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7395,18 +8571,21 @@
         <v>834.3469</v>
       </c>
       <c r="G199" t="n">
+        <v>785.3333333333334</v>
+      </c>
+      <c r="H199" t="n">
         <v>770.9</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>1</v>
+      </c>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7430,18 +8609,21 @@
         <v>316.3125</v>
       </c>
       <c r="G200" t="n">
+        <v>785.8</v>
+      </c>
+      <c r="H200" t="n">
         <v>771.2333333333333</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>1</v>
+      </c>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7465,18 +8647,21 @@
         <v>366.409</v>
       </c>
       <c r="G201" t="n">
+        <v>785.8</v>
+      </c>
+      <c r="H201" t="n">
         <v>771.5166666666667</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>1</v>
+      </c>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7500,18 +8685,21 @@
         <v>2.4645</v>
       </c>
       <c r="G202" t="n">
+        <v>786.4666666666667</v>
+      </c>
+      <c r="H202" t="n">
         <v>771.9</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>1</v>
+      </c>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7535,18 +8723,21 @@
         <v>38.2</v>
       </c>
       <c r="G203" t="n">
+        <v>786.9333333333333</v>
+      </c>
+      <c r="H203" t="n">
         <v>772.25</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>1</v>
+      </c>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7570,18 +8761,21 @@
         <v>2313.6302</v>
       </c>
       <c r="G204" t="n">
+        <v>787.1333333333333</v>
+      </c>
+      <c r="H204" t="n">
         <v>772.5666666666667</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>1</v>
+      </c>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7605,18 +8799,21 @@
         <v>743.3519</v>
       </c>
       <c r="G205" t="n">
+        <v>787.5333333333333</v>
+      </c>
+      <c r="H205" t="n">
         <v>772.8833333333333</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>1</v>
+      </c>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7640,18 +8837,21 @@
         <v>1727.2625</v>
       </c>
       <c r="G206" t="n">
+        <v>787.6666666666666</v>
+      </c>
+      <c r="H206" t="n">
         <v>773.2833333333333</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>1</v>
+      </c>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7675,18 +8875,21 @@
         <v>502.7934</v>
       </c>
       <c r="G207" t="n">
+        <v>787.2666666666667</v>
+      </c>
+      <c r="H207" t="n">
         <v>773.7</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>1</v>
+      </c>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7710,18 +8913,21 @@
         <v>1765.3811</v>
       </c>
       <c r="G208" t="n">
+        <v>786.2666666666667</v>
+      </c>
+      <c r="H208" t="n">
         <v>774.0333333333333</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>1</v>
+      </c>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7745,18 +8951,21 @@
         <v>9595.1036</v>
       </c>
       <c r="G209" t="n">
+        <v>785.6666666666666</v>
+      </c>
+      <c r="H209" t="n">
         <v>774.2666666666667</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>1</v>
+      </c>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7780,18 +8989,21 @@
         <v>285.8797</v>
       </c>
       <c r="G210" t="n">
+        <v>785.2666666666667</v>
+      </c>
+      <c r="H210" t="n">
         <v>774.45</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>1</v>
+      </c>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7815,18 +9027,21 @@
         <v>409.35</v>
       </c>
       <c r="G211" t="n">
+        <v>784.8</v>
+      </c>
+      <c r="H211" t="n">
         <v>774.7166666666667</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>1</v>
+      </c>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
+      <c r="M211" t="inlineStr"/>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7850,18 +9065,21 @@
         <v>46.1762</v>
       </c>
       <c r="G212" t="n">
+        <v>784.8666666666667</v>
+      </c>
+      <c r="H212" t="n">
         <v>775.0166666666667</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>1</v>
+      </c>
       <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
+      <c r="M212" t="inlineStr"/>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7885,18 +9103,21 @@
         <v>203.3438</v>
       </c>
       <c r="G213" t="n">
+        <v>783.6666666666666</v>
+      </c>
+      <c r="H213" t="n">
         <v>775.1</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>1</v>
+      </c>
       <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
+      <c r="M213" t="inlineStr"/>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7920,18 +9141,21 @@
         <v>6708.2873</v>
       </c>
       <c r="G214" t="n">
+        <v>782.4</v>
+      </c>
+      <c r="H214" t="n">
         <v>775.3</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>1</v>
+      </c>
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
+      <c r="M214" t="inlineStr"/>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7955,18 +9179,21 @@
         <v>3371.16</v>
       </c>
       <c r="G215" t="n">
+        <v>781.8666666666667</v>
+      </c>
+      <c r="H215" t="n">
         <v>775.55</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>1</v>
+      </c>
       <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
+      <c r="M215" t="inlineStr"/>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7990,18 +9217,21 @@
         <v>137</v>
       </c>
       <c r="G216" t="n">
+        <v>781.5333333333333</v>
+      </c>
+      <c r="H216" t="n">
         <v>775.9</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>1</v>
+      </c>
       <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
+      <c r="M216" t="inlineStr"/>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8025,18 +9255,21 @@
         <v>705.029</v>
       </c>
       <c r="G217" t="n">
+        <v>780.2</v>
+      </c>
+      <c r="H217" t="n">
         <v>776.2166666666667</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>1</v>
+      </c>
       <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
+      <c r="M217" t="inlineStr"/>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8060,18 +9293,21 @@
         <v>7956.2054</v>
       </c>
       <c r="G218" t="n">
+        <v>779.2</v>
+      </c>
+      <c r="H218" t="n">
         <v>776.6</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>1</v>
+      </c>
       <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
+      <c r="M218" t="inlineStr"/>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8095,18 +9331,21 @@
         <v>125</v>
       </c>
       <c r="G219" t="n">
+        <v>778.3333333333334</v>
+      </c>
+      <c r="H219" t="n">
         <v>776.8833333333333</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
       <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
+      <c r="M219" t="inlineStr"/>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8130,18 +9369,21 @@
         <v>1395</v>
       </c>
       <c r="G220" t="n">
+        <v>777.4666666666667</v>
+      </c>
+      <c r="H220" t="n">
         <v>777.1833333333333</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
       <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
+      <c r="M220" t="inlineStr"/>
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8165,18 +9407,21 @@
         <v>434.4</v>
       </c>
       <c r="G221" t="n">
+        <v>776.4666666666667</v>
+      </c>
+      <c r="H221" t="n">
         <v>777.4666666666667</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
       <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
+      <c r="M221" t="inlineStr"/>
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8200,18 +9445,21 @@
         <v>6433.4116</v>
       </c>
       <c r="G222" t="n">
+        <v>775.4</v>
+      </c>
+      <c r="H222" t="n">
         <v>777.65</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
       <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
+      <c r="M222" t="inlineStr"/>
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8235,18 +9483,21 @@
         <v>499.9999</v>
       </c>
       <c r="G223" t="n">
+        <v>775.0666666666667</v>
+      </c>
+      <c r="H223" t="n">
         <v>777.9333333333333</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
       <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
+      <c r="M223" t="inlineStr"/>
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8270,18 +9521,21 @@
         <v>240.2546</v>
       </c>
       <c r="G224" t="n">
+        <v>774.9333333333333</v>
+      </c>
+      <c r="H224" t="n">
         <v>778.25</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
       <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
+      <c r="M224" t="inlineStr"/>
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8305,18 +9559,21 @@
         <v>868.2926</v>
       </c>
       <c r="G225" t="n">
+        <v>774.8</v>
+      </c>
+      <c r="H225" t="n">
         <v>778.4666666666667</v>
       </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
       <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
+      <c r="M225" t="inlineStr"/>
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8340,18 +9597,21 @@
         <v>1</v>
       </c>
       <c r="G226" t="n">
+        <v>774.5333333333333</v>
+      </c>
+      <c r="H226" t="n">
         <v>778.7333333333333</v>
       </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
       <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
+      <c r="M226" t="inlineStr"/>
+      <c r="N226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8375,18 +9635,21 @@
         <v>144.12</v>
       </c>
       <c r="G227" t="n">
+        <v>774.2666666666667</v>
+      </c>
+      <c r="H227" t="n">
         <v>778.8333333333334</v>
       </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
       <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
+      <c r="M227" t="inlineStr"/>
+      <c r="N227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8410,18 +9673,21 @@
         <v>1477.9628</v>
       </c>
       <c r="G228" t="n">
+        <v>774.6666666666666</v>
+      </c>
+      <c r="H228" t="n">
         <v>778.9833333333333</v>
       </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
+      <c r="M228" t="inlineStr"/>
+      <c r="N228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8445,18 +9711,21 @@
         <v>1477.5193</v>
       </c>
       <c r="G229" t="n">
+        <v>774.9333333333333</v>
+      </c>
+      <c r="H229" t="n">
         <v>779.0333333333333</v>
       </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
       <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
+      <c r="M229" t="inlineStr"/>
+      <c r="N229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8480,18 +9749,21 @@
         <v>1077.13</v>
       </c>
       <c r="G230" t="n">
+        <v>775.4</v>
+      </c>
+      <c r="H230" t="n">
         <v>779.0666666666667</v>
       </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
       <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
+      <c r="M230" t="inlineStr"/>
+      <c r="N230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8515,18 +9787,21 @@
         <v>10459.6392</v>
       </c>
       <c r="G231" t="n">
+        <v>776.0666666666667</v>
+      </c>
+      <c r="H231" t="n">
         <v>779.2</v>
       </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
       <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
+      <c r="M231" t="inlineStr"/>
+      <c r="N231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8550,18 +9825,21 @@
         <v>453.5273</v>
       </c>
       <c r="G232" t="n">
+        <v>776.4666666666667</v>
+      </c>
+      <c r="H232" t="n">
         <v>779.2166666666667</v>
       </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
       <c r="K232" t="inlineStr"/>
       <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
+      <c r="M232" t="inlineStr"/>
+      <c r="N232" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8585,18 +9863,21 @@
         <v>535.8541</v>
       </c>
       <c r="G233" t="n">
+        <v>776.2</v>
+      </c>
+      <c r="H233" t="n">
         <v>779.0666666666667</v>
       </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
       <c r="K233" t="inlineStr"/>
       <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
+      <c r="M233" t="inlineStr"/>
+      <c r="N233" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8620,18 +9901,21 @@
         <v>22.1415</v>
       </c>
       <c r="G234" t="n">
+        <v>776.6</v>
+      </c>
+      <c r="H234" t="n">
         <v>779.1833333333333</v>
       </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
       <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
+      <c r="M234" t="inlineStr"/>
+      <c r="N234" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8655,18 +9939,21 @@
         <v>283.5513</v>
       </c>
       <c r="G235" t="n">
+        <v>776.8</v>
+      </c>
+      <c r="H235" t="n">
         <v>779.2166666666667</v>
       </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
       <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
+      <c r="M235" t="inlineStr"/>
+      <c r="N235" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8690,18 +9977,21 @@
         <v>1015.5375</v>
       </c>
       <c r="G236" t="n">
+        <v>777.0666666666667</v>
+      </c>
+      <c r="H236" t="n">
         <v>779.3166666666667</v>
       </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
       <c r="K236" t="inlineStr"/>
       <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
+      <c r="M236" t="inlineStr"/>
+      <c r="N236" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8725,18 +10015,21 @@
         <v>269</v>
       </c>
       <c r="G237" t="n">
+        <v>777.2666666666667</v>
+      </c>
+      <c r="H237" t="n">
         <v>779.45</v>
       </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
       <c r="K237" t="inlineStr"/>
       <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
+      <c r="M237" t="inlineStr"/>
+      <c r="N237" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8760,18 +10053,21 @@
         <v>61.0795</v>
       </c>
       <c r="G238" t="n">
+        <v>777.2666666666667</v>
+      </c>
+      <c r="H238" t="n">
         <v>779.6833333333333</v>
       </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
       <c r="K238" t="inlineStr"/>
       <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
+      <c r="M238" t="inlineStr"/>
+      <c r="N238" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8795,18 +10091,21 @@
         <v>90.1444</v>
       </c>
       <c r="G239" t="n">
+        <v>777.2</v>
+      </c>
+      <c r="H239" t="n">
         <v>779.9</v>
       </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
       <c r="K239" t="inlineStr"/>
       <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
+      <c r="M239" t="inlineStr"/>
+      <c r="N239" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8830,18 +10129,21 @@
         <v>44.9323</v>
       </c>
       <c r="G240" t="n">
+        <v>777</v>
+      </c>
+      <c r="H240" t="n">
         <v>779.9</v>
       </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
       <c r="K240" t="inlineStr"/>
       <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
+      <c r="M240" t="inlineStr"/>
+      <c r="N240" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8865,18 +10167,21 @@
         <v>50.8827</v>
       </c>
       <c r="G241" t="n">
+        <v>776.7333333333333</v>
+      </c>
+      <c r="H241" t="n">
         <v>779.85</v>
       </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
       <c r="K241" t="inlineStr"/>
       <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
+      <c r="M241" t="inlineStr"/>
+      <c r="N241" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8900,18 +10205,21 @@
         <v>251.5113</v>
       </c>
       <c r="G242" t="n">
+        <v>776.1333333333333</v>
+      </c>
+      <c r="H242" t="n">
         <v>779.7</v>
       </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
       <c r="K242" t="inlineStr"/>
       <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
+      <c r="M242" t="inlineStr"/>
+      <c r="N242" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8935,18 +10243,21 @@
         <v>234.8839</v>
       </c>
       <c r="G243" t="n">
+        <v>775.1333333333333</v>
+      </c>
+      <c r="H243" t="n">
         <v>779.4833333333333</v>
       </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
       <c r="K243" t="inlineStr"/>
       <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
+      <c r="M243" t="inlineStr"/>
+      <c r="N243" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8970,18 +10281,21 @@
         <v>44.364</v>
       </c>
       <c r="G244" t="n">
+        <v>774.2</v>
+      </c>
+      <c r="H244" t="n">
         <v>779.2166666666667</v>
       </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
       <c r="K244" t="inlineStr"/>
       <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
+      <c r="M244" t="inlineStr"/>
+      <c r="N244" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9005,18 +10319,21 @@
         <v>475.0893</v>
       </c>
       <c r="G245" t="n">
+        <v>773.0666666666667</v>
+      </c>
+      <c r="H245" t="n">
         <v>779.0333333333333</v>
       </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
       <c r="K245" t="inlineStr"/>
       <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
+      <c r="M245" t="inlineStr"/>
+      <c r="N245" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9040,18 +10357,21 @@
         <v>47</v>
       </c>
       <c r="G246" t="n">
+        <v>771.6666666666666</v>
+      </c>
+      <c r="H246" t="n">
         <v>778.7666666666667</v>
       </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
       <c r="K246" t="inlineStr"/>
       <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
+      <c r="M246" t="inlineStr"/>
+      <c r="N246" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9075,18 +10395,21 @@
         <v>74.20699999999999</v>
       </c>
       <c r="G247" t="n">
+        <v>770.7333333333333</v>
+      </c>
+      <c r="H247" t="n">
         <v>778.4666666666667</v>
       </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
       <c r="K247" t="inlineStr"/>
       <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
+      <c r="M247" t="inlineStr"/>
+      <c r="N247" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9110,18 +10433,21 @@
         <v>178.6805</v>
       </c>
       <c r="G248" t="n">
+        <v>770.2666666666667</v>
+      </c>
+      <c r="H248" t="n">
         <v>778.15</v>
       </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>0</v>
+      </c>
       <c r="K248" t="inlineStr"/>
       <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
+      <c r="M248" t="inlineStr"/>
+      <c r="N248" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9145,18 +10471,21 @@
         <v>451.8513</v>
       </c>
       <c r="G249" t="n">
+        <v>769.1333333333333</v>
+      </c>
+      <c r="H249" t="n">
         <v>777.8</v>
       </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
       <c r="K249" t="inlineStr"/>
       <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
+      <c r="M249" t="inlineStr"/>
+      <c r="N249" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9180,18 +10509,21 @@
         <v>22.079</v>
       </c>
       <c r="G250" t="n">
+        <v>768.2</v>
+      </c>
+      <c r="H250" t="n">
         <v>777.5</v>
       </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>0</v>
+      </c>
       <c r="K250" t="inlineStr"/>
       <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
+      <c r="M250" t="inlineStr"/>
+      <c r="N250" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9215,18 +10547,21 @@
         <v>1373.498</v>
       </c>
       <c r="G251" t="n">
+        <v>767.2</v>
+      </c>
+      <c r="H251" t="n">
         <v>777.1</v>
       </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
       <c r="K251" t="inlineStr"/>
       <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
+      <c r="M251" t="inlineStr"/>
+      <c r="N251" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9250,18 +10585,21 @@
         <v>1000</v>
       </c>
       <c r="G252" t="n">
+        <v>766.4</v>
+      </c>
+      <c r="H252" t="n">
         <v>776.5833333333334</v>
       </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
       <c r="K252" t="inlineStr"/>
       <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
+      <c r="M252" t="inlineStr"/>
+      <c r="N252" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9285,18 +10623,21 @@
         <v>1305.0399</v>
       </c>
       <c r="G253" t="n">
+        <v>765.4666666666667</v>
+      </c>
+      <c r="H253" t="n">
         <v>776.0166666666667</v>
       </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>0</v>
+      </c>
       <c r="K253" t="inlineStr"/>
       <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
+      <c r="M253" t="inlineStr"/>
+      <c r="N253" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9320,18 +10661,21 @@
         <v>432.1109</v>
       </c>
       <c r="G254" t="n">
+        <v>764.6666666666666</v>
+      </c>
+      <c r="H254" t="n">
         <v>775.6166666666667</v>
       </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>0</v>
+      </c>
       <c r="K254" t="inlineStr"/>
       <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
+      <c r="M254" t="inlineStr"/>
+      <c r="N254" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9355,18 +10699,21 @@
         <v>471.8692</v>
       </c>
       <c r="G255" t="n">
+        <v>763.9333333333333</v>
+      </c>
+      <c r="H255" t="n">
         <v>775.25</v>
       </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>0</v>
+      </c>
       <c r="K255" t="inlineStr"/>
       <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
+      <c r="M255" t="inlineStr"/>
+      <c r="N255" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9390,18 +10737,21 @@
         <v>131</v>
       </c>
       <c r="G256" t="n">
+        <v>763</v>
+      </c>
+      <c r="H256" t="n">
         <v>774.7666666666667</v>
       </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
       <c r="I256" t="n">
         <v>0</v>
       </c>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>0</v>
+      </c>
       <c r="K256" t="inlineStr"/>
       <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
+      <c r="M256" t="inlineStr"/>
+      <c r="N256" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9425,18 +10775,21 @@
         <v>14369.0286</v>
       </c>
       <c r="G257" t="n">
+        <v>761.3333333333334</v>
+      </c>
+      <c r="H257" t="n">
         <v>774.15</v>
       </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
       <c r="I257" t="n">
         <v>0</v>
       </c>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>0</v>
+      </c>
       <c r="K257" t="inlineStr"/>
       <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
+      <c r="M257" t="inlineStr"/>
+      <c r="N257" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9460,18 +10813,21 @@
         <v>4787.6075</v>
       </c>
       <c r="G258" t="n">
+        <v>759.2</v>
+      </c>
+      <c r="H258" t="n">
         <v>773.1666666666666</v>
       </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
       <c r="I258" t="n">
         <v>0</v>
       </c>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>0</v>
+      </c>
       <c r="K258" t="inlineStr"/>
       <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
+      <c r="M258" t="inlineStr"/>
+      <c r="N258" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9495,18 +10851,21 @@
         <v>15</v>
       </c>
       <c r="G259" t="n">
+        <v>757.6666666666666</v>
+      </c>
+      <c r="H259" t="n">
         <v>772.3</v>
       </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
       <c r="I259" t="n">
         <v>0</v>
       </c>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>0</v>
+      </c>
       <c r="K259" t="inlineStr"/>
       <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
+      <c r="M259" t="inlineStr"/>
+      <c r="N259" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9530,18 +10889,21 @@
         <v>376.6408</v>
       </c>
       <c r="G260" t="n">
+        <v>755.8</v>
+      </c>
+      <c r="H260" t="n">
         <v>771.5333333333333</v>
       </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
       <c r="I260" t="n">
         <v>0</v>
       </c>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>0</v>
+      </c>
       <c r="K260" t="inlineStr"/>
       <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
+      <c r="M260" t="inlineStr"/>
+      <c r="N260" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9565,18 +10927,21 @@
         <v>79.6097</v>
       </c>
       <c r="G261" t="n">
+        <v>754.0666666666667</v>
+      </c>
+      <c r="H261" t="n">
         <v>770.8333333333334</v>
       </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
       <c r="I261" t="n">
         <v>0</v>
       </c>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>0</v>
+      </c>
       <c r="K261" t="inlineStr"/>
       <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
+      <c r="M261" t="inlineStr"/>
+      <c r="N261" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9600,18 +10965,21 @@
         <v>624.4933</v>
       </c>
       <c r="G262" t="n">
+        <v>752.9333333333333</v>
+      </c>
+      <c r="H262" t="n">
         <v>770.0833333333334</v>
       </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>0</v>
+      </c>
       <c r="K262" t="inlineStr"/>
       <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
+      <c r="M262" t="inlineStr"/>
+      <c r="N262" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9635,18 +11003,21 @@
         <v>194.141</v>
       </c>
       <c r="G263" t="n">
+        <v>751.8</v>
+      </c>
+      <c r="H263" t="n">
         <v>769.3666666666667</v>
       </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>0</v>
+      </c>
       <c r="K263" t="inlineStr"/>
       <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
+      <c r="M263" t="inlineStr"/>
+      <c r="N263" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9670,18 +11041,21 @@
         <v>781.4598999999999</v>
       </c>
       <c r="G264" t="n">
+        <v>750.6666666666666</v>
+      </c>
+      <c r="H264" t="n">
         <v>768.6833333333333</v>
       </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
       <c r="I264" t="n">
         <v>0</v>
       </c>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>0</v>
+      </c>
       <c r="K264" t="inlineStr"/>
       <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
+      <c r="M264" t="inlineStr"/>
+      <c r="N264" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9705,18 +11079,21 @@
         <v>46.1432</v>
       </c>
       <c r="G265" t="n">
+        <v>749.6</v>
+      </c>
+      <c r="H265" t="n">
         <v>768.0166666666667</v>
       </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
       <c r="I265" t="n">
         <v>0</v>
       </c>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>0</v>
+      </c>
       <c r="K265" t="inlineStr"/>
       <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
+      <c r="M265" t="inlineStr"/>
+      <c r="N265" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9740,18 +11117,21 @@
         <v>1021.9253</v>
       </c>
       <c r="G266" t="n">
+        <v>748.6</v>
+      </c>
+      <c r="H266" t="n">
         <v>767.3333333333334</v>
       </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
       <c r="I266" t="n">
         <v>0</v>
       </c>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>0</v>
+      </c>
       <c r="K266" t="inlineStr"/>
       <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
+      <c r="M266" t="inlineStr"/>
+      <c r="N266" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9775,18 +11155,21 @@
         <v>240.2842</v>
       </c>
       <c r="G267" t="n">
+        <v>748</v>
+      </c>
+      <c r="H267" t="n">
         <v>766.7666666666667</v>
       </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
       <c r="I267" t="n">
         <v>0</v>
       </c>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>0</v>
+      </c>
       <c r="K267" t="inlineStr"/>
       <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
+      <c r="M267" t="inlineStr"/>
+      <c r="N267" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9810,18 +11193,21 @@
         <v>817.0796</v>
       </c>
       <c r="G268" t="n">
+        <v>747.3333333333334</v>
+      </c>
+      <c r="H268" t="n">
         <v>766.2833333333333</v>
       </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
       <c r="I268" t="n">
         <v>0</v>
       </c>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>0</v>
+      </c>
       <c r="K268" t="inlineStr"/>
       <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
+      <c r="M268" t="inlineStr"/>
+      <c r="N268" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9845,18 +11231,21 @@
         <v>1042.9355</v>
       </c>
       <c r="G269" t="n">
+        <v>746.2</v>
+      </c>
+      <c r="H269" t="n">
         <v>765.75</v>
       </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
       <c r="I269" t="n">
         <v>0</v>
       </c>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>0</v>
+      </c>
       <c r="K269" t="inlineStr"/>
       <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
+      <c r="M269" t="inlineStr"/>
+      <c r="N269" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9880,18 +11269,21 @@
         <v>528.1807</v>
       </c>
       <c r="G270" t="n">
+        <v>745.1333333333333</v>
+      </c>
+      <c r="H270" t="n">
         <v>765.2166666666667</v>
       </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
       <c r="I270" t="n">
         <v>0</v>
       </c>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>0</v>
+      </c>
       <c r="K270" t="inlineStr"/>
       <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
+      <c r="M270" t="inlineStr"/>
+      <c r="N270" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9915,18 +11307,21 @@
         <v>210.9</v>
       </c>
       <c r="G271" t="n">
+        <v>744.2666666666667</v>
+      </c>
+      <c r="H271" t="n">
         <v>764.6333333333333</v>
       </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
       <c r="I271" t="n">
         <v>0</v>
       </c>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>0</v>
+      </c>
       <c r="K271" t="inlineStr"/>
       <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
+      <c r="M271" t="inlineStr"/>
+      <c r="N271" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9950,18 +11345,21 @@
         <v>2547.1132</v>
       </c>
       <c r="G272" t="n">
+        <v>744.1333333333333</v>
+      </c>
+      <c r="H272" t="n">
         <v>763.9666666666667</v>
       </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
       <c r="I272" t="n">
         <v>0</v>
       </c>
-      <c r="J272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>0</v>
+      </c>
       <c r="K272" t="inlineStr"/>
       <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
+      <c r="M272" t="inlineStr"/>
+      <c r="N272" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9985,18 +11383,401 @@
         <v>42.9899</v>
       </c>
       <c r="G273" t="n">
+        <v>744.9333333333333</v>
+      </c>
+      <c r="H273" t="n">
         <v>763.4833333333333</v>
       </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
       <c r="I273" t="n">
         <v>0</v>
       </c>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>0</v>
+      </c>
       <c r="K273" t="inlineStr"/>
       <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
+      <c r="M273" t="inlineStr"/>
+      <c r="N273" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>746</v>
+      </c>
+      <c r="C274" t="n">
+        <v>746</v>
+      </c>
+      <c r="D274" t="n">
+        <v>746</v>
+      </c>
+      <c r="E274" t="n">
+        <v>745</v>
+      </c>
+      <c r="F274" t="n">
+        <v>1499.124</v>
+      </c>
+      <c r="G274" t="n">
+        <v>745.2666666666667</v>
+      </c>
+      <c r="H274" t="n">
+        <v>763.0166666666667</v>
+      </c>
+      <c r="I274" t="n">
+        <v>0</v>
+      </c>
+      <c r="J274" t="n">
+        <v>0</v>
+      </c>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="inlineStr"/>
+      <c r="M274" t="inlineStr"/>
+      <c r="N274" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>752</v>
+      </c>
+      <c r="C275" t="n">
+        <v>753</v>
+      </c>
+      <c r="D275" t="n">
+        <v>753</v>
+      </c>
+      <c r="E275" t="n">
+        <v>752</v>
+      </c>
+      <c r="F275" t="n">
+        <v>2069.9305</v>
+      </c>
+      <c r="G275" t="n">
+        <v>746.4</v>
+      </c>
+      <c r="H275" t="n">
+        <v>762.6666666666666</v>
+      </c>
+      <c r="I275" t="n">
+        <v>0</v>
+      </c>
+      <c r="J275" t="n">
+        <v>0</v>
+      </c>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="inlineStr"/>
+      <c r="M275" t="inlineStr"/>
+      <c r="N275" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>753</v>
+      </c>
+      <c r="C276" t="n">
+        <v>753</v>
+      </c>
+      <c r="D276" t="n">
+        <v>753</v>
+      </c>
+      <c r="E276" t="n">
+        <v>753</v>
+      </c>
+      <c r="F276" t="n">
+        <v>1147.2399</v>
+      </c>
+      <c r="G276" t="n">
+        <v>747.4666666666667</v>
+      </c>
+      <c r="H276" t="n">
+        <v>762.3166666666667</v>
+      </c>
+      <c r="I276" t="n">
+        <v>0</v>
+      </c>
+      <c r="J276" t="n">
+        <v>0</v>
+      </c>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="inlineStr"/>
+      <c r="M276" t="inlineStr"/>
+      <c r="N276" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>753</v>
+      </c>
+      <c r="C277" t="n">
+        <v>753</v>
+      </c>
+      <c r="D277" t="n">
+        <v>753</v>
+      </c>
+      <c r="E277" t="n">
+        <v>753</v>
+      </c>
+      <c r="F277" t="n">
+        <v>301.14</v>
+      </c>
+      <c r="G277" t="n">
+        <v>748</v>
+      </c>
+      <c r="H277" t="n">
+        <v>762.0333333333333</v>
+      </c>
+      <c r="I277" t="n">
+        <v>0</v>
+      </c>
+      <c r="J277" t="n">
+        <v>0</v>
+      </c>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="inlineStr"/>
+      <c r="M277" t="inlineStr"/>
+      <c r="N277" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>753</v>
+      </c>
+      <c r="C278" t="n">
+        <v>753</v>
+      </c>
+      <c r="D278" t="n">
+        <v>753</v>
+      </c>
+      <c r="E278" t="n">
+        <v>753</v>
+      </c>
+      <c r="F278" t="n">
+        <v>500</v>
+      </c>
+      <c r="G278" t="n">
+        <v>748.4666666666667</v>
+      </c>
+      <c r="H278" t="n">
+        <v>761.6833333333333</v>
+      </c>
+      <c r="I278" t="n">
+        <v>0</v>
+      </c>
+      <c r="J278" t="n">
+        <v>0</v>
+      </c>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="inlineStr"/>
+      <c r="M278" t="inlineStr"/>
+      <c r="N278" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>750</v>
+      </c>
+      <c r="C279" t="n">
+        <v>750</v>
+      </c>
+      <c r="D279" t="n">
+        <v>750</v>
+      </c>
+      <c r="E279" t="n">
+        <v>750</v>
+      </c>
+      <c r="F279" t="n">
+        <v>5</v>
+      </c>
+      <c r="G279" t="n">
+        <v>748.7333333333333</v>
+      </c>
+      <c r="H279" t="n">
+        <v>761.2833333333333</v>
+      </c>
+      <c r="I279" t="n">
+        <v>0</v>
+      </c>
+      <c r="J279" t="n">
+        <v>0</v>
+      </c>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="inlineStr"/>
+      <c r="M279" t="inlineStr"/>
+      <c r="N279" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="n">
+        <v>745</v>
+      </c>
+      <c r="C280" t="n">
+        <v>748</v>
+      </c>
+      <c r="D280" t="n">
+        <v>748</v>
+      </c>
+      <c r="E280" t="n">
+        <v>742</v>
+      </c>
+      <c r="F280" t="n">
+        <v>507.8401</v>
+      </c>
+      <c r="G280" t="n">
+        <v>748.8</v>
+      </c>
+      <c r="H280" t="n">
+        <v>760.85</v>
+      </c>
+      <c r="I280" t="n">
+        <v>0</v>
+      </c>
+      <c r="J280" t="n">
+        <v>0</v>
+      </c>
+      <c r="K280" t="inlineStr"/>
+      <c r="L280" t="inlineStr"/>
+      <c r="M280" t="inlineStr"/>
+      <c r="N280" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="n">
+        <v>749</v>
+      </c>
+      <c r="C281" t="n">
+        <v>749</v>
+      </c>
+      <c r="D281" t="n">
+        <v>749</v>
+      </c>
+      <c r="E281" t="n">
+        <v>749</v>
+      </c>
+      <c r="F281" t="n">
+        <v>44.7416</v>
+      </c>
+      <c r="G281" t="n">
+        <v>749</v>
+      </c>
+      <c r="H281" t="n">
+        <v>760.4666666666667</v>
+      </c>
+      <c r="I281" t="n">
+        <v>0</v>
+      </c>
+      <c r="J281" t="n">
+        <v>0</v>
+      </c>
+      <c r="K281" t="inlineStr"/>
+      <c r="L281" t="inlineStr"/>
+      <c r="M281" t="inlineStr"/>
+      <c r="N281" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="n">
+        <v>749</v>
+      </c>
+      <c r="C282" t="n">
+        <v>749</v>
+      </c>
+      <c r="D282" t="n">
+        <v>749</v>
+      </c>
+      <c r="E282" t="n">
+        <v>749</v>
+      </c>
+      <c r="F282" t="n">
+        <v>423</v>
+      </c>
+      <c r="G282" t="n">
+        <v>748.7333333333333</v>
+      </c>
+      <c r="H282" t="n">
+        <v>760.1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>0</v>
+      </c>
+      <c r="J282" t="n">
+        <v>0</v>
+      </c>
+      <c r="K282" t="inlineStr"/>
+      <c r="L282" t="inlineStr"/>
+      <c r="M282" t="inlineStr"/>
+      <c r="N282" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="n">
+        <v>749</v>
+      </c>
+      <c r="C283" t="n">
+        <v>749</v>
+      </c>
+      <c r="D283" t="n">
+        <v>749</v>
+      </c>
+      <c r="E283" t="n">
+        <v>749</v>
+      </c>
+      <c r="F283" t="n">
+        <v>141</v>
+      </c>
+      <c r="G283" t="n">
+        <v>748.6</v>
+      </c>
+      <c r="H283" t="n">
+        <v>759.6666666666666</v>
+      </c>
+      <c r="I283" t="n">
+        <v>0</v>
+      </c>
+      <c r="J283" t="n">
+        <v>0</v>
+      </c>
+      <c r="K283" t="inlineStr"/>
+      <c r="L283" t="inlineStr"/>
+      <c r="M283" t="inlineStr"/>
+      <c r="N283" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-26 BackTest WTC.xlsx
+++ b/BackTest/2019-10-26 BackTest WTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N341"/>
+  <dimension ref="A1:M341"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>27549.4794</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,19 @@
         <v>28549.4794</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
+        <v>735</v>
+      </c>
+      <c r="J3" t="n">
+        <v>735</v>
+      </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +521,23 @@
         <v>27687.4794</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+        <v>742</v>
+      </c>
+      <c r="J4" t="n">
+        <v>735</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +564,19 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>735</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +603,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +636,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +669,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +702,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,18 +733,19 @@
         <v>24135.9392</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
+        <v>740</v>
+      </c>
+      <c r="J10" t="n">
+        <v>740</v>
+      </c>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -780,18 +770,23 @@
         <v>23777.0292</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+        <v>740</v>
+      </c>
+      <c r="J11" t="n">
+        <v>740</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +811,23 @@
         <v>23643.8773</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+        <v>739</v>
+      </c>
+      <c r="J12" t="n">
+        <v>740</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -852,22 +852,23 @@
         <v>23439.9073</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>736</v>
       </c>
       <c r="J13" t="n">
-        <v>736</v>
-      </c>
-      <c r="K13" t="n">
-        <v>736</v>
-      </c>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+        <v>740</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -892,26 +893,21 @@
         <v>22739.656</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
-        <v>735</v>
-      </c>
-      <c r="K14" t="n">
-        <v>736</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+        <v>740</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -936,26 +932,21 @@
         <v>20197.86599999999</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
-        <v>733</v>
-      </c>
-      <c r="K15" t="n">
-        <v>736</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+        <v>740</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -980,26 +971,21 @@
         <v>20201.8108</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
-        <v>730</v>
-      </c>
-      <c r="K16" t="n">
-        <v>736</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+        <v>740</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1024,24 +1010,23 @@
         <v>18948.43179999999</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>736</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+        <v>744</v>
+      </c>
+      <c r="J17" t="n">
+        <v>740</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1066,24 +1051,23 @@
         <v>18952.39679999999</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>736</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+        <v>735</v>
+      </c>
+      <c r="J18" t="n">
+        <v>740</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1108,24 +1092,23 @@
         <v>18333.90299999999</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>736</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+        <v>743</v>
+      </c>
+      <c r="J19" t="n">
+        <v>740</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1150,24 +1133,23 @@
         <v>18469.14799999999</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>736</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+        <v>734</v>
+      </c>
+      <c r="J20" t="n">
+        <v>740</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1192,24 +1174,23 @@
         <v>18314.91799999999</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
         <v>736</v>
       </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>740</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1234,24 +1215,23 @@
         <v>18272.708</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>736</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+        <v>735</v>
+      </c>
+      <c r="J22" t="n">
+        <v>740</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1276,26 +1256,23 @@
         <v>18422.83419999999</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>733</v>
       </c>
       <c r="J23" t="n">
-        <v>733</v>
-      </c>
-      <c r="K23" t="n">
-        <v>736</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+        <v>740</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1320,24 +1297,23 @@
         <v>18556.18569999999</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>736</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+        <v>735</v>
+      </c>
+      <c r="J24" t="n">
+        <v>740</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1362,24 +1338,23 @@
         <v>18960.13086554508</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>736</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+        <v>740</v>
+      </c>
+      <c r="J25" t="n">
+        <v>740</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1404,24 +1379,23 @@
         <v>19008.09316554508</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>736</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+        <v>743</v>
+      </c>
+      <c r="J26" t="n">
+        <v>740</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1446,24 +1420,23 @@
         <v>19008.09316554508</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>736</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+        <v>744</v>
+      </c>
+      <c r="J27" t="n">
+        <v>740</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1490,22 +1463,19 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>736</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>740</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1532,22 +1502,19 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>736</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>740</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1574,22 +1541,19 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>736</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>740</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1614,24 +1578,23 @@
         <v>18869.40816554508</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>736</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+        <v>732</v>
+      </c>
+      <c r="J31" t="n">
+        <v>740</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1656,24 +1619,23 @@
         <v>19218.64696554508</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>736</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+        <v>731</v>
+      </c>
+      <c r="J32" t="n">
+        <v>740</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1698,24 +1660,23 @@
         <v>21219.19316554508</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>736</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+        <v>742</v>
+      </c>
+      <c r="J33" t="n">
+        <v>740</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1742,22 +1703,19 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>736</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>740</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1782,24 +1740,23 @@
         <v>21268.19316554508</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>736</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+        <v>740</v>
+      </c>
+      <c r="J35" t="n">
+        <v>740</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1826,22 +1783,19 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>736</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>740</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1868,22 +1822,19 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>736</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>740</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1910,22 +1861,19 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>736</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>740</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1952,22 +1900,19 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>736</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>740</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1994,22 +1939,19 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>736</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>740</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2036,22 +1978,19 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>736</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>740</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2078,22 +2017,19 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>736</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>740</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2120,22 +2056,19 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>736</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>740</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2162,22 +2095,19 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>736</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>740</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2204,22 +2134,19 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>736</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>740</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2246,22 +2173,19 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>736</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>740</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2288,22 +2212,19 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>736</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>740</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2330,22 +2251,19 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>736</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>740</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2372,22 +2290,19 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>736</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>740</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2414,22 +2329,19 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>736</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>740</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2456,22 +2368,19 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>736</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>740</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2498,22 +2407,19 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>736</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>740</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2540,22 +2446,19 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>736</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>740</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2582,22 +2485,19 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>736</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>740</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2624,22 +2524,19 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>736</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>740</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2666,22 +2563,19 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>736</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>740</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2708,22 +2602,19 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>736</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>740</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2750,22 +2641,19 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>736</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>740</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2792,22 +2680,19 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>736</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>740</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2834,22 +2719,19 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>736</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>740</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2876,22 +2758,19 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>736</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>740</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2918,22 +2797,19 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>736</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>740</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2960,22 +2836,19 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>736</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>740</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3002,22 +2875,19 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>736</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>740</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3044,22 +2914,19 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>736</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>740</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3086,22 +2953,19 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>736</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>740</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3128,22 +2992,19 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>736</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>740</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3170,22 +3031,19 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>736</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>740</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3212,22 +3070,19 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>736</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>740</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3254,22 +3109,19 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>736</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>740</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3296,22 +3148,19 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>736</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>740</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3338,22 +3187,19 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>736</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>740</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3380,22 +3226,19 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>736</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>740</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3422,22 +3265,19 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>736</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>740</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3464,22 +3304,19 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>736</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>740</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3504,24 +3341,23 @@
         <v>33699.15956554508</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>736</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+        <v>745</v>
+      </c>
+      <c r="J76" t="n">
+        <v>740</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3546,24 +3382,23 @@
         <v>33699.15956554508</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>736</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+        <v>748</v>
+      </c>
+      <c r="J77" t="n">
+        <v>740</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3588,24 +3423,23 @@
         <v>33699.15956554508</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>736</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+        <v>748</v>
+      </c>
+      <c r="J78" t="n">
+        <v>740</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3632,22 +3466,19 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>736</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>740</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3674,22 +3505,19 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>736</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>740</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3716,22 +3544,19 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>736</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>740</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3758,22 +3583,19 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>736</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>740</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3800,22 +3622,19 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>736</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>740</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3842,22 +3661,19 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>736</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>740</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3884,22 +3700,19 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>736</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>740</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3926,22 +3739,19 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>736</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>740</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3968,22 +3778,19 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>736</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>740</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4010,22 +3817,19 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>736</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>740</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4052,22 +3856,19 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>736</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>740</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4094,22 +3895,19 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>736</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>740</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4136,22 +3934,19 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>736</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>740</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4178,22 +3973,19 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>736</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>740</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4220,22 +4012,19 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>736</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>740</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4262,22 +4051,19 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>736</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>740</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4304,22 +4090,19 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>736</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>740</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4346,22 +4129,19 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>736</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>740</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4388,22 +4168,19 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>736</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>740</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4430,22 +4207,19 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>736</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>740</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4472,22 +4246,19 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>736</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>740</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4514,22 +4285,19 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>736</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>740</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4556,22 +4324,19 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>736</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>740</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4598,22 +4363,19 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>736</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>740</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4640,22 +4402,19 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>736</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>740</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4682,22 +4441,19 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>736</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>740</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4724,22 +4480,19 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>736</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>740</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4766,22 +4519,19 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>736</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>740</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4808,22 +4558,19 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>736</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>740</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4850,22 +4597,19 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>736</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>740</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4892,22 +4636,19 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>736</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>740</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4934,22 +4675,19 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>736</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>740</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4976,22 +4714,19 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>736</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>740</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -5018,22 +4753,19 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>736</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>740</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -5060,22 +4792,19 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>736</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>740</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -5102,22 +4831,19 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>736</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>740</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5142,24 +4868,23 @@
         <v>20078.51566554508</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>736</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+        <v>745</v>
+      </c>
+      <c r="J115" t="n">
+        <v>740</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5186,22 +4911,19 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>736</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>740</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5228,22 +4950,19 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>736</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>740</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5270,22 +4989,19 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>736</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>740</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5312,22 +5028,19 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>736</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>740</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5354,22 +5067,19 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>736</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>740</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5396,22 +5106,19 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>736</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>740</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5438,22 +5145,19 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>736</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>740</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5480,22 +5184,19 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>736</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>740</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5522,22 +5223,19 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>736</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>740</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5564,22 +5262,19 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>736</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>740</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5606,22 +5301,19 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>736</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>740</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5648,22 +5340,19 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>736</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>740</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5690,22 +5379,19 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>736</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>740</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5732,22 +5418,19 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>736</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>740</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5774,22 +5457,19 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>736</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>740</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5816,22 +5496,19 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>736</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>740</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5858,22 +5535,19 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>736</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>740</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5900,22 +5574,19 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>736</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>740</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5942,22 +5613,19 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>736</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>740</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5984,22 +5652,19 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>736</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>740</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -6026,22 +5691,19 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>736</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>740</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -6068,22 +5730,19 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>736</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>740</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -6110,22 +5769,19 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>736</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>740</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -6152,22 +5808,19 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>736</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>740</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -6194,22 +5847,19 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>736</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>740</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6234,24 +5884,21 @@
         <v>28812.86914626837</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>736</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>740</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1.042297297297297</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6276,24 +5923,15 @@
         <v>28812.86914626837</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>736</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6318,24 +5956,15 @@
         <v>29596.76304626837</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>736</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6360,24 +5989,15 @@
         <v>29496.29924626837</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>736</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6402,24 +6022,15 @@
         <v>30210.04034626837</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>736</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6444,24 +6055,15 @@
         <v>34441.33448584945</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>736</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6488,22 +6090,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>1</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>736</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1.043913043478261</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6528,18 +6121,15 @@
         <v>35020.55805908889</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6564,18 +6154,15 @@
         <v>35020.55805908889</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6600,18 +6187,15 @@
         <v>34994.55805908889</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6636,18 +6220,15 @@
         <v>36240.16805908889</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6672,18 +6253,15 @@
         <v>38476.01785908888</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6708,18 +6286,15 @@
         <v>32370.20785908888</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6744,18 +6319,15 @@
         <v>32685.9844792909</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6780,18 +6352,15 @@
         <v>31209.1361792909</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6818,16 +6387,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>1</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6854,16 +6420,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6890,16 +6453,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>1</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6926,16 +6486,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6962,16 +6519,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>1</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6998,16 +6552,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>1</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -7034,16 +6585,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -7070,16 +6618,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>1</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -7106,16 +6651,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>1</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -7142,16 +6684,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>1</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -7178,16 +6717,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -7214,16 +6750,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7250,16 +6783,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7286,16 +6816,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7322,16 +6849,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7358,16 +6882,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7394,16 +6915,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7430,16 +6948,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7466,16 +6981,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7502,16 +7014,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>1</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7538,16 +7047,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>1</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7574,16 +7080,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7610,16 +7113,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7646,16 +7146,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7682,16 +7179,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7718,16 +7212,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7754,16 +7245,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7790,16 +7278,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7826,16 +7311,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7862,16 +7344,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7898,16 +7377,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7934,16 +7410,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7970,16 +7443,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -8006,16 +7476,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -8042,16 +7509,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -8078,16 +7542,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -8114,16 +7575,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -8150,16 +7608,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -8186,16 +7641,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -8222,16 +7674,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8258,16 +7707,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8294,16 +7740,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8330,16 +7773,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8366,16 +7806,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8402,16 +7839,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8438,16 +7872,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8474,16 +7905,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8510,16 +7938,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8546,16 +7971,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8582,16 +8004,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8618,16 +8037,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8654,16 +8070,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8690,16 +8103,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8726,16 +8136,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8762,16 +8169,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8798,16 +8202,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8834,16 +8235,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8870,16 +8268,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8906,16 +8301,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8942,16 +8334,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8978,16 +8367,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -9014,16 +8400,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -9050,16 +8433,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -9086,16 +8466,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -9122,16 +8499,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -9158,16 +8532,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -9194,16 +8565,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -9230,16 +8598,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9266,16 +8631,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9302,16 +8664,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9338,16 +8697,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9374,16 +8730,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9410,16 +8763,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9446,16 +8796,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9482,16 +8829,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9518,16 +8862,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9554,16 +8895,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>1</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9590,16 +8928,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9626,16 +8961,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>1</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9662,16 +8994,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9698,16 +9027,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9734,16 +9060,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9770,16 +9093,13 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9806,16 +9126,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9842,16 +9159,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>1</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9878,16 +9192,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>1</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9914,16 +9225,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>1</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9950,16 +9258,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>1</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9986,16 +9291,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>1</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -10022,16 +9324,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -10056,18 +9355,15 @@
         <v>22530.11877929089</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -10094,16 +9390,13 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -10130,16 +9423,13 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>1</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -10166,16 +9456,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>1</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -10202,16 +9489,13 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>1</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -10236,18 +9520,15 @@
         <v>25073.64777929089</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -10272,18 +9553,15 @@
         <v>23815.57347929089</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -10308,18 +9586,15 @@
         <v>23175.01047929089</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -10344,18 +9619,15 @@
         <v>23986.08667929089</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -10380,18 +9652,15 @@
         <v>23186.08667929089</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -10418,16 +9687,13 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>1</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -10454,16 +9720,13 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>1</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -10488,18 +9751,15 @@
         <v>22679.68607929089</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10524,18 +9784,15 @@
         <v>22313.27707929089</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10560,18 +9817,15 @@
         <v>22315.74157929089</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10598,16 +9852,13 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>1</v>
-      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10632,18 +9883,15 @@
         <v>19963.91137929089</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10670,16 +9918,13 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>1</v>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10706,16 +9951,13 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>1</v>
-      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10742,16 +9984,13 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>1</v>
-      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10776,18 +10015,15 @@
         <v>18198.53027929089</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10814,16 +10050,13 @@
       <c r="H267" t="n">
         <v>0</v>
       </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10850,16 +10083,13 @@
       <c r="H268" t="n">
         <v>0</v>
       </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10886,16 +10116,13 @@
       <c r="H269" t="n">
         <v>0</v>
       </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10920,18 +10147,15 @@
         <v>9058.952879290888</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10956,18 +10180,15 @@
         <v>8855.609079290887</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10992,18 +10213,15 @@
         <v>2147.321779290887</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -11030,16 +10248,13 @@
       <c r="H273" t="n">
         <v>0</v>
       </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -11066,16 +10281,13 @@
       <c r="H274" t="n">
         <v>0</v>
       </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -11100,18 +10312,15 @@
         <v>1442.292779290887</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -11138,16 +10347,13 @@
       <c r="H276" t="n">
         <v>0</v>
       </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -11172,18 +10378,15 @@
         <v>9398.498179290887</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -11210,16 +10413,13 @@
       <c r="H278" t="n">
         <v>0</v>
       </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -11244,18 +10444,15 @@
         <v>8964.098179290888</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -11280,18 +10477,15 @@
         <v>2530.686579290887</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -11318,16 +10512,13 @@
       <c r="H281" t="n">
         <v>0</v>
       </c>
-      <c r="I281" t="n">
-        <v>0</v>
-      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -11354,16 +10545,13 @@
       <c r="H282" t="n">
         <v>0</v>
       </c>
-      <c r="I282" t="n">
-        <v>0</v>
-      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -11390,16 +10578,13 @@
       <c r="H283" t="n">
         <v>0</v>
       </c>
-      <c r="I283" t="n">
-        <v>0</v>
-      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -11426,16 +10611,13 @@
       <c r="H284" t="n">
         <v>0</v>
       </c>
-      <c r="I284" t="n">
-        <v>0</v>
-      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -11462,16 +10644,13 @@
       <c r="H285" t="n">
         <v>0</v>
       </c>
-      <c r="I285" t="n">
-        <v>0</v>
-      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -11498,16 +10677,13 @@
       <c r="H286" t="n">
         <v>0</v>
       </c>
-      <c r="I286" t="n">
-        <v>0</v>
-      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -11534,16 +10710,13 @@
       <c r="H287" t="n">
         <v>0</v>
       </c>
-      <c r="I287" t="n">
-        <v>0</v>
-      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -11570,16 +10743,13 @@
       <c r="H288" t="n">
         <v>0</v>
       </c>
-      <c r="I288" t="n">
-        <v>0</v>
-      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -11606,16 +10776,13 @@
       <c r="H289" t="n">
         <v>0</v>
       </c>
-      <c r="I289" t="n">
-        <v>0</v>
-      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -11642,16 +10809,13 @@
       <c r="H290" t="n">
         <v>0</v>
       </c>
-      <c r="I290" t="n">
-        <v>0</v>
-      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -11678,16 +10842,13 @@
       <c r="H291" t="n">
         <v>0</v>
       </c>
-      <c r="I291" t="n">
-        <v>0</v>
-      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -11714,16 +10875,13 @@
       <c r="H292" t="n">
         <v>0</v>
       </c>
-      <c r="I292" t="n">
-        <v>0</v>
-      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -11750,16 +10908,13 @@
       <c r="H293" t="n">
         <v>0</v>
       </c>
-      <c r="I293" t="n">
-        <v>0</v>
-      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -11786,16 +10941,13 @@
       <c r="H294" t="n">
         <v>0</v>
       </c>
-      <c r="I294" t="n">
-        <v>0</v>
-      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-      <c r="N294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11822,16 +10974,13 @@
       <c r="H295" t="n">
         <v>0</v>
       </c>
-      <c r="I295" t="n">
-        <v>0</v>
-      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-      <c r="N295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11858,16 +11007,13 @@
       <c r="H296" t="n">
         <v>0</v>
       </c>
-      <c r="I296" t="n">
-        <v>0</v>
-      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-      <c r="N296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11894,16 +11040,13 @@
       <c r="H297" t="n">
         <v>0</v>
       </c>
-      <c r="I297" t="n">
-        <v>0</v>
-      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-      <c r="N297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -11930,16 +11073,13 @@
       <c r="H298" t="n">
         <v>0</v>
       </c>
-      <c r="I298" t="n">
-        <v>0</v>
-      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
-      <c r="M298" t="n">
-        <v>1</v>
-      </c>
-      <c r="N298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -11966,16 +11106,13 @@
       <c r="H299" t="n">
         <v>0</v>
       </c>
-      <c r="I299" t="n">
-        <v>0</v>
-      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
-      <c r="M299" t="n">
-        <v>1</v>
-      </c>
-      <c r="N299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -12002,16 +11139,13 @@
       <c r="H300" t="n">
         <v>0</v>
       </c>
-      <c r="I300" t="n">
-        <v>0</v>
-      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
-      <c r="M300" t="n">
-        <v>1</v>
-      </c>
-      <c r="N300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -12038,16 +11172,13 @@
       <c r="H301" t="n">
         <v>0</v>
       </c>
-      <c r="I301" t="n">
-        <v>0</v>
-      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
-      <c r="M301" t="n">
-        <v>1</v>
-      </c>
-      <c r="N301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -12074,16 +11205,13 @@
       <c r="H302" t="n">
         <v>0</v>
       </c>
-      <c r="I302" t="n">
-        <v>0</v>
-      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
-      <c r="M302" t="n">
-        <v>1</v>
-      </c>
-      <c r="N302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -12110,16 +11238,13 @@
       <c r="H303" t="n">
         <v>0</v>
       </c>
-      <c r="I303" t="n">
-        <v>0</v>
-      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
-      <c r="M303" t="n">
-        <v>1</v>
-      </c>
-      <c r="N303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -12146,16 +11271,13 @@
       <c r="H304" t="n">
         <v>0</v>
       </c>
-      <c r="I304" t="n">
-        <v>0</v>
-      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
-      <c r="M304" t="n">
-        <v>1</v>
-      </c>
-      <c r="N304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -12182,16 +11304,13 @@
       <c r="H305" t="n">
         <v>0</v>
       </c>
-      <c r="I305" t="n">
-        <v>0</v>
-      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
-      <c r="M305" t="n">
-        <v>1</v>
-      </c>
-      <c r="N305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -12218,16 +11337,13 @@
       <c r="H306" t="n">
         <v>0</v>
       </c>
-      <c r="I306" t="n">
-        <v>0</v>
-      </c>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
-      <c r="M306" t="n">
-        <v>1</v>
-      </c>
-      <c r="N306" t="inlineStr"/>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -12254,16 +11370,13 @@
       <c r="H307" t="n">
         <v>0</v>
       </c>
-      <c r="I307" t="n">
-        <v>0</v>
-      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
-      <c r="M307" t="n">
-        <v>1</v>
-      </c>
-      <c r="N307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -12290,16 +11403,13 @@
       <c r="H308" t="n">
         <v>0</v>
       </c>
-      <c r="I308" t="n">
-        <v>0</v>
-      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
-      <c r="M308" t="n">
-        <v>1</v>
-      </c>
-      <c r="N308" t="inlineStr"/>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -12326,16 +11436,13 @@
       <c r="H309" t="n">
         <v>0</v>
       </c>
-      <c r="I309" t="n">
-        <v>0</v>
-      </c>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
-      <c r="M309" t="n">
-        <v>1</v>
-      </c>
-      <c r="N309" t="inlineStr"/>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -12362,16 +11469,13 @@
       <c r="H310" t="n">
         <v>0</v>
       </c>
-      <c r="I310" t="n">
-        <v>0</v>
-      </c>
+      <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
-      <c r="M310" t="n">
-        <v>1</v>
-      </c>
-      <c r="N310" t="inlineStr"/>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -12398,16 +11502,13 @@
       <c r="H311" t="n">
         <v>0</v>
       </c>
-      <c r="I311" t="n">
-        <v>0</v>
-      </c>
+      <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
-      <c r="M311" t="n">
-        <v>1</v>
-      </c>
-      <c r="N311" t="inlineStr"/>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -12434,16 +11535,13 @@
       <c r="H312" t="n">
         <v>0</v>
       </c>
-      <c r="I312" t="n">
-        <v>0</v>
-      </c>
+      <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
-      <c r="M312" t="n">
-        <v>1</v>
-      </c>
-      <c r="N312" t="inlineStr"/>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -12470,16 +11568,13 @@
       <c r="H313" t="n">
         <v>0</v>
       </c>
-      <c r="I313" t="n">
-        <v>0</v>
-      </c>
+      <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
-      <c r="M313" t="n">
-        <v>1</v>
-      </c>
-      <c r="N313" t="inlineStr"/>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -12506,16 +11601,13 @@
       <c r="H314" t="n">
         <v>0</v>
       </c>
-      <c r="I314" t="n">
-        <v>0</v>
-      </c>
+      <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
-      <c r="M314" t="n">
-        <v>1</v>
-      </c>
-      <c r="N314" t="inlineStr"/>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -12542,16 +11634,13 @@
       <c r="H315" t="n">
         <v>0</v>
       </c>
-      <c r="I315" t="n">
-        <v>0</v>
-      </c>
+      <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
-      <c r="M315" t="n">
-        <v>1</v>
-      </c>
-      <c r="N315" t="inlineStr"/>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -12578,16 +11667,13 @@
       <c r="H316" t="n">
         <v>0</v>
       </c>
-      <c r="I316" t="n">
-        <v>0</v>
-      </c>
+      <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
-      <c r="M316" t="n">
-        <v>1</v>
-      </c>
-      <c r="N316" t="inlineStr"/>
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -12614,16 +11700,13 @@
       <c r="H317" t="n">
         <v>0</v>
       </c>
-      <c r="I317" t="n">
-        <v>0</v>
-      </c>
+      <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
-      <c r="M317" t="n">
-        <v>1</v>
-      </c>
-      <c r="N317" t="inlineStr"/>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -12650,16 +11733,13 @@
       <c r="H318" t="n">
         <v>0</v>
       </c>
-      <c r="I318" t="n">
-        <v>0</v>
-      </c>
+      <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
-      <c r="M318" t="n">
-        <v>1</v>
-      </c>
-      <c r="N318" t="inlineStr"/>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -12686,16 +11766,13 @@
       <c r="H319" t="n">
         <v>0</v>
       </c>
-      <c r="I319" t="n">
-        <v>0</v>
-      </c>
+      <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
-      <c r="M319" t="n">
-        <v>1</v>
-      </c>
-      <c r="N319" t="inlineStr"/>
+      <c r="L319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -12720,22 +11797,15 @@
         <v>-8982.179820709109</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
-      </c>
-      <c r="I320" t="n">
-        <v>0</v>
-      </c>
-      <c r="J320" t="n">
-        <v>737</v>
-      </c>
-      <c r="K320" t="n">
-        <v>737</v>
-      </c>
-      <c r="L320" t="inlineStr"/>
-      <c r="M320" t="n">
-        <v>1</v>
-      </c>
-      <c r="N320" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I320" t="inlineStr"/>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -12760,26 +11830,15 @@
         <v>-8788.038820709109</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
-      </c>
-      <c r="I321" t="n">
-        <v>0</v>
-      </c>
-      <c r="J321" t="n">
-        <v>745</v>
-      </c>
-      <c r="K321" t="n">
-        <v>737</v>
-      </c>
-      <c r="L321" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M321" t="n">
-        <v>1</v>
-      </c>
-      <c r="N321" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -12804,26 +11863,15 @@
         <v>-8788.038820709109</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
-      </c>
-      <c r="I322" t="n">
-        <v>0</v>
-      </c>
-      <c r="J322" t="n">
-        <v>746</v>
-      </c>
-      <c r="K322" t="n">
-        <v>737</v>
-      </c>
-      <c r="L322" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M322" t="n">
-        <v>1</v>
-      </c>
-      <c r="N322" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I322" t="inlineStr"/>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -12848,22 +11896,15 @@
         <v>-8741.895620709109</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
-      </c>
-      <c r="I323" t="n">
-        <v>0</v>
-      </c>
-      <c r="J323" t="n">
-        <v>746</v>
-      </c>
-      <c r="K323" t="n">
-        <v>746</v>
-      </c>
-      <c r="L323" t="inlineStr"/>
-      <c r="M323" t="n">
-        <v>1</v>
-      </c>
-      <c r="N323" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
+      <c r="L323" t="n">
+        <v>1</v>
+      </c>
+      <c r="M323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -12888,26 +11929,15 @@
         <v>-9763.820920709109</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
-      </c>
-      <c r="I324" t="n">
-        <v>0</v>
-      </c>
-      <c r="J324" t="n">
-        <v>747</v>
-      </c>
-      <c r="K324" t="n">
-        <v>746</v>
-      </c>
-      <c r="L324" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M324" t="n">
-        <v>1</v>
-      </c>
-      <c r="N324" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -12932,26 +11962,15 @@
         <v>-9523.536720709109</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
-      </c>
-      <c r="I325" t="n">
-        <v>0</v>
-      </c>
-      <c r="J325" t="n">
-        <v>746</v>
-      </c>
-      <c r="K325" t="n">
-        <v>746</v>
-      </c>
-      <c r="L325" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M325" t="n">
-        <v>1</v>
-      </c>
-      <c r="N325" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
+      <c r="L325" t="n">
+        <v>1</v>
+      </c>
+      <c r="M325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -12976,26 +11995,15 @@
         <v>-10340.61632070911</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
-      </c>
-      <c r="I326" t="n">
-        <v>0</v>
-      </c>
-      <c r="J326" t="n">
-        <v>753</v>
-      </c>
-      <c r="K326" t="n">
-        <v>746</v>
-      </c>
-      <c r="L326" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M326" t="n">
-        <v>1</v>
-      </c>
-      <c r="N326" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
+      <c r="L326" t="n">
+        <v>1</v>
+      </c>
+      <c r="M326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -13020,26 +12028,15 @@
         <v>-11383.55182070911</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
-      </c>
-      <c r="I327" t="n">
-        <v>0</v>
-      </c>
-      <c r="J327" t="n">
-        <v>751</v>
-      </c>
-      <c r="K327" t="n">
-        <v>746</v>
-      </c>
-      <c r="L327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M327" t="n">
-        <v>1</v>
-      </c>
-      <c r="N327" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
+      <c r="L327" t="n">
+        <v>1</v>
+      </c>
+      <c r="M327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -13064,26 +12061,15 @@
         <v>-11383.55182070911</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
-      </c>
-      <c r="I328" t="n">
-        <v>0</v>
-      </c>
-      <c r="J328" t="n">
-        <v>745</v>
-      </c>
-      <c r="K328" t="n">
-        <v>746</v>
-      </c>
-      <c r="L328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M328" t="n">
-        <v>1</v>
-      </c>
-      <c r="N328" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I328" t="inlineStr"/>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
+      <c r="L328" t="n">
+        <v>1</v>
+      </c>
+      <c r="M328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -13108,26 +12094,15 @@
         <v>-11172.65182070911</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
-      </c>
-      <c r="I329" t="n">
-        <v>0</v>
-      </c>
-      <c r="J329" t="n">
-        <v>745</v>
-      </c>
-      <c r="K329" t="n">
-        <v>746</v>
-      </c>
-      <c r="L329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M329" t="n">
-        <v>1</v>
-      </c>
-      <c r="N329" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I329" t="inlineStr"/>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
+      <c r="L329" t="n">
+        <v>1</v>
+      </c>
+      <c r="M329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -13152,26 +12127,15 @@
         <v>-13719.76502070911</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
-      </c>
-      <c r="I330" t="n">
-        <v>0</v>
-      </c>
-      <c r="J330" t="n">
-        <v>746</v>
-      </c>
-      <c r="K330" t="n">
-        <v>746</v>
-      </c>
-      <c r="L330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M330" t="n">
-        <v>1</v>
-      </c>
-      <c r="N330" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I330" t="inlineStr"/>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
+      <c r="L330" t="n">
+        <v>1</v>
+      </c>
+      <c r="M330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -13196,26 +12160,15 @@
         <v>-13676.77512070911</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
-      </c>
-      <c r="I331" t="n">
-        <v>0</v>
-      </c>
-      <c r="J331" t="n">
-        <v>743</v>
-      </c>
-      <c r="K331" t="n">
-        <v>746</v>
-      </c>
-      <c r="L331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M331" t="n">
-        <v>1</v>
-      </c>
-      <c r="N331" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I331" t="inlineStr"/>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
+      <c r="L331" t="n">
+        <v>1</v>
+      </c>
+      <c r="M331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -13240,26 +12193,15 @@
         <v>-15175.89912070911</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
-      </c>
-      <c r="I332" t="n">
-        <v>0</v>
-      </c>
-      <c r="J332" t="n">
-        <v>747</v>
-      </c>
-      <c r="K332" t="n">
-        <v>746</v>
-      </c>
-      <c r="L332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M332" t="n">
-        <v>1</v>
-      </c>
-      <c r="N332" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I332" t="inlineStr"/>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
+      <c r="L332" t="n">
+        <v>1</v>
+      </c>
+      <c r="M332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -13284,26 +12226,15 @@
         <v>-13105.96862070911</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
-      </c>
-      <c r="I333" t="n">
-        <v>0</v>
-      </c>
-      <c r="J333" t="n">
-        <v>746</v>
-      </c>
-      <c r="K333" t="n">
-        <v>746</v>
-      </c>
-      <c r="L333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M333" t="n">
-        <v>1</v>
-      </c>
-      <c r="N333" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I333" t="inlineStr"/>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
+      <c r="L333" t="n">
+        <v>1</v>
+      </c>
+      <c r="M333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -13328,26 +12259,15 @@
         <v>-13105.96862070911</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
-      </c>
-      <c r="I334" t="n">
-        <v>0</v>
-      </c>
-      <c r="J334" t="n">
-        <v>753</v>
-      </c>
-      <c r="K334" t="n">
-        <v>746</v>
-      </c>
-      <c r="L334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M334" t="n">
-        <v>1</v>
-      </c>
-      <c r="N334" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I334" t="inlineStr"/>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
+      <c r="L334" t="n">
+        <v>1</v>
+      </c>
+      <c r="M334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -13374,22 +12294,13 @@
       <c r="H335" t="n">
         <v>0</v>
       </c>
-      <c r="I335" t="n">
-        <v>0</v>
-      </c>
+      <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="n">
-        <v>746</v>
-      </c>
-      <c r="L335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M335" t="n">
-        <v>1</v>
-      </c>
-      <c r="N335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
+      <c r="L335" t="n">
+        <v>1</v>
+      </c>
+      <c r="M335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -13416,22 +12327,13 @@
       <c r="H336" t="n">
         <v>0</v>
       </c>
-      <c r="I336" t="n">
-        <v>0</v>
-      </c>
+      <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="n">
-        <v>746</v>
-      </c>
-      <c r="L336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M336" t="n">
-        <v>1</v>
-      </c>
-      <c r="N336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
+      <c r="L336" t="n">
+        <v>1</v>
+      </c>
+      <c r="M336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -13458,22 +12360,13 @@
       <c r="H337" t="n">
         <v>0</v>
       </c>
-      <c r="I337" t="n">
-        <v>0</v>
-      </c>
+      <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="n">
-        <v>746</v>
-      </c>
-      <c r="L337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M337" t="n">
-        <v>1</v>
-      </c>
-      <c r="N337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
+      <c r="L337" t="n">
+        <v>1</v>
+      </c>
+      <c r="M337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -13500,22 +12393,13 @@
       <c r="H338" t="n">
         <v>0</v>
       </c>
-      <c r="I338" t="n">
-        <v>0</v>
-      </c>
+      <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="n">
-        <v>746</v>
-      </c>
-      <c r="L338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M338" t="n">
-        <v>1</v>
-      </c>
-      <c r="N338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
+      <c r="L338" t="n">
+        <v>1</v>
+      </c>
+      <c r="M338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -13542,22 +12426,13 @@
       <c r="H339" t="n">
         <v>0</v>
       </c>
-      <c r="I339" t="n">
-        <v>0</v>
-      </c>
+      <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="n">
-        <v>746</v>
-      </c>
-      <c r="L339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M339" t="n">
-        <v>1</v>
-      </c>
-      <c r="N339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
+      <c r="L339" t="n">
+        <v>1</v>
+      </c>
+      <c r="M339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -13584,22 +12459,13 @@
       <c r="H340" t="n">
         <v>0</v>
       </c>
-      <c r="I340" t="n">
-        <v>0</v>
-      </c>
+      <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="n">
-        <v>746</v>
-      </c>
-      <c r="L340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M340" t="n">
-        <v>1</v>
-      </c>
-      <c r="N340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
+      <c r="L340" t="n">
+        <v>1</v>
+      </c>
+      <c r="M340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -13626,24 +12492,15 @@
       <c r="H341" t="n">
         <v>0</v>
       </c>
-      <c r="I341" t="n">
-        <v>0</v>
-      </c>
+      <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="n">
-        <v>746</v>
-      </c>
-      <c r="L341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M341" t="n">
-        <v>1</v>
-      </c>
-      <c r="N341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
+      <c r="L341" t="n">
+        <v>1</v>
+      </c>
+      <c r="M341" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest WTC.xlsx
+++ b/BackTest/2019-10-26 BackTest WTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>27549.4794</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>28549.4794</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>735</v>
-      </c>
-      <c r="J3" t="n">
-        <v>735</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>27687.4794</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>742</v>
-      </c>
-      <c r="J4" t="n">
-        <v>735</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -565,14 +553,8 @@
         <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
-        <v>735</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -733,14 +715,10 @@
         <v>24135.9392</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>740</v>
-      </c>
-      <c r="J10" t="n">
-        <v>740</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
@@ -770,19 +748,11 @@
         <v>23777.0292</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>740</v>
-      </c>
-      <c r="J11" t="n">
-        <v>740</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -811,19 +781,11 @@
         <v>23643.8773</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>739</v>
-      </c>
-      <c r="J12" t="n">
-        <v>740</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -852,19 +814,11 @@
         <v>23439.9073</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>736</v>
-      </c>
-      <c r="J13" t="n">
-        <v>740</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -896,14 +850,8 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>740</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -935,14 +883,8 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>740</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -974,14 +916,8 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>740</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1010,19 +946,11 @@
         <v>18948.43179999999</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>744</v>
-      </c>
-      <c r="J17" t="n">
-        <v>740</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1051,19 +979,11 @@
         <v>18952.39679999999</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" t="n">
-        <v>735</v>
-      </c>
-      <c r="J18" t="n">
-        <v>740</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1092,19 +1012,11 @@
         <v>18333.90299999999</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" t="n">
-        <v>743</v>
-      </c>
-      <c r="J19" t="n">
-        <v>740</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1133,19 +1045,11 @@
         <v>18469.14799999999</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" t="n">
-        <v>734</v>
-      </c>
-      <c r="J20" t="n">
-        <v>740</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1174,19 +1078,11 @@
         <v>18314.91799999999</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" t="n">
-        <v>736</v>
-      </c>
-      <c r="J21" t="n">
-        <v>740</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1215,19 +1111,11 @@
         <v>18272.708</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
-      </c>
-      <c r="I22" t="n">
-        <v>735</v>
-      </c>
-      <c r="J22" t="n">
-        <v>740</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1256,19 +1144,11 @@
         <v>18422.83419999999</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" t="n">
-        <v>733</v>
-      </c>
-      <c r="J23" t="n">
-        <v>740</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1297,19 +1177,11 @@
         <v>18556.18569999999</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="n">
-        <v>735</v>
-      </c>
-      <c r="J24" t="n">
-        <v>740</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1338,19 +1210,11 @@
         <v>18960.13086554508</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" t="n">
-        <v>740</v>
-      </c>
-      <c r="J25" t="n">
-        <v>740</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1379,19 +1243,11 @@
         <v>19008.09316554508</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" t="n">
-        <v>743</v>
-      </c>
-      <c r="J26" t="n">
-        <v>740</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1420,19 +1276,11 @@
         <v>19008.09316554508</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" t="n">
-        <v>744</v>
-      </c>
-      <c r="J27" t="n">
-        <v>740</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1464,14 +1312,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>740</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1503,14 +1345,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>740</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1542,14 +1378,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>740</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1578,19 +1408,11 @@
         <v>18869.40816554508</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
-      </c>
-      <c r="I31" t="n">
-        <v>732</v>
-      </c>
-      <c r="J31" t="n">
-        <v>740</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1619,19 +1441,11 @@
         <v>19218.64696554508</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
-      </c>
-      <c r="I32" t="n">
-        <v>731</v>
-      </c>
-      <c r="J32" t="n">
-        <v>740</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1660,19 +1474,11 @@
         <v>21219.19316554508</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
-      </c>
-      <c r="I33" t="n">
-        <v>742</v>
-      </c>
-      <c r="J33" t="n">
-        <v>740</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1704,14 +1510,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>740</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1740,19 +1540,11 @@
         <v>21268.19316554508</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
-      </c>
-      <c r="I35" t="n">
-        <v>740</v>
-      </c>
-      <c r="J35" t="n">
-        <v>740</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1784,14 +1576,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>740</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1823,14 +1609,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>740</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1862,14 +1642,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>740</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1901,14 +1675,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>740</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1940,14 +1708,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>740</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1979,14 +1741,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>740</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2018,14 +1774,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>740</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2057,14 +1807,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>740</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2096,14 +1840,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>740</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2135,14 +1873,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>740</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2174,14 +1906,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>740</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2213,14 +1939,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>740</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2252,14 +1972,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>740</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2291,14 +2005,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>740</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2330,14 +2038,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>740</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2369,14 +2071,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>740</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2408,14 +2104,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>740</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2447,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>740</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2486,14 +2170,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>740</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2525,14 +2203,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>740</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2564,14 +2236,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>740</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2603,14 +2269,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>740</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2642,14 +2302,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>740</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2681,14 +2335,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>740</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2720,14 +2368,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>740</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2759,14 +2401,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>740</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2798,14 +2434,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>740</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2837,14 +2467,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>740</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2876,14 +2500,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>740</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2915,14 +2533,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>740</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2954,14 +2566,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>740</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2993,14 +2599,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>740</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3032,14 +2632,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>740</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3071,14 +2665,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>740</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3110,14 +2698,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>740</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3149,14 +2731,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>740</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3188,14 +2764,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>740</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3227,14 +2797,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>740</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3266,14 +2830,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>740</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3305,14 +2863,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>740</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3341,19 +2893,11 @@
         <v>33699.15956554508</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
-      </c>
-      <c r="I76" t="n">
-        <v>745</v>
-      </c>
-      <c r="J76" t="n">
-        <v>740</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3382,19 +2926,11 @@
         <v>33699.15956554508</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
-      </c>
-      <c r="I77" t="n">
-        <v>748</v>
-      </c>
-      <c r="J77" t="n">
-        <v>740</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3423,19 +2959,11 @@
         <v>33699.15956554508</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
-      </c>
-      <c r="I78" t="n">
-        <v>748</v>
-      </c>
-      <c r="J78" t="n">
-        <v>740</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3467,14 +2995,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>740</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3506,14 +3028,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>740</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3545,14 +3061,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>740</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3584,14 +3094,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>740</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3623,14 +3127,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>740</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3662,14 +3160,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>740</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3701,14 +3193,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>740</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3740,14 +3226,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>740</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3779,14 +3259,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>740</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3818,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>740</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3857,14 +3325,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>740</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3896,14 +3358,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>740</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3935,14 +3391,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>740</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3974,14 +3424,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>740</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4013,14 +3457,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>740</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4052,14 +3490,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>740</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4091,14 +3523,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>740</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4130,14 +3556,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>740</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4169,14 +3589,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>740</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4208,14 +3622,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>740</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4247,14 +3655,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>740</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4286,14 +3688,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>740</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4325,14 +3721,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>740</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4364,14 +3754,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>740</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4403,14 +3787,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>740</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4442,14 +3820,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>740</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4481,14 +3853,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>740</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4520,14 +3886,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>740</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4559,14 +3919,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>740</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4598,14 +3952,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>740</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4637,14 +3985,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>740</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4676,14 +4018,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>740</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4715,14 +4051,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>740</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4754,14 +4084,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>740</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4793,14 +4117,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>740</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4832,14 +4150,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>740</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4868,19 +4180,11 @@
         <v>20078.51566554508</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
-      </c>
-      <c r="I115" t="n">
-        <v>745</v>
-      </c>
-      <c r="J115" t="n">
-        <v>740</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4912,14 +4216,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>740</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4951,14 +4249,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>740</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4990,14 +4282,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>740</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5029,14 +4315,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>740</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5068,14 +4348,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>740</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5107,14 +4381,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>740</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5146,14 +4414,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>740</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5185,14 +4447,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>740</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5224,14 +4480,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>740</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5263,14 +4513,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>740</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5302,14 +4546,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>740</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5341,14 +4579,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>740</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5380,14 +4612,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>740</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5419,14 +4645,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>740</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5458,14 +4678,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>740</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5497,14 +4711,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>740</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5536,14 +4744,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>740</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5575,14 +4777,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>740</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5614,14 +4810,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>740</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5653,14 +4843,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>740</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5692,14 +4876,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>740</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5731,14 +4909,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>740</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5770,14 +4942,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>740</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5809,14 +4975,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>740</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5848,14 +5008,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>740</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5884,19 +5038,13 @@
         <v>28812.86914626837</v>
       </c>
       <c r="H141" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>740</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
-        <v>1.042297297297297</v>
+        <v>1</v>
       </c>
       <c r="M141" t="inlineStr"/>
     </row>
@@ -5923,7 +5071,7 @@
         <v>28812.86914626837</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5956,7 +5104,7 @@
         <v>29596.76304626837</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5989,7 +5137,7 @@
         <v>29496.29924626837</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -6022,7 +5170,7 @@
         <v>30210.04034626837</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -6055,7 +5203,7 @@
         <v>34441.33448584945</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -6121,7 +5269,7 @@
         <v>35020.55805908889</v>
       </c>
       <c r="H148" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -6154,7 +5302,7 @@
         <v>35020.55805908889</v>
       </c>
       <c r="H149" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -6187,7 +5335,7 @@
         <v>34994.55805908889</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -6220,7 +5368,7 @@
         <v>36240.16805908889</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -6253,7 +5401,7 @@
         <v>38476.01785908888</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -6286,7 +5434,7 @@
         <v>32370.20785908888</v>
       </c>
       <c r="H153" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -6319,7 +5467,7 @@
         <v>32685.9844792909</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -6352,7 +5500,7 @@
         <v>31209.1361792909</v>
       </c>
       <c r="H155" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6682,7 +5830,7 @@
         <v>31233.5386792909</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6715,7 +5863,7 @@
         <v>31233.5386792909</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6748,7 +5896,7 @@
         <v>30557.0591792909</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6781,7 +5929,7 @@
         <v>30217.0591792909</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6814,7 +5962,7 @@
         <v>30217.0591792909</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6847,7 +5995,7 @@
         <v>30217.0591792909</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6880,7 +6028,7 @@
         <v>30457.2241792909</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6913,7 +6061,7 @@
         <v>28791.4741792909</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6946,7 +6094,7 @@
         <v>28793.1841792909</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6979,7 +6127,7 @@
         <v>28797.28417929089</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -7012,7 +6160,7 @@
         <v>28370.08637929089</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -7045,7 +6193,7 @@
         <v>28133.89307929089</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -7078,7 +6226,7 @@
         <v>28133.89307929089</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -7111,7 +6259,7 @@
         <v>27611.06317929089</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -7144,7 +6292,7 @@
         <v>27611.06317929089</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -7177,7 +6325,7 @@
         <v>30871.06317929089</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -7210,7 +6358,7 @@
         <v>31549.15897929089</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -9355,7 +8503,7 @@
         <v>22530.11877929089</v>
       </c>
       <c r="H246" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9421,7 +8569,7 @@
         <v>23340.14527929089</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9454,7 +8602,7 @@
         <v>24430.27197929089</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9487,7 +8635,7 @@
         <v>24957.92457929089</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9520,7 +8668,7 @@
         <v>25073.64777929089</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9553,7 +8701,7 @@
         <v>23815.57347929089</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9586,7 +8734,7 @@
         <v>23175.01047929089</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9619,7 +8767,7 @@
         <v>23986.08667929089</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9652,7 +8800,7 @@
         <v>23186.08667929089</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9685,7 +8833,7 @@
         <v>23830.34547929089</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9718,7 +8866,7 @@
         <v>22995.99857929089</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9751,7 +8899,7 @@
         <v>22679.68607929089</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9784,7 +8932,7 @@
         <v>22313.27707929089</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9817,7 +8965,7 @@
         <v>22315.74157929089</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9850,7 +8998,7 @@
         <v>22277.54157929089</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9883,7 +9031,7 @@
         <v>19963.91137929089</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9916,7 +9064,7 @@
         <v>19963.91137929089</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9949,7 +9097,7 @@
         <v>19963.91137929089</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9982,7 +9130,7 @@
         <v>19963.91137929089</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -10015,7 +9163,7 @@
         <v>18198.53027929089</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -10048,7 +9196,7 @@
         <v>8603.426679290887</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -10081,7 +9229,7 @@
         <v>8603.426679290887</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10114,7 +9262,7 @@
         <v>9012.776679290888</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10147,7 +9295,7 @@
         <v>9058.952879290888</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10180,7 +9328,7 @@
         <v>8855.609079290887</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10213,7 +9361,7 @@
         <v>2147.321779290887</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10246,7 +9394,7 @@
         <v>2147.321779290887</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10279,7 +9427,7 @@
         <v>2147.321779290887</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10312,7 +9460,7 @@
         <v>1442.292779290887</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10345,7 +9493,7 @@
         <v>9398.498179290887</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10378,7 +9526,7 @@
         <v>9398.498179290887</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10411,7 +9559,7 @@
         <v>9398.498179290887</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10444,7 +9592,7 @@
         <v>8964.098179290888</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10477,7 +9625,7 @@
         <v>2530.686579290887</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10510,7 +9658,7 @@
         <v>3030.686479290887</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10543,7 +9691,7 @@
         <v>3030.686479290887</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10576,7 +9724,7 @@
         <v>3030.686479290887</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10609,7 +9757,7 @@
         <v>3031.686479290887</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10642,7 +9790,7 @@
         <v>3175.806479290887</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10675,7 +9823,7 @@
         <v>4653.769279290887</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10708,7 +9856,7 @@
         <v>3176.249979290887</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10741,7 +9889,7 @@
         <v>4253.379979290888</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10774,7 +9922,7 @@
         <v>14713.01917929089</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10807,7 +9955,7 @@
         <v>14259.49187929089</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10840,7 +9988,7 @@
         <v>13723.63777929089</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10873,7 +10021,7 @@
         <v>13745.77927929089</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10906,7 +10054,7 @@
         <v>13462.22797929089</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10939,7 +10087,7 @@
         <v>12446.69047929089</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10972,7 +10120,7 @@
         <v>12177.69047929089</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -11929,10 +11077,14 @@
         <v>-9763.820920709109</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I324" t="n">
+        <v>747</v>
+      </c>
+      <c r="J324" t="n">
+        <v>747</v>
+      </c>
       <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
@@ -11962,11 +11114,19 @@
         <v>-9523.536720709109</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I325" t="n">
+        <v>746</v>
+      </c>
+      <c r="J325" t="n">
+        <v>747</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11995,11 +11155,19 @@
         <v>-10340.61632070911</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I326" t="n">
+        <v>753</v>
+      </c>
+      <c r="J326" t="n">
+        <v>747</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12094,10 +11262,14 @@
         <v>-11172.65182070911</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I329" t="n">
+        <v>745</v>
+      </c>
+      <c r="J329" t="n">
+        <v>745</v>
+      </c>
       <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
@@ -12127,11 +11299,19 @@
         <v>-13719.76502070911</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I330" t="n">
+        <v>746</v>
+      </c>
+      <c r="J330" t="n">
+        <v>745</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12160,11 +11340,19 @@
         <v>-13676.77512070911</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I331" t="n">
+        <v>743</v>
+      </c>
+      <c r="J331" t="n">
+        <v>745</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12193,11 +11381,19 @@
         <v>-15175.89912070911</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
-      </c>
-      <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I332" t="n">
+        <v>747</v>
+      </c>
+      <c r="J332" t="n">
+        <v>745</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12226,11 +11422,19 @@
         <v>-13105.96862070911</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
-      </c>
-      <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I333" t="n">
+        <v>746</v>
+      </c>
+      <c r="J333" t="n">
+        <v>745</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12259,11 +11463,19 @@
         <v>-13105.96862070911</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
-      </c>
-      <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I334" t="n">
+        <v>753</v>
+      </c>
+      <c r="J334" t="n">
+        <v>745</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12292,11 +11504,19 @@
         <v>-13105.96862070911</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
-      </c>
-      <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I335" t="n">
+        <v>753</v>
+      </c>
+      <c r="J335" t="n">
+        <v>745</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12325,11 +11545,19 @@
         <v>-13105.96862070911</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I336" t="n">
+        <v>753</v>
+      </c>
+      <c r="J336" t="n">
+        <v>745</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12358,11 +11586,19 @@
         <v>-13110.96862070911</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I337" t="n">
+        <v>753</v>
+      </c>
+      <c r="J337" t="n">
+        <v>745</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12391,11 +11627,19 @@
         <v>-13618.80872070911</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I338" t="n">
+        <v>750</v>
+      </c>
+      <c r="J338" t="n">
+        <v>745</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12424,11 +11668,19 @@
         <v>-13574.06712070911</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I339" t="n">
+        <v>748</v>
+      </c>
+      <c r="J339" t="n">
+        <v>745</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12457,11 +11709,19 @@
         <v>-13574.06712070911</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I340" t="n">
+        <v>749</v>
+      </c>
+      <c r="J340" t="n">
+        <v>745</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12490,17 +11750,25 @@
         <v>-13574.06712070911</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I341" t="n">
+        <v>749</v>
+      </c>
+      <c r="J341" t="n">
+        <v>745</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
       <c r="M341" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest WTC.xlsx
+++ b/BackTest/2019-10-26 BackTest WTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2299,7 +2299,7 @@
         <v>33411.60996554507</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>33411.60996554507</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>33411.60996554507</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>33411.60996554507</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>33411.60996554507</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>33414.40996554508</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>32435.12336554508</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>32391.65876554508</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>32391.65876554508</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>32391.65876554508</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>33088.46856554508</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>33088.46856554508</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>33088.46856554508</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>33088.46856554508</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>32424.60866554508</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>34429.57856554508</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>34429.57856554508</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>33699.15946554508</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>33699.15956554508</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>33699.15956554508</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>33699.15956554508</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>33654.47116554508</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>33308.75116554508</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>33308.75116554508</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>30567.09116554508</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>41821.20276554508</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>42368.21486554508</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>38354.64626554508</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>38354.64626554508</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>38354.64626554508</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>36898.40936554508</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>37599.49636554508</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>22766.09326554507</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>22826.09326554507</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>22706.09326554507</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>24590.64416554507</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>24858.44476554507</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>24386.79946554507</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>24451.03746554507</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>24451.03746554507</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>24395.23746554507</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>26239.18266554507</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>26119.18266554507</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>26184.03350860603</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>25213.89680860603</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>25984.27420860603</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>29596.76304626837</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>29496.29924626837</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>30210.04034626837</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>34441.33448584945</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>34144.10118584945</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>35020.55805908889</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>35020.55805908889</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>36240.16805908889</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>31209.1361792909</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>31439.7351792909</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>31282.5946792909</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>30361.8880792909</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>31231.5738792909</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>31233.5386792909</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>31233.5386792909</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>31233.5386792909</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>30557.0591792909</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>30217.0591792909</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>30217.0591792909</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>30217.0591792909</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>30457.2241792909</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>28791.4741792909</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>28793.1841792909</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>28370.08637929089</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>28133.89307929089</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>28133.89307929089</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>27611.06317929089</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>31353.59197929089</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>30257.78027929089</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>30467.37027929089</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>18295.06957929089</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>17976.14937929089</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>17738.66627929089</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>23340.14527929089</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>24430.27197929089</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>24957.92457929089</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>25073.64777929089</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>23815.57347929089</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>23175.01047929089</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>23186.08667929089</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>23830.34547929089</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>22995.99857929089</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>22679.68607929089</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>22313.27707929089</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>22315.74157929089</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>22277.54157929089</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>19963.91137929089</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>19963.91137929089</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>19963.91137929089</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>19963.91137929089</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>18198.53027929089</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>8603.426679290887</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>8603.426679290887</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>9012.776679290888</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>9058.952879290888</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>8855.609079290887</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>2147.321779290887</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>2147.321779290887</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>2147.321779290887</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>1442.292779290887</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>9398.498179290887</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>9398.498179290887</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>9398.498179290887</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>8964.098179290888</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>2530.686579290887</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>3030.686479290887</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>3030.686479290887</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>3030.686479290887</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>3031.686479290887</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>3175.806479290887</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>4653.769279290887</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>3176.249979290887</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>4253.379979290888</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>14713.01917929089</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>14259.49187929089</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>13723.63777929089</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>13745.77927929089</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>13462.22797929089</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>12446.69047929089</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>12177.69047929089</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -11077,14 +11077,10 @@
         <v>-9763.820920709109</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
-      </c>
-      <c r="I324" t="n">
-        <v>747</v>
-      </c>
-      <c r="J324" t="n">
-        <v>747</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
+      <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
@@ -11114,19 +11110,11 @@
         <v>-9523.536720709109</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
-      </c>
-      <c r="I325" t="n">
-        <v>746</v>
-      </c>
-      <c r="J325" t="n">
-        <v>747</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11155,19 +11143,11 @@
         <v>-10340.61632070911</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
-      </c>
-      <c r="I326" t="n">
-        <v>753</v>
-      </c>
-      <c r="J326" t="n">
-        <v>747</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11262,14 +11242,10 @@
         <v>-11172.65182070911</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
-      </c>
-      <c r="I329" t="n">
-        <v>745</v>
-      </c>
-      <c r="J329" t="n">
-        <v>745</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I329" t="inlineStr"/>
+      <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
@@ -11299,101 +11275,83 @@
         <v>-13719.76502070911</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
-      </c>
-      <c r="I330" t="n">
+        <v>0</v>
+      </c>
+      <c r="I330" t="inlineStr"/>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
+      <c r="L330" t="n">
+        <v>1</v>
+      </c>
+      <c r="M330" t="inlineStr"/>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B331" t="n">
+        <v>747</v>
+      </c>
+      <c r="C331" t="n">
+        <v>747</v>
+      </c>
+      <c r="D331" t="n">
+        <v>747</v>
+      </c>
+      <c r="E331" t="n">
+        <v>747</v>
+      </c>
+      <c r="F331" t="n">
+        <v>42.9899</v>
+      </c>
+      <c r="G331" t="n">
+        <v>-13676.77512070911</v>
+      </c>
+      <c r="H331" t="n">
+        <v>0</v>
+      </c>
+      <c r="I331" t="inlineStr"/>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
+      <c r="L331" t="n">
+        <v>1</v>
+      </c>
+      <c r="M331" t="inlineStr"/>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B332" t="n">
         <v>746</v>
       </c>
-      <c r="J330" t="n">
+      <c r="C332" t="n">
+        <v>746</v>
+      </c>
+      <c r="D332" t="n">
+        <v>746</v>
+      </c>
+      <c r="E332" t="n">
         <v>745</v>
       </c>
-      <c r="K330" t="inlineStr">
+      <c r="F332" t="n">
+        <v>1499.124</v>
+      </c>
+      <c r="G332" t="n">
+        <v>-15175.89912070911</v>
+      </c>
+      <c r="H332" t="n">
+        <v>1</v>
+      </c>
+      <c r="I332" t="n">
+        <v>747</v>
+      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L330" t="n">
-        <v>1</v>
-      </c>
-      <c r="M330" t="inlineStr"/>
-    </row>
-    <row r="331">
-      <c r="A331" s="1" t="n">
-        <v>329</v>
-      </c>
-      <c r="B331" t="n">
-        <v>747</v>
-      </c>
-      <c r="C331" t="n">
-        <v>747</v>
-      </c>
-      <c r="D331" t="n">
-        <v>747</v>
-      </c>
-      <c r="E331" t="n">
-        <v>747</v>
-      </c>
-      <c r="F331" t="n">
-        <v>42.9899</v>
-      </c>
-      <c r="G331" t="n">
-        <v>-13676.77512070911</v>
-      </c>
-      <c r="H331" t="n">
-        <v>1</v>
-      </c>
-      <c r="I331" t="n">
-        <v>743</v>
-      </c>
-      <c r="J331" t="n">
-        <v>745</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L331" t="n">
-        <v>1</v>
-      </c>
-      <c r="M331" t="inlineStr"/>
-    </row>
-    <row r="332">
-      <c r="A332" s="1" t="n">
-        <v>330</v>
-      </c>
-      <c r="B332" t="n">
-        <v>746</v>
-      </c>
-      <c r="C332" t="n">
-        <v>746</v>
-      </c>
-      <c r="D332" t="n">
-        <v>746</v>
-      </c>
-      <c r="E332" t="n">
-        <v>745</v>
-      </c>
-      <c r="F332" t="n">
-        <v>1499.124</v>
-      </c>
-      <c r="G332" t="n">
-        <v>-15175.89912070911</v>
-      </c>
-      <c r="H332" t="n">
-        <v>1</v>
-      </c>
-      <c r="I332" t="n">
-        <v>747</v>
-      </c>
-      <c r="J332" t="n">
-        <v>745</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11427,9 +11385,7 @@
       <c r="I333" t="n">
         <v>746</v>
       </c>
-      <c r="J333" t="n">
-        <v>745</v>
-      </c>
+      <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11468,9 +11424,7 @@
       <c r="I334" t="n">
         <v>753</v>
       </c>
-      <c r="J334" t="n">
-        <v>745</v>
-      </c>
+      <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11504,14 +11458,10 @@
         <v>-13105.96862070911</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
-      </c>
-      <c r="I335" t="n">
-        <v>753</v>
-      </c>
-      <c r="J335" t="n">
-        <v>745</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I335" t="inlineStr"/>
+      <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11550,9 +11500,7 @@
       <c r="I336" t="n">
         <v>753</v>
       </c>
-      <c r="J336" t="n">
-        <v>745</v>
-      </c>
+      <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11586,14 +11534,10 @@
         <v>-13110.96862070911</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
-      </c>
-      <c r="I337" t="n">
-        <v>753</v>
-      </c>
-      <c r="J337" t="n">
-        <v>745</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I337" t="inlineStr"/>
+      <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11627,14 +11571,10 @@
         <v>-13618.80872070911</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
-      </c>
-      <c r="I338" t="n">
-        <v>750</v>
-      </c>
-      <c r="J338" t="n">
-        <v>745</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I338" t="inlineStr"/>
+      <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11673,9 +11613,7 @@
       <c r="I339" t="n">
         <v>748</v>
       </c>
-      <c r="J339" t="n">
-        <v>745</v>
-      </c>
+      <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11714,9 +11652,7 @@
       <c r="I340" t="n">
         <v>749</v>
       </c>
-      <c r="J340" t="n">
-        <v>745</v>
-      </c>
+      <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11755,9 +11691,7 @@
       <c r="I341" t="n">
         <v>749</v>
       </c>
-      <c r="J341" t="n">
-        <v>745</v>
-      </c>
+      <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11769,6 +11703,6 @@
       <c r="M341" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest WTC.xlsx
+++ b/BackTest/2019-10-26 BackTest WTC.xlsx
@@ -2299,7 +2299,7 @@
         <v>33411.60996554507</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>33411.60996554507</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>33411.60996554507</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>33411.60996554507</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>33411.60996554507</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>33414.40996554508</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>32435.12336554508</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>32391.65876554508</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>32391.65876554508</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>32391.65876554508</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>33088.46856554508</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>33088.46856554508</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>33088.46856554508</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>33088.46856554508</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>32424.60866554508</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>34429.57856554508</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>34429.57856554508</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>33699.15946554508</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>33699.15956554508</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>33699.15956554508</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>33699.15956554508</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>33654.47116554508</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>33308.75116554508</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>33308.75116554508</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>30567.09116554508</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>41821.20276554508</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>42368.21486554508</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>38354.64626554508</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>38354.64626554508</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>38354.64626554508</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>36898.40936554508</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>37599.49636554508</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>22766.09326554507</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>22826.09326554507</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>22706.09326554507</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>24590.64416554507</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>24858.44476554507</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>24386.79946554507</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>24451.03746554507</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>24451.03746554507</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>24395.23746554507</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>26239.18266554507</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>26119.18266554507</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>26184.03350860603</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>25213.89680860603</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>25984.27420860603</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>29596.76304626837</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>29496.29924626837</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>30210.04034626837</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>34441.33448584945</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>34144.10118584945</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>35020.55805908889</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>35020.55805908889</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>36240.16805908889</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>32370.20785908888</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>31209.1361792909</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>31439.7351792909</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>31282.5946792909</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>30361.8880792909</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>31231.5738792909</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>31233.5386792909</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>28797.28417929089</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>27611.06317929089</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>30871.06317929089</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>31549.15897929089</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>31353.59197929089</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>30257.78027929089</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>30467.37027929089</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>18295.06957929089</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>17976.14937929089</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>17738.66627929089</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>25073.64777929089</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>23815.57347929089</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>23175.01047929089</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>23986.08667929089</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>22995.99857929089</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>22679.68607929089</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>22313.27707929089</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>22315.74157929089</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>22277.54157929089</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>19963.91137929089</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>19963.91137929089</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>19963.91137929089</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>19963.91137929089</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>18198.53027929089</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -11110,10 +11110,14 @@
         <v>-9523.536720709109</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I325" t="n">
+        <v>746</v>
+      </c>
+      <c r="J325" t="n">
+        <v>746</v>
+      </c>
       <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
@@ -11146,8 +11150,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>746</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11179,8 +11189,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>746</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11209,11 +11225,19 @@
         <v>-11383.55182070911</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I328" t="n">
+        <v>745</v>
+      </c>
+      <c r="J328" t="n">
+        <v>746</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11242,11 +11266,19 @@
         <v>-11172.65182070911</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I329" t="n">
+        <v>745</v>
+      </c>
+      <c r="J329" t="n">
+        <v>746</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11275,11 +11307,19 @@
         <v>-13719.76502070911</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I330" t="n">
+        <v>746</v>
+      </c>
+      <c r="J330" t="n">
+        <v>746</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11311,8 +11351,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>746</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11346,10 +11392,12 @@
       <c r="I332" t="n">
         <v>747</v>
       </c>
-      <c r="J332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>746</v>
+      </c>
       <c r="K332" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L332" t="n">
@@ -11385,7 +11433,9 @@
       <c r="I333" t="n">
         <v>746</v>
       </c>
-      <c r="J333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>746</v>
+      </c>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11424,7 +11474,9 @@
       <c r="I334" t="n">
         <v>753</v>
       </c>
-      <c r="J334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>746</v>
+      </c>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11458,10 +11510,14 @@
         <v>-13105.96862070911</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
-      </c>
-      <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I335" t="n">
+        <v>753</v>
+      </c>
+      <c r="J335" t="n">
+        <v>746</v>
+      </c>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11500,7 +11556,9 @@
       <c r="I336" t="n">
         <v>753</v>
       </c>
-      <c r="J336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>746</v>
+      </c>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11534,10 +11592,14 @@
         <v>-13110.96862070911</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I337" t="n">
+        <v>753</v>
+      </c>
+      <c r="J337" t="n">
+        <v>746</v>
+      </c>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11571,10 +11633,14 @@
         <v>-13618.80872070911</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I338" t="n">
+        <v>750</v>
+      </c>
+      <c r="J338" t="n">
+        <v>746</v>
+      </c>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11613,7 +11679,9 @@
       <c r="I339" t="n">
         <v>748</v>
       </c>
-      <c r="J339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>746</v>
+      </c>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11652,7 +11720,9 @@
       <c r="I340" t="n">
         <v>749</v>
       </c>
-      <c r="J340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>746</v>
+      </c>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11691,7 +11761,9 @@
       <c r="I341" t="n">
         <v>749</v>
       </c>
-      <c r="J341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>746</v>
+      </c>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>

--- a/BackTest/2019-10-26 BackTest WTC.xlsx
+++ b/BackTest/2019-10-26 BackTest WTC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M341"/>
+  <dimension ref="A1:L341"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>298.9899</v>
       </c>
       <c r="G2" t="n">
-        <v>27549.4794</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>1000</v>
       </c>
       <c r="G3" t="n">
-        <v>28549.4794</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>862</v>
       </c>
       <c r="G4" t="n">
-        <v>27687.4794</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>27688.4794</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>275.8046</v>
       </c>
       <c r="G6" t="n">
-        <v>27412.6748</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>794.2156</v>
       </c>
       <c r="G7" t="n">
-        <v>28206.8904</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>72.83</v>
       </c>
       <c r="G8" t="n">
-        <v>28279.7204</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>4143.7812</v>
       </c>
       <c r="G9" t="n">
-        <v>24135.9392</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>0.0001</v>
       </c>
       <c r="G10" t="n">
-        <v>24135.9392</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>358.91</v>
       </c>
       <c r="G11" t="n">
-        <v>23777.0292</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>133.1519</v>
       </c>
       <c r="G12" t="n">
-        <v>23643.8773</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>203.97</v>
       </c>
       <c r="G13" t="n">
-        <v>23439.9073</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>700.2513</v>
       </c>
       <c r="G14" t="n">
-        <v>22739.656</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>2541.79</v>
       </c>
       <c r="G15" t="n">
-        <v>20197.86599999999</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>3.9448</v>
       </c>
       <c r="G16" t="n">
-        <v>20201.8108</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>1253.379</v>
       </c>
       <c r="G17" t="n">
-        <v>18948.43179999999</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>3.965</v>
       </c>
       <c r="G18" t="n">
-        <v>18952.39679999999</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>618.4938</v>
       </c>
       <c r="G19" t="n">
-        <v>18333.90299999999</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>135.245</v>
       </c>
       <c r="G20" t="n">
-        <v>18469.14799999999</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>154.23</v>
       </c>
       <c r="G21" t="n">
-        <v>18314.91799999999</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>42.21</v>
       </c>
       <c r="G22" t="n">
-        <v>18272.708</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>150.1262</v>
       </c>
       <c r="G23" t="n">
-        <v>18422.83419999999</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>133.3515</v>
       </c>
       <c r="G24" t="n">
-        <v>18556.18569999999</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>403.9451655450875</v>
       </c>
       <c r="G25" t="n">
-        <v>18960.13086554508</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>47.9623</v>
       </c>
       <c r="G26" t="n">
-        <v>19008.09316554508</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>232.0377</v>
       </c>
       <c r="G27" t="n">
-        <v>19008.09316554508</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>135.685</v>
       </c>
       <c r="G28" t="n">
-        <v>18872.40816554508</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>18871.40816554508</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,19 @@
         <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>18870.40816554508</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>735</v>
+      </c>
+      <c r="I30" t="n">
+        <v>735</v>
+      </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1317,23 @@
         <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>18869.40816554508</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>732</v>
+      </c>
+      <c r="I31" t="n">
+        <v>735</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1355,23 @@
         <v>349.2388</v>
       </c>
       <c r="G32" t="n">
-        <v>19218.64696554508</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>731</v>
+      </c>
+      <c r="I32" t="n">
+        <v>735</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1393,19 @@
         <v>2000.5462</v>
       </c>
       <c r="G33" t="n">
-        <v>21219.19316554508</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>742</v>
+      </c>
+      <c r="I33" t="n">
+        <v>742</v>
+      </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1427,21 @@
         <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>21218.19316554508</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>742</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1463,21 @@
         <v>50</v>
       </c>
       <c r="G35" t="n">
-        <v>21268.19316554508</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>742</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1499,15 @@
         <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>21267.19316554508</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1529,15 @@
         <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>21266.19316554508</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1559,15 @@
         <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>21267.19316554508</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1589,15 @@
         <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>21268.19316554508</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1619,15 @@
         <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>21269.19316554508</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1649,15 @@
         <v>465.04</v>
       </c>
       <c r="G41" t="n">
-        <v>20804.15316554508</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1679,15 @@
         <v>832.4351</v>
       </c>
       <c r="G42" t="n">
-        <v>21636.58826554508</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1709,15 @@
         <v>1265.6698</v>
       </c>
       <c r="G43" t="n">
-        <v>20370.91846554508</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1739,15 @@
         <v>1</v>
       </c>
       <c r="G44" t="n">
-        <v>20371.91846554508</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1769,15 @@
         <v>127.86</v>
       </c>
       <c r="G45" t="n">
-        <v>20244.05846554508</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1799,15 @@
         <v>99.2099</v>
       </c>
       <c r="G46" t="n">
-        <v>20144.84856554507</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1829,15 @@
         <v>338.9736</v>
       </c>
       <c r="G47" t="n">
-        <v>20483.82216554508</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1859,15 @@
         <v>1109.2285</v>
       </c>
       <c r="G48" t="n">
-        <v>19374.59366554508</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1889,15 @@
         <v>127.86</v>
       </c>
       <c r="G49" t="n">
-        <v>19502.45366554508</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1919,15 @@
         <v>71.6781</v>
       </c>
       <c r="G50" t="n">
-        <v>19574.13176554508</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1949,15 @@
         <v>800</v>
       </c>
       <c r="G51" t="n">
-        <v>20374.13176554508</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1979,15 @@
         <v>318.7233</v>
       </c>
       <c r="G52" t="n">
-        <v>20374.13176554508</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2009,15 @@
         <v>5606.4752</v>
       </c>
       <c r="G53" t="n">
-        <v>25980.60696554508</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2039,15 @@
         <v>2390.3</v>
       </c>
       <c r="G54" t="n">
-        <v>25980.60696554508</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2069,15 @@
         <v>7431.003</v>
       </c>
       <c r="G55" t="n">
-        <v>33411.60996554507</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2099,15 @@
         <v>2874</v>
       </c>
       <c r="G56" t="n">
-        <v>33411.60996554507</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2129,15 @@
         <v>300</v>
       </c>
       <c r="G57" t="n">
-        <v>33411.60996554507</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2159,15 @@
         <v>122</v>
       </c>
       <c r="G58" t="n">
-        <v>33411.60996554507</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2189,15 @@
         <v>2340</v>
       </c>
       <c r="G59" t="n">
-        <v>33411.60996554507</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2219,15 @@
         <v>4997.4</v>
       </c>
       <c r="G60" t="n">
-        <v>33411.60996554507</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2249,15 @@
         <v>556</v>
       </c>
       <c r="G61" t="n">
-        <v>33411.60996554507</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2279,15 @@
         <v>2829.5245</v>
       </c>
       <c r="G62" t="n">
-        <v>33411.60996554507</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2309,15 @@
         <v>2.8</v>
       </c>
       <c r="G63" t="n">
-        <v>33414.40996554508</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2339,15 @@
         <v>979.2866</v>
       </c>
       <c r="G64" t="n">
-        <v>32435.12336554508</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2369,15 @@
         <v>43.4646</v>
       </c>
       <c r="G65" t="n">
-        <v>32391.65876554508</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2399,15 @@
         <v>546.9509</v>
       </c>
       <c r="G66" t="n">
-        <v>32391.65876554508</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2429,15 @@
         <v>35.4095</v>
       </c>
       <c r="G67" t="n">
-        <v>32391.65876554508</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2459,15 @@
         <v>696.8098</v>
       </c>
       <c r="G68" t="n">
-        <v>33088.46856554508</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2489,15 @@
         <v>1890.5855</v>
       </c>
       <c r="G69" t="n">
-        <v>33088.46856554508</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2519,15 @@
         <v>501.79</v>
       </c>
       <c r="G70" t="n">
-        <v>33088.46856554508</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2549,15 @@
         <v>696.2311999999999</v>
       </c>
       <c r="G71" t="n">
-        <v>33088.46856554508</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2579,15 @@
         <v>663.8599</v>
       </c>
       <c r="G72" t="n">
-        <v>32424.60866554508</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2609,15 @@
         <v>2004.9699</v>
       </c>
       <c r="G73" t="n">
-        <v>34429.57856554508</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2639,15 @@
         <v>300</v>
       </c>
       <c r="G74" t="n">
-        <v>34429.57856554508</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2669,15 @@
         <v>730.4191</v>
       </c>
       <c r="G75" t="n">
-        <v>33699.15946554508</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2699,15 @@
         <v>0.0001</v>
       </c>
       <c r="G76" t="n">
-        <v>33699.15956554508</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2729,15 @@
         <v>999.9999</v>
       </c>
       <c r="G77" t="n">
-        <v>33699.15956554508</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2759,15 @@
         <v>0.0001</v>
       </c>
       <c r="G78" t="n">
-        <v>33699.15956554508</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2789,15 @@
         <v>44.6884</v>
       </c>
       <c r="G79" t="n">
-        <v>33654.47116554508</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2819,15 @@
         <v>345.72</v>
       </c>
       <c r="G80" t="n">
-        <v>33308.75116554508</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2849,15 @@
         <v>200.54</v>
       </c>
       <c r="G81" t="n">
-        <v>33308.75116554508</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2879,15 @@
         <v>3260.51</v>
       </c>
       <c r="G82" t="n">
-        <v>30048.24116554508</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2909,15 @@
         <v>518.85</v>
       </c>
       <c r="G83" t="n">
-        <v>30567.09116554508</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2939,15 @@
         <v>565.0934999999999</v>
       </c>
       <c r="G84" t="n">
-        <v>30567.09116554508</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2969,15 @@
         <v>78.5855</v>
       </c>
       <c r="G85" t="n">
-        <v>30567.09116554508</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2999,15 @@
         <v>409.6215</v>
       </c>
       <c r="G86" t="n">
-        <v>30567.09116554508</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3029,15 @@
         <v>1498.9153</v>
       </c>
       <c r="G87" t="n">
-        <v>32066.00646554508</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3059,15 @@
         <v>245.9496</v>
       </c>
       <c r="G88" t="n">
-        <v>32311.95606554508</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3089,15 @@
         <v>4823.5644</v>
       </c>
       <c r="G89" t="n">
-        <v>37135.52046554508</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3119,15 @@
         <v>595.5013</v>
       </c>
       <c r="G90" t="n">
-        <v>37135.52046554508</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3149,15 @@
         <v>535.9512999999999</v>
       </c>
       <c r="G91" t="n">
-        <v>37135.52046554508</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3179,15 @@
         <v>1514.733</v>
       </c>
       <c r="G92" t="n">
-        <v>37135.52046554508</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3209,15 @@
         <v>4730.2256</v>
       </c>
       <c r="G93" t="n">
-        <v>41865.74606554508</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3239,15 @@
         <v>55.9</v>
       </c>
       <c r="G94" t="n">
-        <v>41921.64606554508</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3269,15 @@
         <v>100.4433</v>
       </c>
       <c r="G95" t="n">
-        <v>41821.20276554508</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3299,15 @@
         <v>554.6899</v>
       </c>
       <c r="G96" t="n">
-        <v>41821.20276554508</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3329,15 @@
         <v>3394.8205</v>
       </c>
       <c r="G97" t="n">
-        <v>41821.20276554508</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3359,15 @@
         <v>547.0121</v>
       </c>
       <c r="G98" t="n">
-        <v>42368.21486554508</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3389,15 @@
         <v>4013.5686</v>
       </c>
       <c r="G99" t="n">
-        <v>38354.64626554508</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3419,15 @@
         <v>402.9353</v>
       </c>
       <c r="G100" t="n">
-        <v>38354.64626554508</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3449,15 @@
         <v>270</v>
       </c>
       <c r="G101" t="n">
-        <v>38354.64626554508</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3479,15 @@
         <v>1456.2369</v>
       </c>
       <c r="G102" t="n">
-        <v>36898.40936554508</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3509,15 @@
         <v>701.087</v>
       </c>
       <c r="G103" t="n">
-        <v>37599.49636554508</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3539,15 @@
         <v>7971.3053</v>
       </c>
       <c r="G104" t="n">
-        <v>29628.19106554508</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3569,15 @@
         <v>2304.0706</v>
       </c>
       <c r="G105" t="n">
-        <v>27324.12046554508</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3599,15 @@
         <v>46.87</v>
       </c>
       <c r="G106" t="n">
-        <v>27370.99046554508</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3629,15 @@
         <v>350.23</v>
       </c>
       <c r="G107" t="n">
-        <v>27721.22046554508</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3659,15 @@
         <v>563.7555</v>
       </c>
       <c r="G108" t="n">
-        <v>27157.46496554508</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3689,15 @@
         <v>1725.0898</v>
       </c>
       <c r="G109" t="n">
-        <v>27157.46496554508</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3719,15 @@
         <v>281.92</v>
       </c>
       <c r="G110" t="n">
-        <v>27157.46496554508</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3749,15 @@
         <v>30.1</v>
       </c>
       <c r="G111" t="n">
-        <v>27157.46496554508</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3779,15 @@
         <v>1.55</v>
       </c>
       <c r="G112" t="n">
-        <v>27159.01496554508</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3809,15 @@
         <v>3808.9145</v>
       </c>
       <c r="G113" t="n">
-        <v>23350.10046554508</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3839,15 @@
         <v>3706.1622</v>
       </c>
       <c r="G114" t="n">
-        <v>19643.93826554508</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3869,15 @@
         <v>434.5774</v>
       </c>
       <c r="G115" t="n">
-        <v>20078.51566554508</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3899,15 @@
         <v>1303.7322</v>
       </c>
       <c r="G116" t="n">
-        <v>21382.24786554508</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3929,15 @@
         <v>1029.5838</v>
       </c>
       <c r="G117" t="n">
-        <v>22411.83166554508</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3959,15 @@
         <v>574</v>
       </c>
       <c r="G118" t="n">
-        <v>21837.83166554508</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3989,15 @@
         <v>505.1616</v>
       </c>
       <c r="G119" t="n">
-        <v>22342.99326554508</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +4019,15 @@
         <v>44.2845</v>
       </c>
       <c r="G120" t="n">
-        <v>22342.99326554508</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4049,15 @@
         <v>423.1</v>
       </c>
       <c r="G121" t="n">
-        <v>22766.09326554507</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4079,15 @@
         <v>60</v>
       </c>
       <c r="G122" t="n">
-        <v>22826.09326554507</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4109,15 @@
         <v>120</v>
       </c>
       <c r="G123" t="n">
-        <v>22706.09326554507</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4139,15 @@
         <v>1884.5509</v>
       </c>
       <c r="G124" t="n">
-        <v>24590.64416554507</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4169,15 @@
         <v>267.8006</v>
       </c>
       <c r="G125" t="n">
-        <v>24858.44476554507</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4199,15 @@
         <v>471.6453</v>
       </c>
       <c r="G126" t="n">
-        <v>24386.79946554507</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4229,15 @@
         <v>64.238</v>
       </c>
       <c r="G127" t="n">
-        <v>24451.03746554507</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4259,15 @@
         <v>695.4880000000001</v>
       </c>
       <c r="G128" t="n">
-        <v>24451.03746554507</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4289,15 @@
         <v>20.582</v>
       </c>
       <c r="G129" t="n">
-        <v>24451.03746554507</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4319,15 @@
         <v>55.8</v>
       </c>
       <c r="G130" t="n">
-        <v>24395.23746554507</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4349,15 @@
         <v>1843.9452</v>
       </c>
       <c r="G131" t="n">
-        <v>26239.18266554507</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4379,15 @@
         <v>120</v>
       </c>
       <c r="G132" t="n">
-        <v>26119.18266554507</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4409,15 @@
         <v>64.85084306095979</v>
       </c>
       <c r="G133" t="n">
-        <v>26184.03350860603</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4439,15 @@
         <v>970.1367</v>
       </c>
       <c r="G134" t="n">
-        <v>25213.89680860603</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4469,15 @@
         <v>770.3774</v>
       </c>
       <c r="G135" t="n">
-        <v>25984.27420860603</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4499,15 @@
         <v>325.2355376623377</v>
       </c>
       <c r="G136" t="n">
-        <v>26309.50974626837</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4529,15 @@
         <v>2126.7099</v>
       </c>
       <c r="G137" t="n">
-        <v>28436.21964626837</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4559,15 @@
         <v>610.7749</v>
       </c>
       <c r="G138" t="n">
-        <v>29046.99454626837</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4589,15 @@
         <v>199.56</v>
       </c>
       <c r="G139" t="n">
-        <v>28847.43454626837</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4619,15 @@
         <v>1973.0199</v>
       </c>
       <c r="G140" t="n">
-        <v>30820.45444626837</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4649,15 @@
         <v>2007.5853</v>
       </c>
       <c r="G141" t="n">
-        <v>28812.86914626837</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4679,15 @@
         <v>5.1746</v>
       </c>
       <c r="G142" t="n">
-        <v>28812.86914626837</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4709,15 @@
         <v>783.8939</v>
       </c>
       <c r="G143" t="n">
-        <v>29596.76304626837</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4739,15 @@
         <v>100.4638</v>
       </c>
       <c r="G144" t="n">
-        <v>29496.29924626837</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4769,15 @@
         <v>713.7411</v>
       </c>
       <c r="G145" t="n">
-        <v>30210.04034626837</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4799,15 @@
         <v>4231.294139581076</v>
       </c>
       <c r="G146" t="n">
-        <v>34441.33448584945</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4829,15 @@
         <v>297.2333</v>
       </c>
       <c r="G147" t="n">
-        <v>34144.10118584945</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4859,15 @@
         <v>876.4568732394366</v>
       </c>
       <c r="G148" t="n">
-        <v>35020.55805908889</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +4889,15 @@
         <v>2000</v>
       </c>
       <c r="G149" t="n">
-        <v>35020.55805908889</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +4919,15 @@
         <v>26</v>
       </c>
       <c r="G150" t="n">
-        <v>34994.55805908889</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +4949,15 @@
         <v>1245.61</v>
       </c>
       <c r="G151" t="n">
-        <v>36240.16805908889</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +4979,15 @@
         <v>2235.8498</v>
       </c>
       <c r="G152" t="n">
-        <v>38476.01785908888</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +5009,15 @@
         <v>6105.81</v>
       </c>
       <c r="G153" t="n">
-        <v>32370.20785908888</v>
-      </c>
-      <c r="H153" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5039,15 @@
         <v>315.7766202020202</v>
       </c>
       <c r="G154" t="n">
-        <v>32685.9844792909</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5069,15 @@
         <v>1476.8483</v>
       </c>
       <c r="G155" t="n">
-        <v>31209.1361792909</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5099,15 @@
         <v>120</v>
       </c>
       <c r="G156" t="n">
-        <v>31209.1361792909</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5129,15 @@
         <v>230.599</v>
       </c>
       <c r="G157" t="n">
-        <v>31439.7351792909</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5159,15 @@
         <v>161.11</v>
       </c>
       <c r="G158" t="n">
-        <v>31278.6251792909</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5189,15 @@
         <v>3.9695</v>
       </c>
       <c r="G159" t="n">
-        <v>31282.5946792909</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5219,15 @@
         <v>920.7066</v>
       </c>
       <c r="G160" t="n">
-        <v>30361.8880792909</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5249,15 @@
         <v>6</v>
       </c>
       <c r="G161" t="n">
-        <v>30367.8880792909</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5279,15 @@
         <v>863.6858</v>
       </c>
       <c r="G162" t="n">
-        <v>31231.5738792909</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5309,15 @@
         <v>234.7445</v>
       </c>
       <c r="G163" t="n">
-        <v>31231.5738792909</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5339,15 @@
         <v>1.9648</v>
       </c>
       <c r="G164" t="n">
-        <v>31233.5386792909</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5369,15 @@
         <v>420.3318</v>
       </c>
       <c r="G165" t="n">
-        <v>31233.5386792909</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5399,15 @@
         <v>364.5914</v>
       </c>
       <c r="G166" t="n">
-        <v>31233.5386792909</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +5429,15 @@
         <v>676.4795</v>
       </c>
       <c r="G167" t="n">
-        <v>30557.0591792909</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +5459,15 @@
         <v>340</v>
       </c>
       <c r="G168" t="n">
-        <v>30217.0591792909</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +5489,15 @@
         <v>392.225</v>
       </c>
       <c r="G169" t="n">
-        <v>30217.0591792909</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +5519,15 @@
         <v>118.5663</v>
       </c>
       <c r="G170" t="n">
-        <v>30217.0591792909</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,18 +5549,15 @@
         <v>240.165</v>
       </c>
       <c r="G171" t="n">
-        <v>30457.2241792909</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6058,18 +5579,15 @@
         <v>1665.75</v>
       </c>
       <c r="G172" t="n">
-        <v>28791.4741792909</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6091,18 +5609,15 @@
         <v>1.71</v>
       </c>
       <c r="G173" t="n">
-        <v>28793.1841792909</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6124,18 +5639,15 @@
         <v>4.1</v>
       </c>
       <c r="G174" t="n">
-        <v>28797.28417929089</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6157,18 +5669,15 @@
         <v>427.1978</v>
       </c>
       <c r="G175" t="n">
-        <v>28370.08637929089</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6190,18 +5699,15 @@
         <v>236.1933</v>
       </c>
       <c r="G176" t="n">
-        <v>28133.89307929089</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6223,18 +5729,15 @@
         <v>0.0001</v>
       </c>
       <c r="G177" t="n">
-        <v>28133.89307929089</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6256,18 +5759,15 @@
         <v>522.8299</v>
       </c>
       <c r="G178" t="n">
-        <v>27611.06317929089</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6289,18 +5789,15 @@
         <v>123.52</v>
       </c>
       <c r="G179" t="n">
-        <v>27611.06317929089</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6322,18 +5819,15 @@
         <v>3260</v>
       </c>
       <c r="G180" t="n">
-        <v>30871.06317929089</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6355,18 +5849,15 @@
         <v>678.0958000000001</v>
       </c>
       <c r="G181" t="n">
-        <v>31549.15897929089</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6388,18 +5879,15 @@
         <v>195.567</v>
       </c>
       <c r="G182" t="n">
-        <v>31353.59197929089</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6421,18 +5909,15 @@
         <v>197.3211</v>
       </c>
       <c r="G183" t="n">
-        <v>31156.27087929089</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6454,18 +5939,15 @@
         <v>96</v>
       </c>
       <c r="G184" t="n">
-        <v>31060.27087929089</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6487,18 +5969,15 @@
         <v>847.776</v>
       </c>
       <c r="G185" t="n">
-        <v>30212.49487929089</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6520,18 +5999,15 @@
         <v>21.226</v>
       </c>
       <c r="G186" t="n">
-        <v>30212.49487929089</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6553,18 +6029,15 @@
         <v>495.6673</v>
       </c>
       <c r="G187" t="n">
-        <v>30212.49487929089</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6586,18 +6059,15 @@
         <v>45.2854</v>
       </c>
       <c r="G188" t="n">
-        <v>30257.78027929089</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6619,18 +6089,15 @@
         <v>209.59</v>
       </c>
       <c r="G189" t="n">
-        <v>30467.37027929089</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6652,18 +6119,15 @@
         <v>47.9363</v>
       </c>
       <c r="G190" t="n">
-        <v>30419.43397929089</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6685,18 +6149,15 @@
         <v>60</v>
       </c>
       <c r="G191" t="n">
-        <v>30359.43397929089</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6718,18 +6179,15 @@
         <v>587.3718</v>
       </c>
       <c r="G192" t="n">
-        <v>29772.06217929089</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6751,18 +6209,15 @@
         <v>101.4327</v>
       </c>
       <c r="G193" t="n">
-        <v>29873.49487929089</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6784,18 +6239,15 @@
         <v>26.517</v>
       </c>
       <c r="G194" t="n">
-        <v>29873.49487929089</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6817,18 +6269,15 @@
         <v>242.3223</v>
       </c>
       <c r="G195" t="n">
-        <v>29631.17257929089</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6850,18 +6299,15 @@
         <v>120</v>
       </c>
       <c r="G196" t="n">
-        <v>29631.17257929089</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6883,18 +6329,15 @@
         <v>307.1</v>
       </c>
       <c r="G197" t="n">
-        <v>29324.07257929089</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6916,18 +6359,15 @@
         <v>111.97</v>
       </c>
       <c r="G198" t="n">
-        <v>29436.04257929089</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -6949,18 +6389,15 @@
         <v>23.3654</v>
       </c>
       <c r="G199" t="n">
-        <v>29436.04257929089</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -6982,18 +6419,15 @@
         <v>473.1709</v>
       </c>
       <c r="G200" t="n">
-        <v>29909.21347929089</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7015,18 +6449,15 @@
         <v>1393.616</v>
       </c>
       <c r="G201" t="n">
-        <v>31302.82947929089</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7048,18 +6479,15 @@
         <v>119.2399</v>
       </c>
       <c r="G202" t="n">
-        <v>31302.82947929089</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7081,18 +6509,15 @@
         <v>2199.1227</v>
       </c>
       <c r="G203" t="n">
-        <v>31302.82947929089</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7114,18 +6539,15 @@
         <v>266.0521</v>
       </c>
       <c r="G204" t="n">
-        <v>31036.77737929089</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7147,18 +6569,15 @@
         <v>107.8681</v>
       </c>
       <c r="G205" t="n">
-        <v>30928.90927929089</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7180,18 +6599,15 @@
         <v>50</v>
       </c>
       <c r="G206" t="n">
-        <v>30878.90927929089</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7213,18 +6629,15 @@
         <v>50</v>
       </c>
       <c r="G207" t="n">
-        <v>30928.90927929089</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7246,18 +6659,15 @@
         <v>46.0521</v>
       </c>
       <c r="G208" t="n">
-        <v>30974.96137929089</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7279,18 +6689,15 @@
         <v>2799.52</v>
       </c>
       <c r="G209" t="n">
-        <v>28175.44137929089</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7312,18 +6719,15 @@
         <v>177.5653</v>
       </c>
       <c r="G210" t="n">
-        <v>28175.44137929089</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7345,18 +6749,15 @@
         <v>1154.345</v>
       </c>
       <c r="G211" t="n">
-        <v>29329.78637929089</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7378,18 +6779,15 @@
         <v>270</v>
       </c>
       <c r="G212" t="n">
-        <v>29059.78637929089</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7411,18 +6809,15 @@
         <v>540</v>
       </c>
       <c r="G213" t="n">
-        <v>28519.78637929089</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7444,18 +6839,15 @@
         <v>2791.5112</v>
       </c>
       <c r="G214" t="n">
-        <v>25728.27517929089</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7477,18 +6869,15 @@
         <v>1899.9878</v>
       </c>
       <c r="G215" t="n">
-        <v>23828.28737929089</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7510,18 +6899,15 @@
         <v>770.3005000000001</v>
       </c>
       <c r="G216" t="n">
-        <v>23828.28737929089</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7543,18 +6929,15 @@
         <v>27.0607</v>
       </c>
       <c r="G217" t="n">
-        <v>23855.3480792909</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7576,18 +6959,15 @@
         <v>1500.3005</v>
       </c>
       <c r="G218" t="n">
-        <v>22355.04757929089</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7609,18 +6989,15 @@
         <v>500.0162</v>
       </c>
       <c r="G219" t="n">
-        <v>21855.03137929089</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7642,18 +7019,15 @@
         <v>706.796</v>
       </c>
       <c r="G220" t="n">
-        <v>22561.82737929089</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7675,18 +7049,15 @@
         <v>46.2262</v>
       </c>
       <c r="G221" t="n">
-        <v>22515.60117929089</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7708,18 +7079,15 @@
         <v>1400</v>
       </c>
       <c r="G222" t="n">
-        <v>21115.60117929089</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7741,18 +7109,15 @@
         <v>342.254</v>
       </c>
       <c r="G223" t="n">
-        <v>21457.85517929089</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -7774,18 +7139,15 @@
         <v>227.0262</v>
       </c>
       <c r="G224" t="n">
-        <v>21230.82897929089</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -7807,18 +7169,15 @@
         <v>285.9599</v>
       </c>
       <c r="G225" t="n">
-        <v>21516.78887929089</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -7840,18 +7199,15 @@
         <v>1188.2039</v>
       </c>
       <c r="G226" t="n">
-        <v>21516.78887929089</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -7873,18 +7229,15 @@
         <v>959.8868</v>
       </c>
       <c r="G227" t="n">
-        <v>22476.67567929089</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -7906,18 +7259,15 @@
         <v>385.1309</v>
       </c>
       <c r="G228" t="n">
-        <v>22861.80657929089</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -7939,18 +7289,15 @@
         <v>1647.2553</v>
       </c>
       <c r="G229" t="n">
-        <v>21214.55127929089</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -7972,18 +7319,15 @@
         <v>240.9783</v>
       </c>
       <c r="G230" t="n">
-        <v>20973.57297929089</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8005,18 +7349,15 @@
         <v>1056.2391</v>
       </c>
       <c r="G231" t="n">
-        <v>22029.81207929089</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8038,18 +7379,15 @@
         <v>1316.8692</v>
       </c>
       <c r="G232" t="n">
-        <v>20712.94287929089</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8071,18 +7409,15 @@
         <v>46.586</v>
       </c>
       <c r="G233" t="n">
-        <v>20759.52887929089</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8104,18 +7439,15 @@
         <v>2464.4593</v>
       </c>
       <c r="G234" t="n">
-        <v>18295.06957929089</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8137,18 +7469,15 @@
         <v>318.9202</v>
       </c>
       <c r="G235" t="n">
-        <v>17976.14937929089</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8170,18 +7499,15 @@
         <v>237.4831</v>
       </c>
       <c r="G236" t="n">
-        <v>17738.66627929089</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8203,18 +7529,15 @@
         <v>55.9</v>
       </c>
       <c r="G237" t="n">
-        <v>17738.66627929089</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8236,18 +7559,15 @@
         <v>2302.29</v>
       </c>
       <c r="G238" t="n">
-        <v>20040.95627929089</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8269,18 +7589,15 @@
         <v>713.5964</v>
       </c>
       <c r="G239" t="n">
-        <v>20754.55267929089</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8302,18 +7619,15 @@
         <v>279.2</v>
       </c>
       <c r="G240" t="n">
-        <v>21033.75267929089</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8335,18 +7649,15 @@
         <v>657.4097</v>
       </c>
       <c r="G241" t="n">
-        <v>21691.16237929089</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8368,18 +7679,15 @@
         <v>40.5069</v>
       </c>
       <c r="G242" t="n">
-        <v>21691.16237929089</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8401,18 +7709,15 @@
         <v>1129.3751</v>
       </c>
       <c r="G243" t="n">
-        <v>20561.78727929089</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8434,18 +7739,15 @@
         <v>68.13509999999999</v>
       </c>
       <c r="G244" t="n">
-        <v>20629.92237929089</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8467,18 +7769,15 @@
         <v>561.3935</v>
       </c>
       <c r="G245" t="n">
-        <v>21191.31587929089</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8500,18 +7799,15 @@
         <v>1338.8029</v>
       </c>
       <c r="G246" t="n">
-        <v>22530.11877929089</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8533,18 +7829,15 @@
         <v>870.1721</v>
       </c>
       <c r="G247" t="n">
-        <v>23400.29087929089</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8566,18 +7859,15 @@
         <v>60.1456</v>
       </c>
       <c r="G248" t="n">
-        <v>23340.14527929089</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -8599,18 +7889,15 @@
         <v>1090.1267</v>
       </c>
       <c r="G249" t="n">
-        <v>24430.27197929089</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -8632,18 +7919,15 @@
         <v>527.6526</v>
       </c>
       <c r="G250" t="n">
-        <v>24957.92457929089</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -8665,18 +7949,15 @@
         <v>115.7232</v>
       </c>
       <c r="G251" t="n">
-        <v>25073.64777929089</v>
-      </c>
-      <c r="H251" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -8698,18 +7979,15 @@
         <v>1258.0743</v>
       </c>
       <c r="G252" t="n">
-        <v>23815.57347929089</v>
-      </c>
-      <c r="H252" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -8731,18 +8009,15 @@
         <v>640.563</v>
       </c>
       <c r="G253" t="n">
-        <v>23175.01047929089</v>
-      </c>
-      <c r="H253" t="n">
         <v>2</v>
       </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -8764,18 +8039,15 @@
         <v>811.0762</v>
       </c>
       <c r="G254" t="n">
-        <v>23986.08667929089</v>
-      </c>
-      <c r="H254" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -8797,18 +8069,15 @@
         <v>800</v>
       </c>
       <c r="G255" t="n">
-        <v>23186.08667929089</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -8830,18 +8099,15 @@
         <v>644.2588</v>
       </c>
       <c r="G256" t="n">
-        <v>23830.34547929089</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -8863,18 +8129,15 @@
         <v>834.3469</v>
       </c>
       <c r="G257" t="n">
-        <v>22995.99857929089</v>
-      </c>
-      <c r="H257" t="n">
         <v>2</v>
       </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -8896,18 +8159,15 @@
         <v>316.3125</v>
       </c>
       <c r="G258" t="n">
-        <v>22679.68607929089</v>
-      </c>
-      <c r="H258" t="n">
         <v>2</v>
       </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -8929,18 +8189,15 @@
         <v>366.409</v>
       </c>
       <c r="G259" t="n">
-        <v>22313.27707929089</v>
-      </c>
-      <c r="H259" t="n">
         <v>2</v>
       </c>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -8962,18 +8219,15 @@
         <v>2.4645</v>
       </c>
       <c r="G260" t="n">
-        <v>22315.74157929089</v>
-      </c>
-      <c r="H260" t="n">
         <v>2</v>
       </c>
+      <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -8995,18 +8249,15 @@
         <v>38.2</v>
       </c>
       <c r="G261" t="n">
-        <v>22277.54157929089</v>
-      </c>
-      <c r="H261" t="n">
         <v>2</v>
       </c>
+      <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9028,18 +8279,15 @@
         <v>2313.6302</v>
       </c>
       <c r="G262" t="n">
-        <v>19963.91137929089</v>
-      </c>
-      <c r="H262" t="n">
         <v>2</v>
       </c>
+      <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9061,18 +8309,15 @@
         <v>743.3519</v>
       </c>
       <c r="G263" t="n">
-        <v>19963.91137929089</v>
-      </c>
-      <c r="H263" t="n">
         <v>2</v>
       </c>
+      <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9094,18 +8339,15 @@
         <v>1727.2625</v>
       </c>
       <c r="G264" t="n">
-        <v>19963.91137929089</v>
-      </c>
-      <c r="H264" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9127,18 +8369,15 @@
         <v>502.7934</v>
       </c>
       <c r="G265" t="n">
-        <v>19963.91137929089</v>
-      </c>
-      <c r="H265" t="n">
         <v>2</v>
       </c>
+      <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9160,18 +8399,15 @@
         <v>1765.3811</v>
       </c>
       <c r="G266" t="n">
-        <v>18198.53027929089</v>
-      </c>
-      <c r="H266" t="n">
         <v>2</v>
       </c>
+      <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9193,18 +8429,15 @@
         <v>9595.1036</v>
       </c>
       <c r="G267" t="n">
-        <v>8603.426679290887</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -9226,18 +8459,15 @@
         <v>285.8797</v>
       </c>
       <c r="G268" t="n">
-        <v>8603.426679290887</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -9259,18 +8489,15 @@
         <v>409.35</v>
       </c>
       <c r="G269" t="n">
-        <v>9012.776679290888</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -9292,18 +8519,15 @@
         <v>46.1762</v>
       </c>
       <c r="G270" t="n">
-        <v>9058.952879290888</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -9325,18 +8549,15 @@
         <v>203.3438</v>
       </c>
       <c r="G271" t="n">
-        <v>8855.609079290887</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -9358,18 +8579,15 @@
         <v>6708.2873</v>
       </c>
       <c r="G272" t="n">
-        <v>2147.321779290887</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -9391,18 +8609,15 @@
         <v>3371.16</v>
       </c>
       <c r="G273" t="n">
-        <v>2147.321779290887</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -9424,18 +8639,15 @@
         <v>137</v>
       </c>
       <c r="G274" t="n">
-        <v>2147.321779290887</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -9457,18 +8669,15 @@
         <v>705.029</v>
       </c>
       <c r="G275" t="n">
-        <v>1442.292779290887</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -9490,18 +8699,15 @@
         <v>7956.2054</v>
       </c>
       <c r="G276" t="n">
-        <v>9398.498179290887</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -9523,18 +8729,15 @@
         <v>125</v>
       </c>
       <c r="G277" t="n">
-        <v>9398.498179290887</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -9556,18 +8759,15 @@
         <v>1395</v>
       </c>
       <c r="G278" t="n">
-        <v>9398.498179290887</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>1</v>
+      </c>
+      <c r="L278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -9589,18 +8789,15 @@
         <v>434.4</v>
       </c>
       <c r="G279" t="n">
-        <v>8964.098179290888</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>1</v>
+      </c>
+      <c r="L279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -9622,18 +8819,15 @@
         <v>6433.4116</v>
       </c>
       <c r="G280" t="n">
-        <v>2530.686579290887</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>1</v>
+      </c>
+      <c r="L280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -9655,18 +8849,15 @@
         <v>499.9999</v>
       </c>
       <c r="G281" t="n">
-        <v>3030.686479290887</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>1</v>
+      </c>
+      <c r="L281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -9688,18 +8879,15 @@
         <v>240.2546</v>
       </c>
       <c r="G282" t="n">
-        <v>3030.686479290887</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>1</v>
+      </c>
+      <c r="L282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -9721,18 +8909,15 @@
         <v>868.2926</v>
       </c>
       <c r="G283" t="n">
-        <v>3030.686479290887</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>1</v>
+      </c>
+      <c r="L283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -9754,18 +8939,15 @@
         <v>1</v>
       </c>
       <c r="G284" t="n">
-        <v>3031.686479290887</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>1</v>
+      </c>
+      <c r="L284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -9787,18 +8969,15 @@
         <v>144.12</v>
       </c>
       <c r="G285" t="n">
-        <v>3175.806479290887</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>1</v>
+      </c>
+      <c r="L285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -9820,18 +8999,15 @@
         <v>1477.9628</v>
       </c>
       <c r="G286" t="n">
-        <v>4653.769279290887</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>1</v>
+      </c>
+      <c r="L286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -9853,18 +9029,15 @@
         <v>1477.5193</v>
       </c>
       <c r="G287" t="n">
-        <v>3176.249979290887</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>1</v>
+      </c>
+      <c r="L287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -9886,18 +9059,15 @@
         <v>1077.13</v>
       </c>
       <c r="G288" t="n">
-        <v>4253.379979290888</v>
-      </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>1</v>
+      </c>
+      <c r="L288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -9919,18 +9089,15 @@
         <v>10459.6392</v>
       </c>
       <c r="G289" t="n">
-        <v>14713.01917929089</v>
-      </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>1</v>
+      </c>
+      <c r="L289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -9952,18 +9119,15 @@
         <v>453.5273</v>
       </c>
       <c r="G290" t="n">
-        <v>14259.49187929089</v>
-      </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>1</v>
+      </c>
+      <c r="L290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -9985,18 +9149,15 @@
         <v>535.8541</v>
       </c>
       <c r="G291" t="n">
-        <v>13723.63777929089</v>
-      </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>1</v>
+      </c>
+      <c r="L291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -10018,18 +9179,15 @@
         <v>22.1415</v>
       </c>
       <c r="G292" t="n">
-        <v>13745.77927929089</v>
-      </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>1</v>
+      </c>
+      <c r="L292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -10051,18 +9209,15 @@
         <v>283.5513</v>
       </c>
       <c r="G293" t="n">
-        <v>13462.22797929089</v>
-      </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>1</v>
+      </c>
+      <c r="L293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -10084,18 +9239,15 @@
         <v>1015.5375</v>
       </c>
       <c r="G294" t="n">
-        <v>12446.69047929089</v>
-      </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
-      <c r="L294" t="n">
-        <v>1</v>
-      </c>
-      <c r="M294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>1</v>
+      </c>
+      <c r="L294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -10117,18 +9269,15 @@
         <v>269</v>
       </c>
       <c r="G295" t="n">
-        <v>12177.69047929089</v>
-      </c>
-      <c r="H295" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>1</v>
+      </c>
+      <c r="L295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -10150,18 +9299,15 @@
         <v>61.0795</v>
       </c>
       <c r="G296" t="n">
-        <v>12238.76997929089</v>
-      </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="n">
-        <v>1</v>
-      </c>
-      <c r="M296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>1</v>
+      </c>
+      <c r="L296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -10183,18 +9329,15 @@
         <v>90.1444</v>
       </c>
       <c r="G297" t="n">
-        <v>12148.62557929089</v>
-      </c>
-      <c r="H297" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H297" t="inlineStr"/>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="n">
-        <v>1</v>
-      </c>
-      <c r="M297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>1</v>
+      </c>
+      <c r="L297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -10216,18 +9359,15 @@
         <v>44.9323</v>
       </c>
       <c r="G298" t="n">
-        <v>12103.69327929089</v>
-      </c>
-      <c r="H298" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H298" t="inlineStr"/>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
-      <c r="L298" t="n">
-        <v>1</v>
-      </c>
-      <c r="M298" t="inlineStr"/>
+      <c r="K298" t="n">
+        <v>1</v>
+      </c>
+      <c r="L298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -10249,18 +9389,15 @@
         <v>50.8827</v>
       </c>
       <c r="G299" t="n">
-        <v>12154.57597929089</v>
-      </c>
-      <c r="H299" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
-      <c r="L299" t="n">
-        <v>1</v>
-      </c>
-      <c r="M299" t="inlineStr"/>
+      <c r="K299" t="n">
+        <v>1</v>
+      </c>
+      <c r="L299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -10282,18 +9419,15 @@
         <v>251.5113</v>
       </c>
       <c r="G300" t="n">
-        <v>11903.06467929089</v>
-      </c>
-      <c r="H300" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H300" t="inlineStr"/>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
-      <c r="L300" t="n">
-        <v>1</v>
-      </c>
-      <c r="M300" t="inlineStr"/>
+      <c r="K300" t="n">
+        <v>1</v>
+      </c>
+      <c r="L300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -10315,18 +9449,15 @@
         <v>234.8839</v>
       </c>
       <c r="G301" t="n">
-        <v>11668.18077929089</v>
-      </c>
-      <c r="H301" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
-      <c r="L301" t="n">
-        <v>1</v>
-      </c>
-      <c r="M301" t="inlineStr"/>
+      <c r="K301" t="n">
+        <v>1</v>
+      </c>
+      <c r="L301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -10348,18 +9479,15 @@
         <v>44.364</v>
       </c>
       <c r="G302" t="n">
-        <v>11623.81677929089</v>
-      </c>
-      <c r="H302" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
-      <c r="L302" t="n">
-        <v>1</v>
-      </c>
-      <c r="M302" t="inlineStr"/>
+      <c r="K302" t="n">
+        <v>1</v>
+      </c>
+      <c r="L302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -10381,18 +9509,15 @@
         <v>475.0893</v>
       </c>
       <c r="G303" t="n">
-        <v>11623.81677929089</v>
-      </c>
-      <c r="H303" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
-      <c r="L303" t="n">
-        <v>1</v>
-      </c>
-      <c r="M303" t="inlineStr"/>
+      <c r="K303" t="n">
+        <v>1</v>
+      </c>
+      <c r="L303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -10414,18 +9539,15 @@
         <v>47</v>
       </c>
       <c r="G304" t="n">
-        <v>11576.81677929089</v>
-      </c>
-      <c r="H304" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H304" t="inlineStr"/>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
-      <c r="L304" t="n">
-        <v>1</v>
-      </c>
-      <c r="M304" t="inlineStr"/>
+      <c r="K304" t="n">
+        <v>1</v>
+      </c>
+      <c r="L304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -10447,18 +9569,15 @@
         <v>74.20699999999999</v>
       </c>
       <c r="G305" t="n">
-        <v>11502.60977929089</v>
-      </c>
-      <c r="H305" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
-      <c r="L305" t="n">
-        <v>1</v>
-      </c>
-      <c r="M305" t="inlineStr"/>
+      <c r="K305" t="n">
+        <v>1</v>
+      </c>
+      <c r="L305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -10480,18 +9599,15 @@
         <v>178.6805</v>
       </c>
       <c r="G306" t="n">
-        <v>11681.29027929089</v>
-      </c>
-      <c r="H306" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
-      <c r="L306" t="n">
-        <v>1</v>
-      </c>
-      <c r="M306" t="inlineStr"/>
+      <c r="K306" t="n">
+        <v>1</v>
+      </c>
+      <c r="L306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -10513,18 +9629,15 @@
         <v>451.8513</v>
       </c>
       <c r="G307" t="n">
-        <v>11681.29027929089</v>
-      </c>
-      <c r="H307" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
-      <c r="L307" t="n">
-        <v>1</v>
-      </c>
-      <c r="M307" t="inlineStr"/>
+      <c r="K307" t="n">
+        <v>1</v>
+      </c>
+      <c r="L307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -10546,18 +9659,15 @@
         <v>22.079</v>
       </c>
       <c r="G308" t="n">
-        <v>11681.29027929089</v>
-      </c>
-      <c r="H308" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H308" t="inlineStr"/>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
-      <c r="L308" t="n">
-        <v>1</v>
-      </c>
-      <c r="M308" t="inlineStr"/>
+      <c r="K308" t="n">
+        <v>1</v>
+      </c>
+      <c r="L308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -10579,18 +9689,15 @@
         <v>1373.498</v>
       </c>
       <c r="G309" t="n">
-        <v>10307.79227929089</v>
-      </c>
-      <c r="H309" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H309" t="inlineStr"/>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
-      <c r="L309" t="n">
-        <v>1</v>
-      </c>
-      <c r="M309" t="inlineStr"/>
+      <c r="K309" t="n">
+        <v>1</v>
+      </c>
+      <c r="L309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -10612,18 +9719,15 @@
         <v>1000</v>
       </c>
       <c r="G310" t="n">
-        <v>11307.79227929089</v>
-      </c>
-      <c r="H310" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H310" t="inlineStr"/>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
-      <c r="L310" t="n">
-        <v>1</v>
-      </c>
-      <c r="M310" t="inlineStr"/>
+      <c r="K310" t="n">
+        <v>1</v>
+      </c>
+      <c r="L310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -10645,18 +9749,15 @@
         <v>1305.0399</v>
       </c>
       <c r="G311" t="n">
-        <v>10002.75237929089</v>
-      </c>
-      <c r="H311" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H311" t="inlineStr"/>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
-      <c r="L311" t="n">
-        <v>1</v>
-      </c>
-      <c r="M311" t="inlineStr"/>
+      <c r="K311" t="n">
+        <v>1</v>
+      </c>
+      <c r="L311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -10678,18 +9779,15 @@
         <v>432.1109</v>
       </c>
       <c r="G312" t="n">
-        <v>10434.86327929089</v>
-      </c>
-      <c r="H312" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H312" t="inlineStr"/>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
-      <c r="L312" t="n">
-        <v>1</v>
-      </c>
-      <c r="M312" t="inlineStr"/>
+      <c r="K312" t="n">
+        <v>1</v>
+      </c>
+      <c r="L312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -10711,18 +9809,15 @@
         <v>471.8692</v>
       </c>
       <c r="G313" t="n">
-        <v>9962.994079290889</v>
-      </c>
-      <c r="H313" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H313" t="inlineStr"/>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
-      <c r="L313" t="n">
-        <v>1</v>
-      </c>
-      <c r="M313" t="inlineStr"/>
+      <c r="K313" t="n">
+        <v>1</v>
+      </c>
+      <c r="L313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -10744,18 +9839,15 @@
         <v>131</v>
       </c>
       <c r="G314" t="n">
-        <v>9831.994079290889</v>
-      </c>
-      <c r="H314" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H314" t="inlineStr"/>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
-      <c r="L314" t="n">
-        <v>1</v>
-      </c>
-      <c r="M314" t="inlineStr"/>
+      <c r="K314" t="n">
+        <v>1</v>
+      </c>
+      <c r="L314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -10777,18 +9869,15 @@
         <v>14369.0286</v>
       </c>
       <c r="G315" t="n">
-        <v>-4537.03452070911</v>
-      </c>
-      <c r="H315" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H315" t="inlineStr"/>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
-      <c r="L315" t="n">
-        <v>1</v>
-      </c>
-      <c r="M315" t="inlineStr"/>
+      <c r="K315" t="n">
+        <v>1</v>
+      </c>
+      <c r="L315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -10810,18 +9899,15 @@
         <v>4787.6075</v>
       </c>
       <c r="G316" t="n">
-        <v>-9324.642020709111</v>
-      </c>
-      <c r="H316" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H316" t="inlineStr"/>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
-      <c r="L316" t="n">
-        <v>1</v>
-      </c>
-      <c r="M316" t="inlineStr"/>
+      <c r="K316" t="n">
+        <v>1</v>
+      </c>
+      <c r="L316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -10843,18 +9929,15 @@
         <v>15</v>
       </c>
       <c r="G317" t="n">
-        <v>-9309.642020709111</v>
-      </c>
-      <c r="H317" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H317" t="inlineStr"/>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
-      <c r="L317" t="n">
-        <v>1</v>
-      </c>
-      <c r="M317" t="inlineStr"/>
+      <c r="K317" t="n">
+        <v>1</v>
+      </c>
+      <c r="L317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -10876,18 +9959,15 @@
         <v>376.6408</v>
       </c>
       <c r="G318" t="n">
-        <v>-9686.28282070911</v>
-      </c>
-      <c r="H318" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H318" t="inlineStr"/>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
-      <c r="L318" t="n">
-        <v>1</v>
-      </c>
-      <c r="M318" t="inlineStr"/>
+      <c r="K318" t="n">
+        <v>1</v>
+      </c>
+      <c r="L318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -10909,18 +9989,15 @@
         <v>79.6097</v>
       </c>
       <c r="G319" t="n">
-        <v>-9606.673120709109</v>
-      </c>
-      <c r="H319" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H319" t="inlineStr"/>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
-      <c r="L319" t="n">
-        <v>1</v>
-      </c>
-      <c r="M319" t="inlineStr"/>
+      <c r="K319" t="n">
+        <v>1</v>
+      </c>
+      <c r="L319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -10942,18 +10019,15 @@
         <v>624.4933</v>
       </c>
       <c r="G320" t="n">
-        <v>-8982.179820709109</v>
-      </c>
-      <c r="H320" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H320" t="inlineStr"/>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
-      <c r="L320" t="n">
-        <v>1</v>
-      </c>
-      <c r="M320" t="inlineStr"/>
+      <c r="K320" t="n">
+        <v>1</v>
+      </c>
+      <c r="L320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -10975,18 +10049,15 @@
         <v>194.141</v>
       </c>
       <c r="G321" t="n">
-        <v>-8788.038820709109</v>
-      </c>
-      <c r="H321" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H321" t="inlineStr"/>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
-      <c r="L321" t="n">
-        <v>1</v>
-      </c>
-      <c r="M321" t="inlineStr"/>
+      <c r="K321" t="n">
+        <v>1</v>
+      </c>
+      <c r="L321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -11008,18 +10079,15 @@
         <v>781.4598999999999</v>
       </c>
       <c r="G322" t="n">
-        <v>-8788.038820709109</v>
-      </c>
-      <c r="H322" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H322" t="inlineStr"/>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
-      <c r="L322" t="n">
-        <v>1</v>
-      </c>
-      <c r="M322" t="inlineStr"/>
+      <c r="K322" t="n">
+        <v>1</v>
+      </c>
+      <c r="L322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -11041,18 +10109,15 @@
         <v>46.1432</v>
       </c>
       <c r="G323" t="n">
-        <v>-8741.895620709109</v>
-      </c>
-      <c r="H323" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H323" t="inlineStr"/>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
-      <c r="L323" t="n">
-        <v>1</v>
-      </c>
-      <c r="M323" t="inlineStr"/>
+      <c r="K323" t="n">
+        <v>1</v>
+      </c>
+      <c r="L323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -11074,18 +10139,15 @@
         <v>1021.9253</v>
       </c>
       <c r="G324" t="n">
-        <v>-9763.820920709109</v>
-      </c>
-      <c r="H324" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H324" t="inlineStr"/>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
-      <c r="L324" t="n">
-        <v>1</v>
-      </c>
-      <c r="M324" t="inlineStr"/>
+      <c r="K324" t="n">
+        <v>1</v>
+      </c>
+      <c r="L324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -11107,22 +10169,19 @@
         <v>240.2842</v>
       </c>
       <c r="G325" t="n">
-        <v>-9523.536720709109</v>
+        <v>1</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
+        <v>746</v>
       </c>
       <c r="I325" t="n">
         <v>746</v>
       </c>
-      <c r="J325" t="n">
-        <v>746</v>
-      </c>
-      <c r="K325" t="inlineStr"/>
-      <c r="L325" t="n">
-        <v>1</v>
-      </c>
-      <c r="M325" t="inlineStr"/>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="n">
+        <v>1</v>
+      </c>
+      <c r="L325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -11144,24 +10203,23 @@
         <v>817.0796</v>
       </c>
       <c r="G326" t="n">
-        <v>-10340.61632070911</v>
+        <v>1</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
+        <v>753</v>
+      </c>
+      <c r="I326" t="n">
         <v>746</v>
       </c>
-      <c r="K326" t="inlineStr">
+      <c r="J326" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L326" t="n">
-        <v>1</v>
-      </c>
-      <c r="M326" t="inlineStr"/>
+      <c r="K326" t="n">
+        <v>1</v>
+      </c>
+      <c r="L326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -11183,24 +10241,21 @@
         <v>1042.9355</v>
       </c>
       <c r="G327" t="n">
-        <v>-11383.55182070911</v>
-      </c>
-      <c r="H327" t="n">
-        <v>0</v>
-      </c>
-      <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
+        <v>0</v>
+      </c>
+      <c r="H327" t="inlineStr"/>
+      <c r="I327" t="n">
         <v>746</v>
       </c>
-      <c r="K327" t="inlineStr">
+      <c r="J327" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L327" t="n">
-        <v>1</v>
-      </c>
-      <c r="M327" t="inlineStr"/>
+      <c r="K327" t="n">
+        <v>1</v>
+      </c>
+      <c r="L327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -11222,26 +10277,23 @@
         <v>528.1807</v>
       </c>
       <c r="G328" t="n">
-        <v>-11383.55182070911</v>
+        <v>1</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
+        <v>745</v>
       </c>
       <c r="I328" t="n">
-        <v>745</v>
-      </c>
-      <c r="J328" t="n">
         <v>746</v>
       </c>
-      <c r="K328" t="inlineStr">
+      <c r="J328" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L328" t="n">
-        <v>1</v>
-      </c>
-      <c r="M328" t="inlineStr"/>
+      <c r="K328" t="n">
+        <v>1</v>
+      </c>
+      <c r="L328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -11263,26 +10315,23 @@
         <v>210.9</v>
       </c>
       <c r="G329" t="n">
-        <v>-11172.65182070911</v>
+        <v>1</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
+        <v>745</v>
       </c>
       <c r="I329" t="n">
-        <v>745</v>
-      </c>
-      <c r="J329" t="n">
         <v>746</v>
       </c>
-      <c r="K329" t="inlineStr">
+      <c r="J329" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L329" t="n">
-        <v>1</v>
-      </c>
-      <c r="M329" t="inlineStr"/>
+      <c r="K329" t="n">
+        <v>1</v>
+      </c>
+      <c r="L329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -11304,26 +10353,23 @@
         <v>2547.1132</v>
       </c>
       <c r="G330" t="n">
-        <v>-13719.76502070911</v>
+        <v>1</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
+        <v>746</v>
       </c>
       <c r="I330" t="n">
         <v>746</v>
       </c>
-      <c r="J330" t="n">
-        <v>746</v>
-      </c>
-      <c r="K330" t="inlineStr">
+      <c r="J330" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L330" t="n">
-        <v>1</v>
-      </c>
-      <c r="M330" t="inlineStr"/>
+      <c r="K330" t="n">
+        <v>1</v>
+      </c>
+      <c r="L330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -11345,24 +10391,23 @@
         <v>42.9899</v>
       </c>
       <c r="G331" t="n">
-        <v>-13676.77512070911</v>
+        <v>1</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
+        <v>743</v>
+      </c>
+      <c r="I331" t="n">
         <v>746</v>
       </c>
-      <c r="K331" t="inlineStr">
+      <c r="J331" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L331" t="n">
-        <v>1</v>
-      </c>
-      <c r="M331" t="inlineStr"/>
+      <c r="K331" t="n">
+        <v>1</v>
+      </c>
+      <c r="L331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -11384,26 +10429,23 @@
         <v>1499.124</v>
       </c>
       <c r="G332" t="n">
-        <v>-15175.89912070911</v>
+        <v>1</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
+        <v>747</v>
       </c>
       <c r="I332" t="n">
-        <v>747</v>
-      </c>
-      <c r="J332" t="n">
         <v>746</v>
       </c>
-      <c r="K332" t="inlineStr">
+      <c r="J332" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L332" t="n">
-        <v>1</v>
-      </c>
-      <c r="M332" t="inlineStr"/>
+      <c r="K332" t="n">
+        <v>1</v>
+      </c>
+      <c r="L332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -11425,26 +10467,23 @@
         <v>2069.9305</v>
       </c>
       <c r="G333" t="n">
-        <v>-13105.96862070911</v>
+        <v>1</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
+        <v>746</v>
       </c>
       <c r="I333" t="n">
         <v>746</v>
       </c>
-      <c r="J333" t="n">
-        <v>746</v>
-      </c>
-      <c r="K333" t="inlineStr">
+      <c r="J333" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L333" t="n">
-        <v>1</v>
-      </c>
-      <c r="M333" t="inlineStr"/>
+      <c r="K333" t="n">
+        <v>1</v>
+      </c>
+      <c r="L333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -11466,26 +10505,21 @@
         <v>1147.2399</v>
       </c>
       <c r="G334" t="n">
-        <v>-13105.96862070911</v>
-      </c>
-      <c r="H334" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H334" t="inlineStr"/>
       <c r="I334" t="n">
-        <v>753</v>
-      </c>
-      <c r="J334" t="n">
         <v>746</v>
       </c>
-      <c r="K334" t="inlineStr">
+      <c r="J334" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L334" t="n">
-        <v>1</v>
-      </c>
-      <c r="M334" t="inlineStr"/>
+      <c r="K334" t="n">
+        <v>1</v>
+      </c>
+      <c r="L334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -11507,26 +10541,21 @@
         <v>301.14</v>
       </c>
       <c r="G335" t="n">
-        <v>-13105.96862070911</v>
-      </c>
-      <c r="H335" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H335" t="inlineStr"/>
       <c r="I335" t="n">
-        <v>753</v>
-      </c>
-      <c r="J335" t="n">
         <v>746</v>
       </c>
-      <c r="K335" t="inlineStr">
+      <c r="J335" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L335" t="n">
-        <v>1</v>
-      </c>
-      <c r="M335" t="inlineStr"/>
+      <c r="K335" t="n">
+        <v>1</v>
+      </c>
+      <c r="L335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -11548,26 +10577,21 @@
         <v>500</v>
       </c>
       <c r="G336" t="n">
-        <v>-13105.96862070911</v>
-      </c>
-      <c r="H336" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H336" t="inlineStr"/>
       <c r="I336" t="n">
-        <v>753</v>
-      </c>
-      <c r="J336" t="n">
         <v>746</v>
       </c>
-      <c r="K336" t="inlineStr">
+      <c r="J336" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L336" t="n">
-        <v>1</v>
-      </c>
-      <c r="M336" t="inlineStr"/>
+      <c r="K336" t="n">
+        <v>1</v>
+      </c>
+      <c r="L336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -11589,26 +10613,23 @@
         <v>5</v>
       </c>
       <c r="G337" t="n">
-        <v>-13110.96862070911</v>
+        <v>1</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
+        <v>753</v>
       </c>
       <c r="I337" t="n">
-        <v>753</v>
-      </c>
-      <c r="J337" t="n">
         <v>746</v>
       </c>
-      <c r="K337" t="inlineStr">
+      <c r="J337" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L337" t="n">
-        <v>1</v>
-      </c>
-      <c r="M337" t="inlineStr"/>
+      <c r="K337" t="n">
+        <v>1</v>
+      </c>
+      <c r="L337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -11630,26 +10651,23 @@
         <v>507.8401</v>
       </c>
       <c r="G338" t="n">
-        <v>-13618.80872070911</v>
+        <v>1</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
+        <v>750</v>
       </c>
       <c r="I338" t="n">
-        <v>750</v>
-      </c>
-      <c r="J338" t="n">
         <v>746</v>
       </c>
-      <c r="K338" t="inlineStr">
+      <c r="J338" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L338" t="n">
-        <v>1</v>
-      </c>
-      <c r="M338" t="inlineStr"/>
+      <c r="K338" t="n">
+        <v>1</v>
+      </c>
+      <c r="L338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -11671,26 +10689,23 @@
         <v>44.7416</v>
       </c>
       <c r="G339" t="n">
-        <v>-13574.06712070911</v>
+        <v>1</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
+        <v>748</v>
       </c>
       <c r="I339" t="n">
-        <v>748</v>
-      </c>
-      <c r="J339" t="n">
         <v>746</v>
       </c>
-      <c r="K339" t="inlineStr">
+      <c r="J339" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L339" t="n">
-        <v>1</v>
-      </c>
-      <c r="M339" t="inlineStr"/>
+      <c r="K339" t="n">
+        <v>1</v>
+      </c>
+      <c r="L339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -11712,26 +10727,21 @@
         <v>423</v>
       </c>
       <c r="G340" t="n">
-        <v>-13574.06712070911</v>
-      </c>
-      <c r="H340" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H340" t="inlineStr"/>
       <c r="I340" t="n">
-        <v>749</v>
-      </c>
-      <c r="J340" t="n">
         <v>746</v>
       </c>
-      <c r="K340" t="inlineStr">
+      <c r="J340" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L340" t="n">
-        <v>1</v>
-      </c>
-      <c r="M340" t="inlineStr"/>
+      <c r="K340" t="n">
+        <v>1</v>
+      </c>
+      <c r="L340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -11753,26 +10763,21 @@
         <v>141</v>
       </c>
       <c r="G341" t="n">
-        <v>-13574.06712070911</v>
-      </c>
-      <c r="H341" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H341" t="inlineStr"/>
       <c r="I341" t="n">
-        <v>749</v>
-      </c>
-      <c r="J341" t="n">
         <v>746</v>
       </c>
-      <c r="K341" t="inlineStr">
+      <c r="J341" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L341" t="n">
-        <v>1</v>
-      </c>
-      <c r="M341" t="inlineStr"/>
+      <c r="K341" t="n">
+        <v>1</v>
+      </c>
+      <c r="L341" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
